--- a/Beginner/Slides/Lec_3_4.xlsx
+++ b/Beginner/Slides/Lec_3_4.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55FBD90-09BC-2441-9207-287A4729EB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44632919-758C-2041-B139-F88398964255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="2" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="4" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
     <sheet name="Database" sheetId="8" r:id="rId2"/>
     <sheet name="DATA TYPE_FUNCTIONS" sheetId="10" r:id="rId3"/>
     <sheet name="Tables" sheetId="11" r:id="rId4"/>
-    <sheet name="WHERE" sheetId="9" r:id="rId5"/>
+    <sheet name="Project" sheetId="12" r:id="rId5"/>
+    <sheet name="WHERE" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="724">
   <si>
     <t>- 9年软件开发经验，擅长数据库、Python、AI</t>
   </si>
@@ -2373,12 +2374,225 @@
   <si>
     <t>ORDER BY LENGTH(name) DESC;</t>
   </si>
+  <si>
+    <t>1. Credit Card Transactions Dataset (Kaggle)</t>
+  </si>
+  <si>
+    <t>2. Stock Market Dataset (Yahoo Finance via Kaggle)</t>
+  </si>
+  <si>
+    <t>3. Bank Marketing Dataset (UCI ML Repository)</t>
+  </si>
+  <si>
+    <t>4. Financial Performance Dataset (Kaggle)</t>
+  </si>
+  <si>
+    <t>5. Loan Data from Lending Club (Kaggle)</t>
+  </si>
+  <si>
+    <r>
+      <t>内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：包含真实但匿名化的信用卡交易记录，用于分析正常 vs 欺诈交易。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用途</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：SQL 分组、过滤、聚合、时间序列分析、欺诈行为模式分析。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>适合项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：信用卡欺诈监测仪表盘 / 用户消费行为分析。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：不同公司的历史股价，包括开盘价、收盘价、成交量等。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用途</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：时间窗口聚合、涨跌幅计算、行业比较分析。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>适合项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：股票波动趋势分析 / 投资组合表现分析。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：葡萄牙一家银行电话营销活动的客户数据。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用途</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：用户行为分析、分组统计、营销活动成效分析。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>适合项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：客户分类与营销转化分析 / 银行客户特征提取。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：印度 Nifty50 公司长期的财务数据，如市盈率、市净率、盈利能力等。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用途</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：行业间财务指标对比、SQL 排名、数据透视分析。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>适合项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：财务健康评分系统 / 企业财报对比分析。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：借贷平台的贷款申请记录，包括信用评分、利率、贷款目的、还款状态等。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用途</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：贷款审批分析、违约率统计、SQL case when 应用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>适合项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>：信贷风控数据分析报告 / 借款人画像分析。</t>
+    </r>
+  </si>
+  <si>
+    <t>数据集</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2615,8 +2829,28 @@
       <color rgb="FFC00000"/>
       <name val="Kai Regular"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Kai Regular"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2650,6 +2884,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2724,10 +2964,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2802,6 +3043,10 @@
     <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2827,7 +3072,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3512,8 +3758,8 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3719,7 +3965,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="58" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3733,7 +3979,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="54"/>
+      <c r="D29" s="58"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -3745,7 +3991,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -3757,7 +4003,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="54"/>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -3769,7 +4015,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="54"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -3781,7 +4027,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="58"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -3793,7 +4039,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="54"/>
+      <c r="D34" s="58"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -3805,7 +4051,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="54"/>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -3817,7 +4063,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="54"/>
+      <c r="D36" s="58"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -3829,7 +4075,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="54"/>
+      <c r="D37" s="58"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -3841,7 +4087,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="54"/>
+      <c r="D38" s="58"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -3853,7 +4099,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="54"/>
+      <c r="D39" s="58"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -3865,7 +4111,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="54"/>
+      <c r="D40" s="58"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -3877,7 +4123,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="54"/>
+      <c r="D41" s="58"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -3889,7 +4135,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="54"/>
+      <c r="D42" s="58"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -3901,7 +4147,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="54"/>
+      <c r="D43" s="58"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -3913,7 +4159,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="54"/>
+      <c r="D44" s="58"/>
     </row>
     <row r="52" spans="1:4" ht="27">
       <c r="A52" s="3" t="s">
@@ -4013,7 +4259,7 @@
   </sheetPr>
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="94" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="94" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
@@ -4266,10 +4512,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="D46" s="55"/>
+      <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="23" t="s">
@@ -4352,8 +4598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57798350-C00C-C547-B042-B58ADFCF5FC6}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView showGridLines="0" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -4486,7 +4732,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="63" t="s">
         <v>205</v>
       </c>
       <c r="C16" s="50" t="s">
@@ -4500,7 +4746,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="60"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="51" t="s">
         <v>491</v>
       </c>
@@ -4512,7 +4758,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="63" t="s">
         <v>210</v>
       </c>
       <c r="C18" s="50" t="s">
@@ -4526,7 +4772,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="60"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="50" t="s">
         <v>214</v>
       </c>
@@ -4538,7 +4784,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="63" t="s">
         <v>217</v>
       </c>
       <c r="C20" s="50" t="s">
@@ -4552,7 +4798,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="60"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="50" t="s">
         <v>221</v>
       </c>
@@ -4592,7 +4838,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="63" t="s">
         <v>232</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -4606,7 +4852,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="61"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="27" t="s">
         <v>234</v>
       </c>
@@ -4618,7 +4864,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="60"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="27" t="s">
         <v>237</v>
       </c>
@@ -4658,7 +4904,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="60" t="s">
         <v>245</v>
       </c>
       <c r="C35" s="50" t="s">
@@ -4672,7 +4918,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="57"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="50" t="s">
         <v>248</v>
       </c>
@@ -4684,7 +4930,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="57"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="50" t="s">
         <v>610</v>
       </c>
@@ -4696,7 +4942,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="57"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="50" t="s">
         <v>253</v>
       </c>
@@ -4708,7 +4954,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="57"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="50" t="s">
         <v>255</v>
       </c>
@@ -4720,7 +4966,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="58"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="50" t="s">
         <v>257</v>
       </c>
@@ -4732,7 +4978,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="60" t="s">
         <v>260</v>
       </c>
       <c r="C41" s="50" t="s">
@@ -4746,7 +4992,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="57"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="50" t="s">
         <v>264</v>
       </c>
@@ -4758,7 +5004,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="57"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="52" t="s">
         <v>612</v>
       </c>
@@ -4773,7 +5019,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="57"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="50" t="s">
         <v>611</v>
       </c>
@@ -4785,7 +5031,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="57"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="50" t="s">
         <v>269</v>
       </c>
@@ -4800,7 +5046,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="58"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="50" t="s">
         <v>271</v>
       </c>
@@ -4813,7 +5059,7 @@
       <c r="L46" s="48"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="60" t="s">
         <v>273</v>
       </c>
       <c r="C47" s="53" t="s">
@@ -4830,7 +5076,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="57"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="53" t="s">
         <v>277</v>
       </c>
@@ -4843,7 +5089,7 @@
       <c r="L48" s="48"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="57"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="53" t="s">
         <v>280</v>
       </c>
@@ -4858,7 +5104,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="57"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="53" t="s">
         <v>283</v>
       </c>
@@ -4871,7 +5117,7 @@
       <c r="L50" s="48"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="57"/>
+      <c r="B51" s="61"/>
       <c r="C51" s="53" t="s">
         <v>286</v>
       </c>
@@ -4886,7 +5132,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="58"/>
+      <c r="B52" s="62"/>
       <c r="C52" s="53" t="s">
         <v>289</v>
       </c>
@@ -4898,7 +5144,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="60" t="s">
         <v>292</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -4912,7 +5158,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="57"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="27" t="s">
         <v>296</v>
       </c>
@@ -4924,7 +5170,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="57"/>
+      <c r="B55" s="61"/>
       <c r="C55" s="27" t="s">
         <v>299</v>
       </c>
@@ -4936,7 +5182,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="57"/>
+      <c r="B56" s="61"/>
       <c r="C56" s="27" t="s">
         <v>302</v>
       </c>
@@ -4948,7 +5194,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="58"/>
+      <c r="B57" s="62"/>
       <c r="C57" s="27" t="s">
         <v>305</v>
       </c>
@@ -4960,7 +5206,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="60" t="s">
         <v>308</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -4974,7 +5220,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="57"/>
+      <c r="B59" s="61"/>
       <c r="C59" s="27" t="s">
         <v>312</v>
       </c>
@@ -4986,7 +5232,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="57"/>
+      <c r="B60" s="61"/>
       <c r="C60" s="27" t="s">
         <v>315</v>
       </c>
@@ -4998,7 +5244,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="58"/>
+      <c r="B61" s="62"/>
       <c r="C61" s="27" t="s">
         <v>318</v>
       </c>
@@ -5726,15 +5972,212 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4670E86-91F4-B54C-B5CC-167B6AC5E3B7}">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25">
+      <c r="A1" s="54" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="56" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="1:8" ht="25">
+      <c r="B3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="25">
+      <c r="B4" s="54" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25">
+      <c r="B5" s="34"/>
+    </row>
+    <row r="6" spans="1:8" ht="25">
+      <c r="B6" s="54" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25">
+      <c r="B7" s="34"/>
+    </row>
+    <row r="8" spans="1:8" ht="25">
+      <c r="B8" s="54" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="25">
+      <c r="A10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="55" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="25">
+      <c r="B15" s="54" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="25">
+      <c r="B16" s="34"/>
+    </row>
+    <row r="17" spans="1:2" ht="25">
+      <c r="B17" s="54" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="55" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+    </row>
+    <row r="24" spans="1:2" ht="25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="54" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="34"/>
+    </row>
+    <row r="26" spans="1:2" ht="25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="54" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="25">
+      <c r="B27" s="34"/>
+    </row>
+    <row r="28" spans="1:2" ht="25">
+      <c r="B28" s="54" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="55" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+    </row>
+    <row r="36" spans="1:2" ht="25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="54" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="34"/>
+    </row>
+    <row r="38" spans="1:2" ht="25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="54" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="25">
+      <c r="B39" s="34"/>
+    </row>
+    <row r="40" spans="1:2" ht="25">
+      <c r="B40" s="54" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="25">
+      <c r="A46" s="34"/>
+      <c r="B46" s="55" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="25">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+    </row>
+    <row r="48" spans="1:2" ht="25">
+      <c r="A48" s="34"/>
+      <c r="B48" s="54" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="25">
+      <c r="A49" s="54"/>
+      <c r="B49" s="34"/>
+    </row>
+    <row r="50" spans="1:2" ht="25">
+      <c r="A50" s="34"/>
+      <c r="B50" s="54" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="25">
+      <c r="B51" s="34"/>
+    </row>
+    <row r="52" spans="1:2" ht="25">
+      <c r="B52" s="54" t="s">
+        <v>722</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.kaggle.com/datasets/kartik2112/fraud-detection" xr:uid="{2A350181-EFBF-0C47-ABD8-108A9CDBF096}"/>
+    <hyperlink ref="B11" r:id="rId2" display="https://www.kaggle.com/datasets/paultimothymooney/stock-market-data" xr:uid="{B29FA195-1D92-834F-BFB9-7C0E45BFDBA1}"/>
+    <hyperlink ref="B22" r:id="rId3" display="https://archive.ics.uci.edu/ml/datasets/bank+marketing" xr:uid="{0FAF2B3A-7612-474E-A9E7-8FB8D790755A}"/>
+    <hyperlink ref="B34" r:id="rId4" display="https://www.kaggle.com/datasets/rohanrao/nifty50-stock-market-data" xr:uid="{F357F1D3-9C0C-C548-8E92-1B38C706F89F}"/>
+    <hyperlink ref="B46" r:id="rId5" display="https://www.kaggle.com/datasets/wordsforthewise/lending-club" xr:uid="{1AF8A8BA-3DFA-2C4C-A12F-5A491200CDE3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BA09B4-4C11-4647-8D7F-110373603660}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:AH176"/>
   <sheetViews>
-    <sheetView topLeftCell="Z35" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AH142"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/Beginner/Slides/Lec_3_4.xlsx
+++ b/Beginner/Slides/Lec_3_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44632919-758C-2041-B139-F88398964255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339C206-CB89-2244-BFC7-A610B837F327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="4" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="2" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -4598,9 +4598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57798350-C00C-C547-B042-B58ADFCF5FC6}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:C52"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
@@ -5557,7 +5555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9803A1-78ED-4B41-B5F5-45DA2A685EF1}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
   <cols>
@@ -5975,7 +5975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4670E86-91F4-B54C-B5CC-167B6AC5E3B7}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="86" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>

--- a/Beginner/Slides/Lec_3_4.xlsx
+++ b/Beginner/Slides/Lec_3_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339C206-CB89-2244-BFC7-A610B837F327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE2453C-5947-F741-AF8A-E51CEDC1E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="2" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="7" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Tables" sheetId="11" r:id="rId4"/>
     <sheet name="Project" sheetId="12" r:id="rId5"/>
     <sheet name="WHERE" sheetId="9" r:id="rId6"/>
+    <sheet name="fraudTrain" sheetId="14" r:id="rId7"/>
+    <sheet name="Data Types SQL SERVER" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1199">
   <si>
     <t>- 9年软件开发经验，擅长数据库、Python、AI</t>
   </si>
@@ -2587,12 +2589,1457 @@
   <si>
     <t>数据集</t>
   </si>
+  <si>
+    <t>trans_date_trans_time</t>
+  </si>
+  <si>
+    <t>cc_num</t>
+  </si>
+  <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>amt</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>city_pop</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>trans_num</t>
+  </si>
+  <si>
+    <t>unix_time</t>
+  </si>
+  <si>
+    <t>merch_lat</t>
+  </si>
+  <si>
+    <t>merch_long</t>
+  </si>
+  <si>
+    <t>is_fraud</t>
+  </si>
+  <si>
+    <t>fraud_Kirlin and Sons</t>
+  </si>
+  <si>
+    <t>personal_care</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Elliott</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>351 Darlene Green</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Mechanical engineer</t>
+  </si>
+  <si>
+    <t>2da90c7d74bd46a0caf3777415b3ebd3</t>
+  </si>
+  <si>
+    <t>fraud_Sporer-Keebler</t>
+  </si>
+  <si>
+    <t>Joanne</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>3638 Marsh Union</t>
+  </si>
+  <si>
+    <t>Altonah</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Sales professional, IT</t>
+  </si>
+  <si>
+    <t>324cc204407e99f51b0d6ca0055005e7</t>
+  </si>
+  <si>
+    <t>fraud_Swaniawski, Nitzsche and Welch</t>
+  </si>
+  <si>
+    <t>health_fitness</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>9333 Valentine Point</t>
+  </si>
+  <si>
+    <t>Bellmore</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Librarian, public</t>
+  </si>
+  <si>
+    <t>c81755dbbbea9d5c77f094348a7579be</t>
+  </si>
+  <si>
+    <t>fraud_Haley Group</t>
+  </si>
+  <si>
+    <t>misc_pos</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>32941 Krystal Mill Apt. 552</t>
+  </si>
+  <si>
+    <t>Titusville</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Set designer</t>
+  </si>
+  <si>
+    <t>2159175b9efe66dc301f149d3d5abf8c</t>
+  </si>
+  <si>
+    <t>fraud_Johnston-Casper</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Massey</t>
+  </si>
+  <si>
+    <t>5783 Evan Roads Apt. 465</t>
+  </si>
+  <si>
+    <t>Falmouth</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Furniture designer</t>
+  </si>
+  <si>
+    <t>57ff021bd3f328f8738bb535c302a31b</t>
+  </si>
+  <si>
+    <t>fraud_Daugherty LLC</t>
+  </si>
+  <si>
+    <t>kids_pets</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>76752 David Lodge Apt. 064</t>
+  </si>
+  <si>
+    <t>Breesport</t>
+  </si>
+  <si>
+    <t>Psychotherapist</t>
+  </si>
+  <si>
+    <t>798db04aaceb4febd084f1a7c404da93</t>
+  </si>
+  <si>
+    <t>fraud_Romaguera Ltd</t>
+  </si>
+  <si>
+    <t>Kayla</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>010 Weaver Land</t>
+  </si>
+  <si>
+    <t>Carlotta</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Therapist, occupational</t>
+  </si>
+  <si>
+    <t>17003d7ce534440eadb10c4750e020e5</t>
+  </si>
+  <si>
+    <t>fraud_Reichel LLC</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Estrada</t>
+  </si>
+  <si>
+    <t>350 Stacy Glens</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Development worker, international aid</t>
+  </si>
+  <si>
+    <t>8be473af4f05fc6146ea55ace73e7ca2</t>
+  </si>
+  <si>
+    <t>fraud_Goyette, Howell and Collier</t>
+  </si>
+  <si>
+    <t>shopping_pos</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Everett</t>
+  </si>
+  <si>
+    <t>4138 David Fall</t>
+  </si>
+  <si>
+    <t>Morrisdale</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Advice worker</t>
+  </si>
+  <si>
+    <t>71a1da150d1ce510193d7622e08e784e</t>
+  </si>
+  <si>
+    <t>fraud_Kilback Group</t>
+  </si>
+  <si>
+    <t>food_dining</t>
+  </si>
+  <si>
+    <t>Obrien</t>
+  </si>
+  <si>
+    <t>7921 Robert Port Suite 343</t>
+  </si>
+  <si>
+    <t>Prairie Hill</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Barrister</t>
+  </si>
+  <si>
+    <t>a7915132c7c4240996ba03a47f81e3bd</t>
+  </si>
+  <si>
+    <t>fraud_Feil, Hilpert and Koss</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>43235 Mckenzie Views Apt. 837</t>
+  </si>
+  <si>
+    <t>Westport</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Pensions consultant</t>
+  </si>
+  <si>
+    <t>3b8e4d02d9e1a3bf97cf449eb0317f2c</t>
+  </si>
+  <si>
+    <t>fraud_Gottlieb Group</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>45654 Hess Rest</t>
+  </si>
+  <si>
+    <t>Fort Washakie</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Freight forwarder</t>
+  </si>
+  <si>
+    <t>fa3071565d94fb286cb0ed398c6d61d3</t>
+  </si>
+  <si>
+    <t>fraud_Connelly-Carter</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>Melissa</t>
+  </si>
+  <si>
+    <t>Meza</t>
+  </si>
+  <si>
+    <t>244 Abbott Parkway</t>
+  </si>
+  <si>
+    <t>Loxahatchee</t>
+  </si>
+  <si>
+    <t>Paramedic</t>
+  </si>
+  <si>
+    <t>a21cb82e7d8fdbf4062f15c9422a4ca6</t>
+  </si>
+  <si>
+    <t>fraud_Bechtelar-Rippin</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>977 Rita Grove Apt. 000</t>
+  </si>
+  <si>
+    <t>Rock Tavern</t>
+  </si>
+  <si>
+    <t>Building surveyor</t>
+  </si>
+  <si>
+    <t>d0d2b5cca5ae19e0a07dc7ef5d51e59e</t>
+  </si>
+  <si>
+    <t>fraud_Lubowitz-Walter</t>
+  </si>
+  <si>
+    <t>Whitney</t>
+  </si>
+  <si>
+    <t>4038 Smith Avenue</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Materials engineer</t>
+  </si>
+  <si>
+    <t>61dca41a9728ea5fd6db99efd59768f8</t>
+  </si>
+  <si>
+    <t>fraud_Welch, Rath and Koepp</t>
+  </si>
+  <si>
+    <t>entertainment</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Leblanc</t>
+  </si>
+  <si>
+    <t>5097 Jodi Vista Suite 811</t>
+  </si>
+  <si>
+    <t>Deltona</t>
+  </si>
+  <si>
+    <t>Commercial horticulturist</t>
+  </si>
+  <si>
+    <t>ea11379e8aa1b08d584149d65770faee</t>
+  </si>
+  <si>
+    <t>fraud_Hickle Group</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>838 Franklin Prairie Apt. 902</t>
+  </si>
+  <si>
+    <t>Key West</t>
+  </si>
+  <si>
+    <t>Town planner</t>
+  </si>
+  <si>
+    <t>00da72495351ce6bd9ecb75d51cca89b</t>
+  </si>
+  <si>
+    <t>fraud_Lang, Towne and Schuppe</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>03030 White Lakes</t>
+  </si>
+  <si>
+    <t>Grandview</t>
+  </si>
+  <si>
+    <t>Radiographer, therapeutic</t>
+  </si>
+  <si>
+    <t>67288141e8206f6f49706c1cef5b75d3</t>
+  </si>
+  <si>
+    <t>fraud_Morissette LLC</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>65417 Walsh Radial Suite 691</t>
+  </si>
+  <si>
+    <t>Saint Amant</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Surveyor, rural practice</t>
+  </si>
+  <si>
+    <t>71bb6ee81f9af4d2a38bf6af2b614708</t>
+  </si>
+  <si>
+    <t>fraud_Prosacco LLC</t>
+  </si>
+  <si>
+    <t>Gina</t>
+  </si>
+  <si>
+    <t>Grimes</t>
+  </si>
+  <si>
+    <t>444 Robert Mews</t>
+  </si>
+  <si>
+    <t>Clarks Mills</t>
+  </si>
+  <si>
+    <t>Energy manager</t>
+  </si>
+  <si>
+    <t>2d7640ea4f3bcd520a3c33200c393dd8</t>
+  </si>
+  <si>
+    <t>fraud_Corwin-Romaguera</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>9345 Spencer Junctions Suite 183</t>
+  </si>
+  <si>
+    <t>Alpharetta</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Prison officer</t>
+  </si>
+  <si>
+    <t>1650f4f052cc85af7bd417fa17d59ac5</t>
+  </si>
+  <si>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Villegas</t>
+  </si>
+  <si>
+    <t>20581 Pena Walks</t>
+  </si>
+  <si>
+    <t>Colorado Springs</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Museum/gallery exhibitions officer</t>
+  </si>
+  <si>
+    <t>b14cd1ccf78a409c664bf071872a4384</t>
+  </si>
+  <si>
+    <t>fraud_Tillman LLC</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>28711 Kristine Junction Suite 309</t>
+  </si>
+  <si>
+    <t>Greenville</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Media planner</t>
+  </si>
+  <si>
+    <t>d8edb8556aad03a15e2d5702948a47fb</t>
+  </si>
+  <si>
+    <t>fraud_Veum-Koelpin</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Conley</t>
+  </si>
+  <si>
+    <t>181 Moreno Light Apt. 215</t>
+  </si>
+  <si>
+    <t>Tomahawk</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Seismic interpreter</t>
+  </si>
+  <si>
+    <t>79f931ffc97dfe9966cd7d09613fe308</t>
+  </si>
+  <si>
+    <t>fraud_Watsica, Haag and Considine</t>
+  </si>
+  <si>
+    <t>Kristen</t>
+  </si>
+  <si>
+    <t>Hanson</t>
+  </si>
+  <si>
+    <t>26544 Andrea Glen</t>
+  </si>
+  <si>
+    <t>Goodrich</t>
+  </si>
+  <si>
+    <t>Learning disability nurse</t>
+  </si>
+  <si>
+    <t>df862b772cfb9ca0d621c259df11a652</t>
+  </si>
+  <si>
+    <t>fraud_Leannon-Ward</t>
+  </si>
+  <si>
+    <t>Terri</t>
+  </si>
+  <si>
+    <t>Bailey</t>
+  </si>
+  <si>
+    <t>508 Erin Mount</t>
+  </si>
+  <si>
+    <t>Daly City</t>
+  </si>
+  <si>
+    <t>Buyer, industrial</t>
+  </si>
+  <si>
+    <t>3dfec697170c9155ba76464e03179724</t>
+  </si>
+  <si>
+    <t>fraud_Hintz, Bauch and Smith</t>
+  </si>
+  <si>
+    <t>50843 Vincent Mission</t>
+  </si>
+  <si>
+    <t>South Londonderry</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Scientific laboratory technician</t>
+  </si>
+  <si>
+    <t>6c58a441ceeb7dc623316c6a68158d29</t>
+  </si>
+  <si>
+    <t>fraud_Labadie LLC</t>
+  </si>
+  <si>
+    <t>Cody</t>
+  </si>
+  <si>
+    <t>Hooper</t>
+  </si>
+  <si>
+    <t>7233 John Parks</t>
+  </si>
+  <si>
+    <t>Lepanto</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Counselling psychologist</t>
+  </si>
+  <si>
+    <t>340ad023c64e8b7d2164ca3e53620186</t>
+  </si>
+  <si>
+    <t>fraud_Eichmann, Hayes and Treutel</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>659 Nicole Cove Suite 560</t>
+  </si>
+  <si>
+    <t>New Waverly</t>
+  </si>
+  <si>
+    <t>Scientist, biomedical</t>
+  </si>
+  <si>
+    <t>9662b7fede7772f80331fd0abbc7909d</t>
+  </si>
+  <si>
+    <t>fraud_Leffler-Goldner</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>022 Moore Island</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>Audiological scientist</t>
+  </si>
+  <si>
+    <t>efbea5fb8c846843c13f224379ba249e</t>
+  </si>
+  <si>
+    <t>fraud_Kautzer and Sons</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>5537 Jessica Plaza</t>
+  </si>
+  <si>
+    <t>Pewee Valley</t>
+  </si>
+  <si>
+    <t>Stage manager</t>
+  </si>
+  <si>
+    <t>3f5587dd43e45910ba221bc3a4dfdd3f</t>
+  </si>
+  <si>
+    <t>fraud_Ernser-Feest</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>2481 Mills Lock</t>
+  </si>
+  <si>
+    <t>Plainfield</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Leisure centre manager</t>
+  </si>
+  <si>
+    <t>bc7699cb759a26aa5dd58d4124febf8d</t>
+  </si>
+  <si>
+    <t>fraud_Zemlak, Tillman and Cremin</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Cain</t>
+  </si>
+  <si>
+    <t>384 Newman Forks Apt. 370</t>
+  </si>
+  <si>
+    <t>Belmond</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Community pharmacist</t>
+  </si>
+  <si>
+    <t>cd10a7d08e9262899109c06a8e180302</t>
+  </si>
+  <si>
+    <t>fraud_Nienow PLC</t>
+  </si>
+  <si>
+    <t>Mackenzie</t>
+  </si>
+  <si>
+    <t>Salazar</t>
+  </si>
+  <si>
+    <t>982 Melissa Lock</t>
+  </si>
+  <si>
+    <t>Bagley</t>
+  </si>
+  <si>
+    <t>Risk analyst</t>
+  </si>
+  <si>
+    <t>902facfd912019350d63a3539990638e</t>
+  </si>
+  <si>
+    <t>fraud_Lynch-Wisozk</t>
+  </si>
+  <si>
+    <t>Krystal</t>
+  </si>
+  <si>
+    <t>Gamble</t>
+  </si>
+  <si>
+    <t>47152 Clayton Burg</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Clinical research associate</t>
+  </si>
+  <si>
+    <t>0ad27a9cf7fcb1e0774a86709cb248f1</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Reese</t>
+  </si>
+  <si>
+    <t>26975 Richardson Mills Apt. 402</t>
+  </si>
+  <si>
+    <t>Sontag</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Librarian, academic</t>
+  </si>
+  <si>
+    <t>5a13c85ba5d478ee2bed550c6ab71c1e</t>
+  </si>
+  <si>
+    <t>fraud_Schiller Ltd</t>
+  </si>
+  <si>
+    <t>Carrillo</t>
+  </si>
+  <si>
+    <t>17547 Stephen Turnpike Apt. 846</t>
+  </si>
+  <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
+    <t>Editor, magazine features</t>
+  </si>
+  <si>
+    <t>e91e10ae4ad160e1aee1054ea96de9ba</t>
+  </si>
+  <si>
+    <t>fraud_Hoppe-Parisian</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Dominguez</t>
+  </si>
+  <si>
+    <t>06393 Nancy Parkways Suite 855</t>
+  </si>
+  <si>
+    <t>Gadsden</t>
+  </si>
+  <si>
+    <t>Ceramics designer</t>
+  </si>
+  <si>
+    <t>cc3733b9ecedc1a7b0053bd0647cdaaa</t>
+  </si>
+  <si>
+    <t>Johnston</t>
+  </si>
+  <si>
+    <t>16285 Jessica Lights</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Musician</t>
+  </si>
+  <si>
+    <t>60a92b482a0058d2769c1ab10c55cb25</t>
+  </si>
+  <si>
+    <t>fraud_Brown-Greenholt</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>69252 Oconnor Alley Apt. 153</t>
+  </si>
+  <si>
+    <t>Ollie</t>
+  </si>
+  <si>
+    <t>fc72537e1af1f675c8713aa1a36f3c53</t>
+  </si>
+  <si>
+    <t>fraud_Reilly LLC</t>
+  </si>
+  <si>
+    <t>Jenna</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>50872 Alex Plain Suite 088</t>
+  </si>
+  <si>
+    <t>Baton Rouge</t>
+  </si>
+  <si>
+    <t>Designer, furniture</t>
+  </si>
+  <si>
+    <t>fb32dada5c853d60e84278eaae707ee2</t>
+  </si>
+  <si>
+    <t>fraud_Moore, Williamson and Emmerich</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Mcgee</t>
+  </si>
+  <si>
+    <t>4130 Tiffany Glen Apt. 562</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Exhibition designer</t>
+  </si>
+  <si>
+    <t>4ffb7174155b877c4d18d1d86e71e813</t>
+  </si>
+  <si>
+    <t>fraud_Rau-Robel</t>
+  </si>
+  <si>
+    <t>Wolfe</t>
+  </si>
+  <si>
+    <t>81261 Garcia Underpass Suite 741</t>
+  </si>
+  <si>
+    <t>Southfield</t>
+  </si>
+  <si>
+    <t>Engineer, automotive</t>
+  </si>
+  <si>
+    <t>14dd61cec0b9be2d29aff70f605964ab</t>
+  </si>
+  <si>
+    <t>fraud_Fadel, Mertz and Rippin</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>13108 Jennifer Passage</t>
+  </si>
+  <si>
+    <t>Mc Cracken</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Film/video editor</t>
+  </si>
+  <si>
+    <t>822cd909aeb6a351637b5f9ba9866f19</t>
+  </si>
+  <si>
+    <t>fraud_Crona and Sons</t>
+  </si>
+  <si>
+    <t>Dale</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>25036 Contreras Turnpike Suite 270</t>
+  </si>
+  <si>
+    <t>Purmela</t>
+  </si>
+  <si>
+    <t>Web designer</t>
+  </si>
+  <si>
+    <t>5f947d9974aca9e08265898e26db1583</t>
+  </si>
+  <si>
+    <t>fraud_Bahringer, Bergnaum and Quitzon</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>908 Brooks Brook</t>
+  </si>
+  <si>
+    <t>Lomax</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Environmental consultant</t>
+  </si>
+  <si>
+    <t>4326b0d0ee56d328d40269e79a68ea30</t>
+  </si>
+  <si>
+    <t>fraud_Koss, Hansen and Lueilwitz</t>
+  </si>
+  <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>8617 Holmes Terrace Suite 651</t>
+  </si>
+  <si>
+    <t>Tuscarora</t>
+  </si>
+  <si>
+    <t>Production assistant, television</t>
+  </si>
+  <si>
+    <t>ce73a1c97d13e160112f3142781300ac</t>
+  </si>
+  <si>
+    <t>fraud_Yost, Schamberger and Windler</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Schwartz</t>
+  </si>
+  <si>
+    <t>3789 Mark Walks</t>
+  </si>
+  <si>
+    <t>Sunflower</t>
+  </si>
+  <si>
+    <t>Education officer, community</t>
+  </si>
+  <si>
+    <t>e7b73a4e22392a7800afdca8c230878f</t>
+  </si>
+  <si>
+    <t>fraud_Armstrong, Walter and Gottlieb</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>6682 Green Forks</t>
+  </si>
+  <si>
+    <t>Ogdensburg</t>
+  </si>
+  <si>
+    <t>Senior tax professional/tax inspector</t>
+  </si>
+  <si>
+    <t>def4f0ac7d3e4f02f33462a25632ef6c</t>
+  </si>
+  <si>
+    <t>fraud_Friesen Ltd</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>1898 Parker Fork Apt. 057</t>
+  </si>
+  <si>
+    <t>Redford</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Investment analyst</t>
+  </si>
+  <si>
+    <t>0920f8e36028f404b48385209a995113</t>
+  </si>
+  <si>
+    <t>fraud_Champlin and Sons</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>426 Mark Ports</t>
+  </si>
+  <si>
+    <t>Brooklin</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Loss adjuster, chartered</t>
+  </si>
+  <si>
+    <t>c64caafcb8aaa4608fdba9f1ab53cbcc</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>英文释义</t>
+  </si>
+  <si>
+    <t>中文释义</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Integer from -2,147,483,648 to 2,147,483,647</t>
+  </si>
+  <si>
+    <t>整数类型，范围较大，常用于主键或计数器</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>Larger integer values (8 bytes)</t>
+  </si>
+  <si>
+    <t>超大整数，适合大数据场景</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>Small integer (-32,768 to 32,767)</t>
+  </si>
+  <si>
+    <t>较小整数，节省空间</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>Very small integer (0 to 255)</t>
+  </si>
+  <si>
+    <t>最小整数类型，适合年龄、等级等小数值</t>
+  </si>
+  <si>
+    <t>DECIMAL(p,s) / NUMERIC(p,s)</t>
+  </si>
+  <si>
+    <t>Fixed precision and scale</t>
+  </si>
+  <si>
+    <t>精确小数，常用于财务数据</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>Approximate numeric (floating point)</t>
+  </si>
+  <si>
+    <t>双精度浮点数，精度可能有误差</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>Approximate numeric (single precision)</t>
+  </si>
+  <si>
+    <t>单精度浮点数，占空间更小</t>
+  </si>
+  <si>
+    <t>CHAR(n)</t>
+  </si>
+  <si>
+    <t>Fixed-length non-Unicode string</t>
+  </si>
+  <si>
+    <t>固定长度字符串，占用固定空间</t>
+  </si>
+  <si>
+    <t>VARCHAR(n)</t>
+  </si>
+  <si>
+    <t>Variable-length non-Unicode string</t>
+  </si>
+  <si>
+    <t>可变长度字符串，节省空间</t>
+  </si>
+  <si>
+    <t>Large non-Unicode text (deprecated)</t>
+  </si>
+  <si>
+    <t>大文本字段（已废弃）</t>
+  </si>
+  <si>
+    <t>NCHAR(n)</t>
+  </si>
+  <si>
+    <t>Fixed-length Unicode string</t>
+  </si>
+  <si>
+    <t>固定长度 Unicode 字符串（支持多语言）</t>
+  </si>
+  <si>
+    <t>NVARCHAR(n)</t>
+  </si>
+  <si>
+    <t>Variable-length Unicode string</t>
+  </si>
+  <si>
+    <t>NTEXT</t>
+  </si>
+  <si>
+    <t>Large Unicode text (deprecated)</t>
+  </si>
+  <si>
+    <t>大 Unicode 文本（已废弃）</t>
+  </si>
+  <si>
+    <t>Date only (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>仅日期</t>
+  </si>
+  <si>
+    <t>Time only (HH:MM:SS)</t>
+  </si>
+  <si>
+    <t>仅时间</t>
+  </si>
+  <si>
+    <t>Date and time (accurate to 3 ms)</t>
+  </si>
+  <si>
+    <t>日期时间，精度至毫秒</t>
+  </si>
+  <si>
+    <t>SMALLDATETIME</t>
+  </si>
+  <si>
+    <t>Date and time (accurate to minute)</t>
+  </si>
+  <si>
+    <t>精度较低的日期时间</t>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+  </si>
+  <si>
+    <t>Extended DATETIME, higher precision</t>
+  </si>
+  <si>
+    <t>DATETIMEOFFSET</t>
+  </si>
+  <si>
+    <t>Date with time zone info</t>
+  </si>
+  <si>
+    <t>带时区偏移的日期时间</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>Boolean (0 = False, 1 = True)</t>
+  </si>
+  <si>
+    <t>布尔值，0 表示假，1 表示真</t>
+  </si>
+  <si>
+    <t>UNIQUEIDENTIFIER</t>
+  </si>
+  <si>
+    <t>Globally unique identifier (GUID)</t>
+  </si>
+  <si>
+    <t>全球唯一标识符，常用于主键</t>
+  </si>
+  <si>
+    <t>BINARY(n)</t>
+  </si>
+  <si>
+    <t>Fixed-length binary data</t>
+  </si>
+  <si>
+    <t>固定长度二进制数据</t>
+  </si>
+  <si>
+    <t>VARBINARY(n)</t>
+  </si>
+  <si>
+    <t>Variable-length binary data</t>
+  </si>
+  <si>
+    <t>可变长度二进制数据</t>
+  </si>
+  <si>
+    <t>IMAGE</t>
+  </si>
+  <si>
+    <t>Binary for images/files (deprecated)</t>
+  </si>
+  <si>
+    <t>图像或文件二进制数据（已废弃）</t>
+  </si>
+  <si>
+    <t>数值类型（Numeric Data Types）</t>
+  </si>
+  <si>
+    <t>字符串类型（String / Character Types）</t>
+  </si>
+  <si>
+    <t>日期时间类型（Date and Time Types）</t>
+  </si>
+  <si>
+    <t>布尔值和其他类型（Boolean and Miscellaneous Types）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">可变长度 Unicode 字符串 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>推荐用于中文等多语言文本</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">高精度日期时间  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>推荐使用</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2849,8 +4296,40 @@
       <color theme="10"/>
       <name val="Kai Regular"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2890,6 +4369,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2968,7 +4453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3047,6 +4532,23 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3373,6 +4875,1695 @@
         </xdr:pic>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D074B21-FA39-D222-8C5F-08FE144284A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="88900" y="3327400"/>
+          <a:ext cx="6070600" cy="7404100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Training set for Credit Card Transactions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - Unique Identifier for each row</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>trans_date_trans_time </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Transaction DateTime</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>cc_num </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Credit Card Number of Customer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>merchant</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - Merchant Name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>category</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - Category of Merchant</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>amt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - Amount of Transaction</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>first</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - First Name of Credit Card Holder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - Last Name of Credit Card Holder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gender</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - Gender of Credit Card Holder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>street</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - Street Address of Credit Card Holder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>city</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - City of Credit Card Holder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>state</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - State of Credit Card Holder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>zip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - Zip of Credit Card Holder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>lat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - Latitude Location of Credit Card Holder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>long</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - Longitude Location of Credit Card Holder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>city_pop </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Credit Card Holder's City Population</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>job</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - Job of Credit Card Holder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dob</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - Date of Birth of Credit Card Holder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>trans_num </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Transaction Number</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>unix_time </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- UNIX Time of transaction</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>merch_lat </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Latitude Location of Merchant</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>merch_long </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Longitude Location of Merchant</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- is_fraud </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- Fraud Flag &lt;--- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Target Class</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3140F49-8BBB-CC40-B730-1BC3F0AAED8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13855700" y="254000"/>
+          <a:ext cx="6832600" cy="8458200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CREATE TABLE Students (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>    student_id INT PRIMARY KEY,          -- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>学号（整数主键）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>name NVARCHAR(50),                   -- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>姓名（支持中英文）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>age TINYINT CHECK (age &gt;= 0),        -- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>年龄（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>到 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>255</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>gender NVARCHAR(10),                 -- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>性别</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>birth_date DATE,                     -- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>出生日期</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>is_active BIT                        -- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>是否在读（布尔值）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>-- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>创建一个学生表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Create a student table）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CREATE TABLE </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Students </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>    student_id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>INT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> PRIMARY KEY,  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>    name </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>NVARCHAR(50) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>NOT NULL,     </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>    age </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>INT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CHECK (age &gt;= 0),         </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>    gender </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>NVARCHAR(10)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>            </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>    department_id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>INT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>           </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>-- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>插入一条学生数据（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Insert one student record）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>INSERT INTO </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Students</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>student_id, name, age, gender, department_id)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>VALUES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(1, N'Alice', 22, N'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>女</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>', 101);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>-- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>插入多条学生数据（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Insert multiple student records）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>INSERT INTO Students (student_id, name, age, gender, department_id)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>VALUES </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(2, N'Bob', 24, N'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>男</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>', 102),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(3, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>N'Cathy', 20, N'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>女</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>', </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>NULL),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(4, N'David', 25, N'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>男</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>', 101);</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3965,7 +7156,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="69" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3979,7 +7170,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="58"/>
+      <c r="D29" s="69"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -3991,7 +7182,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="58"/>
+      <c r="D30" s="69"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -4003,7 +7194,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="58"/>
+      <c r="D31" s="69"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -4015,7 +7206,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="58"/>
+      <c r="D32" s="69"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -4027,7 +7218,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="58"/>
+      <c r="D33" s="69"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -4039,7 +7230,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="58"/>
+      <c r="D34" s="69"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -4051,7 +7242,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="58"/>
+      <c r="D35" s="69"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -4063,7 +7254,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="58"/>
+      <c r="D36" s="69"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -4075,7 +7266,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="58"/>
+      <c r="D37" s="69"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -4087,7 +7278,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="58"/>
+      <c r="D38" s="69"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -4099,7 +7290,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="58"/>
+      <c r="D39" s="69"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -4111,7 +7302,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="58"/>
+      <c r="D40" s="69"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -4123,7 +7314,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="58"/>
+      <c r="D41" s="69"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -4135,7 +7326,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="58"/>
+      <c r="D42" s="69"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -4147,7 +7338,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="58"/>
+      <c r="D43" s="69"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -4159,7 +7350,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="58"/>
+      <c r="D44" s="69"/>
     </row>
     <row r="52" spans="1:4" ht="27">
       <c r="A52" s="3" t="s">
@@ -4512,10 +7703,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="D46" s="59"/>
+      <c r="D46" s="70"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="23" t="s">
@@ -4598,7 +7789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57798350-C00C-C547-B042-B58ADFCF5FC6}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:C52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
@@ -4730,7 +7923,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="74" t="s">
         <v>205</v>
       </c>
       <c r="C16" s="50" t="s">
@@ -4744,7 +7937,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="64"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="51" t="s">
         <v>491</v>
       </c>
@@ -4756,7 +7949,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="74" t="s">
         <v>210</v>
       </c>
       <c r="C18" s="50" t="s">
@@ -4770,7 +7963,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="64"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="50" t="s">
         <v>214</v>
       </c>
@@ -4782,7 +7975,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="74" t="s">
         <v>217</v>
       </c>
       <c r="C20" s="50" t="s">
@@ -4796,7 +7989,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="64"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="50" t="s">
         <v>221</v>
       </c>
@@ -4836,7 +8029,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="74" t="s">
         <v>232</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -4850,7 +8043,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="65"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="27" t="s">
         <v>234</v>
       </c>
@@ -4862,7 +8055,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="64"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="27" t="s">
         <v>237</v>
       </c>
@@ -4902,7 +8095,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="71" t="s">
         <v>245</v>
       </c>
       <c r="C35" s="50" t="s">
@@ -4916,7 +8109,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="61"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="50" t="s">
         <v>248</v>
       </c>
@@ -4928,7 +8121,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="61"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="50" t="s">
         <v>610</v>
       </c>
@@ -4940,7 +8133,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="61"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="50" t="s">
         <v>253</v>
       </c>
@@ -4952,7 +8145,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="61"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="50" t="s">
         <v>255</v>
       </c>
@@ -4964,7 +8157,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="62"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="50" t="s">
         <v>257</v>
       </c>
@@ -4976,7 +8169,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="71" t="s">
         <v>260</v>
       </c>
       <c r="C41" s="50" t="s">
@@ -4990,7 +8183,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="61"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="50" t="s">
         <v>264</v>
       </c>
@@ -5002,7 +8195,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="61"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="52" t="s">
         <v>612</v>
       </c>
@@ -5017,7 +8210,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="61"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="50" t="s">
         <v>611</v>
       </c>
@@ -5029,7 +8222,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="61"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="50" t="s">
         <v>269</v>
       </c>
@@ -5044,7 +8237,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="62"/>
+      <c r="B46" s="73"/>
       <c r="C46" s="50" t="s">
         <v>271</v>
       </c>
@@ -5057,7 +8250,7 @@
       <c r="L46" s="48"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="71" t="s">
         <v>273</v>
       </c>
       <c r="C47" s="53" t="s">
@@ -5074,7 +8267,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="61"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="53" t="s">
         <v>277</v>
       </c>
@@ -5087,7 +8280,7 @@
       <c r="L48" s="48"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="61"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="53" t="s">
         <v>280</v>
       </c>
@@ -5102,7 +8295,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="61"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="53" t="s">
         <v>283</v>
       </c>
@@ -5115,7 +8308,7 @@
       <c r="L50" s="48"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="61"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="53" t="s">
         <v>286</v>
       </c>
@@ -5130,7 +8323,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="62"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="53" t="s">
         <v>289</v>
       </c>
@@ -5142,7 +8335,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="71" t="s">
         <v>292</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -5156,7 +8349,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="61"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="27" t="s">
         <v>296</v>
       </c>
@@ -5168,7 +8361,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="61"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="27" t="s">
         <v>299</v>
       </c>
@@ -5180,7 +8373,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="61"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="27" t="s">
         <v>302</v>
       </c>
@@ -5192,7 +8385,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="62"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="27" t="s">
         <v>305</v>
       </c>
@@ -5204,7 +8397,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="60" t="s">
+      <c r="B58" s="71" t="s">
         <v>308</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -5218,7 +8411,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="61"/>
+      <c r="B59" s="72"/>
       <c r="C59" s="27" t="s">
         <v>312</v>
       </c>
@@ -5230,7 +8423,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="61"/>
+      <c r="B60" s="72"/>
       <c r="C60" s="27" t="s">
         <v>315</v>
       </c>
@@ -5242,7 +8435,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="62"/>
+      <c r="B61" s="73"/>
       <c r="C61" s="27" t="s">
         <v>318</v>
       </c>
@@ -5976,7 +9169,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7823,4 +11016,4076 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8CB2F9-EDA2-5341-8FFE-EC6B38FDF7FF}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:W52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="58"/>
+    <col min="4" max="4" width="40" style="58" customWidth="1"/>
+    <col min="5" max="16384" width="25.1640625" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="65" customFormat="1" ht="38" customHeight="1">
+      <c r="A1" s="64" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>724</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>725</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>726</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>727</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>728</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>729</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>730</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>731</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>732</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>733</v>
+      </c>
+      <c r="L1" s="64" t="s">
+        <v>734</v>
+      </c>
+      <c r="M1" s="64" t="s">
+        <v>735</v>
+      </c>
+      <c r="N1" s="64" t="s">
+        <v>736</v>
+      </c>
+      <c r="O1" s="64" t="s">
+        <v>737</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q1" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>740</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>741</v>
+      </c>
+      <c r="T1" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="U1" s="64" t="s">
+        <v>743</v>
+      </c>
+      <c r="V1" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="63">
+        <v>0</v>
+      </c>
+      <c r="B2" s="59">
+        <v>44003.510011574072</v>
+      </c>
+      <c r="C2" s="60">
+        <v>2291163933867240</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>746</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>747</v>
+      </c>
+      <c r="F2" s="60">
+        <v>2.86</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>749</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>751</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>752</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>753</v>
+      </c>
+      <c r="M2" s="60">
+        <v>29209</v>
+      </c>
+      <c r="N2" s="60">
+        <v>33.965899999999998</v>
+      </c>
+      <c r="O2" s="60">
+        <v>-80.935500000000005</v>
+      </c>
+      <c r="P2" s="60">
+        <v>333497</v>
+      </c>
+      <c r="Q2" s="60" t="s">
+        <v>754</v>
+      </c>
+      <c r="R2" s="61">
+        <v>24916</v>
+      </c>
+      <c r="S2" s="60" t="s">
+        <v>755</v>
+      </c>
+      <c r="T2" s="60">
+        <v>1371816865</v>
+      </c>
+      <c r="U2" s="60">
+        <v>33.986390999999998</v>
+      </c>
+      <c r="V2" s="60">
+        <v>-81.200714000000005</v>
+      </c>
+      <c r="W2" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="63">
+        <v>1</v>
+      </c>
+      <c r="B3" s="59">
+        <v>44003.510104166664</v>
+      </c>
+      <c r="C3" s="60">
+        <v>3573030041201290</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>756</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>747</v>
+      </c>
+      <c r="F3" s="60">
+        <v>29.84</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>757</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>758</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>760</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>761</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>762</v>
+      </c>
+      <c r="M3" s="60">
+        <v>84002</v>
+      </c>
+      <c r="N3" s="60">
+        <v>40.320700000000002</v>
+      </c>
+      <c r="O3" s="60">
+        <v>-110.43600000000001</v>
+      </c>
+      <c r="P3" s="60">
+        <v>302</v>
+      </c>
+      <c r="Q3" s="60" t="s">
+        <v>763</v>
+      </c>
+      <c r="R3" s="61">
+        <v>32890</v>
+      </c>
+      <c r="S3" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="T3" s="60">
+        <v>1371816873</v>
+      </c>
+      <c r="U3" s="60">
+        <v>39.450498000000003</v>
+      </c>
+      <c r="V3" s="60">
+        <v>-109.960431</v>
+      </c>
+      <c r="W3" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="63">
+        <v>2</v>
+      </c>
+      <c r="B4" s="59">
+        <v>44003.510335648149</v>
+      </c>
+      <c r="C4" s="60">
+        <v>3598215285024750</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>766</v>
+      </c>
+      <c r="F4" s="60">
+        <v>41.28</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>767</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>768</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>769</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>770</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>771</v>
+      </c>
+      <c r="M4" s="60">
+        <v>11710</v>
+      </c>
+      <c r="N4" s="60">
+        <v>40.672899999999998</v>
+      </c>
+      <c r="O4" s="60">
+        <v>-73.536500000000004</v>
+      </c>
+      <c r="P4" s="60">
+        <v>34496</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>772</v>
+      </c>
+      <c r="R4" s="61">
+        <v>25862</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>773</v>
+      </c>
+      <c r="T4" s="60">
+        <v>1371816893</v>
+      </c>
+      <c r="U4" s="60">
+        <v>40.495809999999999</v>
+      </c>
+      <c r="V4" s="60">
+        <v>-74.196111000000002</v>
+      </c>
+      <c r="W4" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="63">
+        <v>3</v>
+      </c>
+      <c r="B5" s="59">
+        <v>44003.51059027778</v>
+      </c>
+      <c r="C5" s="60">
+        <v>3591919803438420</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>774</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>775</v>
+      </c>
+      <c r="F5" s="60">
+        <v>60.05</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>776</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>758</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>777</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>778</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>779</v>
+      </c>
+      <c r="M5" s="60">
+        <v>32780</v>
+      </c>
+      <c r="N5" s="60">
+        <v>28.569700000000001</v>
+      </c>
+      <c r="O5" s="60">
+        <v>-80.819100000000006</v>
+      </c>
+      <c r="P5" s="60">
+        <v>54767</v>
+      </c>
+      <c r="Q5" s="60" t="s">
+        <v>780</v>
+      </c>
+      <c r="R5" s="61">
+        <v>31983</v>
+      </c>
+      <c r="S5" s="60" t="s">
+        <v>781</v>
+      </c>
+      <c r="T5" s="60">
+        <v>1371816915</v>
+      </c>
+      <c r="U5" s="60">
+        <v>28.812398000000002</v>
+      </c>
+      <c r="V5" s="60">
+        <v>-80.883060999999998</v>
+      </c>
+      <c r="W5" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="63">
+        <v>4</v>
+      </c>
+      <c r="B6" s="59">
+        <v>44003.510613425926</v>
+      </c>
+      <c r="C6" s="60">
+        <v>3526826139003040</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>782</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>783</v>
+      </c>
+      <c r="F6" s="60">
+        <v>3.19</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>784</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>785</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>786</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>787</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>788</v>
+      </c>
+      <c r="M6" s="60">
+        <v>49632</v>
+      </c>
+      <c r="N6" s="60">
+        <v>44.252899999999997</v>
+      </c>
+      <c r="O6" s="60">
+        <v>-85.016999999999996</v>
+      </c>
+      <c r="P6" s="60">
+        <v>1126</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>789</v>
+      </c>
+      <c r="R6" s="61">
+        <v>20276</v>
+      </c>
+      <c r="S6" s="60" t="s">
+        <v>790</v>
+      </c>
+      <c r="T6" s="60">
+        <v>1371816917</v>
+      </c>
+      <c r="U6" s="60">
+        <v>44.959147999999999</v>
+      </c>
+      <c r="V6" s="60">
+        <v>-85.884733999999995</v>
+      </c>
+      <c r="W6" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="63">
+        <v>5</v>
+      </c>
+      <c r="B7" s="59">
+        <v>44003.510844907411</v>
+      </c>
+      <c r="C7" s="60">
+        <v>30407675418785</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>791</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>792</v>
+      </c>
+      <c r="F7" s="60">
+        <v>19.55</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>793</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>794</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>795</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>796</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>771</v>
+      </c>
+      <c r="M7" s="60">
+        <v>14816</v>
+      </c>
+      <c r="N7" s="60">
+        <v>42.193899999999999</v>
+      </c>
+      <c r="O7" s="60">
+        <v>-76.736099999999993</v>
+      </c>
+      <c r="P7" s="60">
+        <v>520</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>797</v>
+      </c>
+      <c r="R7" s="61">
+        <v>33524</v>
+      </c>
+      <c r="S7" s="60" t="s">
+        <v>798</v>
+      </c>
+      <c r="T7" s="60">
+        <v>1371816937</v>
+      </c>
+      <c r="U7" s="60">
+        <v>41.747157000000001</v>
+      </c>
+      <c r="V7" s="60">
+        <v>-77.584197000000003</v>
+      </c>
+      <c r="W7" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="63">
+        <v>6</v>
+      </c>
+      <c r="B8" s="59">
+        <v>44003.510925925926</v>
+      </c>
+      <c r="C8" s="60">
+        <v>213180742685905</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>799</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>766</v>
+      </c>
+      <c r="F8" s="60">
+        <v>133.93</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>800</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>801</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>802</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>803</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>804</v>
+      </c>
+      <c r="M8" s="60">
+        <v>95528</v>
+      </c>
+      <c r="N8" s="60">
+        <v>40.506999999999998</v>
+      </c>
+      <c r="O8" s="60">
+        <v>-123.9743</v>
+      </c>
+      <c r="P8" s="60">
+        <v>1139</v>
+      </c>
+      <c r="Q8" s="60" t="s">
+        <v>805</v>
+      </c>
+      <c r="R8" s="61">
+        <v>18643</v>
+      </c>
+      <c r="S8" s="60" t="s">
+        <v>806</v>
+      </c>
+      <c r="T8" s="60">
+        <v>1371816944</v>
+      </c>
+      <c r="U8" s="60">
+        <v>41.499457999999997</v>
+      </c>
+      <c r="V8" s="60">
+        <v>-124.888729</v>
+      </c>
+      <c r="W8" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="63">
+        <v>7</v>
+      </c>
+      <c r="B9" s="59">
+        <v>44003.510995370372</v>
+      </c>
+      <c r="C9" s="60">
+        <v>3589289942931260</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>807</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>747</v>
+      </c>
+      <c r="F9" s="60">
+        <v>10.37</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>808</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>809</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>810</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>811</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>812</v>
+      </c>
+      <c r="M9" s="60">
+        <v>57374</v>
+      </c>
+      <c r="N9" s="60">
+        <v>43.755699999999997</v>
+      </c>
+      <c r="O9" s="60">
+        <v>-97.593599999999995</v>
+      </c>
+      <c r="P9" s="60">
+        <v>343</v>
+      </c>
+      <c r="Q9" s="60" t="s">
+        <v>813</v>
+      </c>
+      <c r="R9" s="61">
+        <v>26363</v>
+      </c>
+      <c r="S9" s="60" t="s">
+        <v>814</v>
+      </c>
+      <c r="T9" s="60">
+        <v>1371816950</v>
+      </c>
+      <c r="U9" s="60">
+        <v>44.495497999999998</v>
+      </c>
+      <c r="V9" s="60">
+        <v>-97.728453000000002</v>
+      </c>
+      <c r="W9" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="63">
+        <v>8</v>
+      </c>
+      <c r="B10" s="59">
+        <v>44003.51122685185</v>
+      </c>
+      <c r="C10" s="60">
+        <v>3596357274378600</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>815</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="F10" s="60">
+        <v>4.37</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>817</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>818</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J10" s="60" t="s">
+        <v>819</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>820</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>821</v>
+      </c>
+      <c r="M10" s="60">
+        <v>16858</v>
+      </c>
+      <c r="N10" s="60">
+        <v>41.000100000000003</v>
+      </c>
+      <c r="O10" s="60">
+        <v>-78.235699999999994</v>
+      </c>
+      <c r="P10" s="60">
+        <v>3688</v>
+      </c>
+      <c r="Q10" s="60" t="s">
+        <v>822</v>
+      </c>
+      <c r="R10" s="61">
+        <v>26811</v>
+      </c>
+      <c r="S10" s="60" t="s">
+        <v>823</v>
+      </c>
+      <c r="T10" s="60">
+        <v>1371816970</v>
+      </c>
+      <c r="U10" s="60">
+        <v>41.546067000000001</v>
+      </c>
+      <c r="V10" s="60">
+        <v>-78.120238000000001</v>
+      </c>
+      <c r="W10" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="63">
+        <v>9</v>
+      </c>
+      <c r="B11" s="59">
+        <v>44003.511238425926</v>
+      </c>
+      <c r="C11" s="60">
+        <v>3546897637165770</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>824</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>825</v>
+      </c>
+      <c r="F11" s="60">
+        <v>66.540000000000006</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>800</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>826</v>
+      </c>
+      <c r="I11" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J11" s="60" t="s">
+        <v>827</v>
+      </c>
+      <c r="K11" s="60" t="s">
+        <v>828</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>829</v>
+      </c>
+      <c r="M11" s="60">
+        <v>76678</v>
+      </c>
+      <c r="N11" s="60">
+        <v>31.659099999999999</v>
+      </c>
+      <c r="O11" s="60">
+        <v>-96.809399999999997</v>
+      </c>
+      <c r="P11" s="60">
+        <v>263</v>
+      </c>
+      <c r="Q11" s="60" t="s">
+        <v>830</v>
+      </c>
+      <c r="R11" s="61">
+        <v>20605</v>
+      </c>
+      <c r="S11" s="60" t="s">
+        <v>831</v>
+      </c>
+      <c r="T11" s="60">
+        <v>1371816971</v>
+      </c>
+      <c r="U11" s="60">
+        <v>31.782919</v>
+      </c>
+      <c r="V11" s="60">
+        <v>-96.366185000000002</v>
+      </c>
+      <c r="W11" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="63">
+        <v>10</v>
+      </c>
+      <c r="B12" s="59">
+        <v>44003.511342592596</v>
+      </c>
+      <c r="C12" s="60">
+        <v>2242542703101230</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>832</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>825</v>
+      </c>
+      <c r="F12" s="60">
+        <v>7.01</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>833</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>834</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>835</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>836</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>837</v>
+      </c>
+      <c r="M12" s="60">
+        <v>40077</v>
+      </c>
+      <c r="N12" s="60">
+        <v>38.492100000000001</v>
+      </c>
+      <c r="O12" s="60">
+        <v>-85.452399999999997</v>
+      </c>
+      <c r="P12" s="60">
+        <v>564</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>838</v>
+      </c>
+      <c r="R12" s="61">
+        <v>35165</v>
+      </c>
+      <c r="S12" s="60" t="s">
+        <v>839</v>
+      </c>
+      <c r="T12" s="60">
+        <v>1371816980</v>
+      </c>
+      <c r="U12" s="60">
+        <v>38.977545999999997</v>
+      </c>
+      <c r="V12" s="60">
+        <v>-84.727993999999995</v>
+      </c>
+      <c r="W12" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="63">
+        <v>11</v>
+      </c>
+      <c r="B13" s="59">
+        <v>44003.511655092596</v>
+      </c>
+      <c r="C13" s="60">
+        <v>571465035400</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>840</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>792</v>
+      </c>
+      <c r="F13" s="60">
+        <v>42.4</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>841</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>842</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>843</v>
+      </c>
+      <c r="K13" s="60" t="s">
+        <v>844</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>845</v>
+      </c>
+      <c r="M13" s="60">
+        <v>82514</v>
+      </c>
+      <c r="N13" s="60">
+        <v>43.004800000000003</v>
+      </c>
+      <c r="O13" s="60">
+        <v>-108.8964</v>
+      </c>
+      <c r="P13" s="60">
+        <v>1645</v>
+      </c>
+      <c r="Q13" s="60" t="s">
+        <v>846</v>
+      </c>
+      <c r="R13" s="61">
+        <v>27816</v>
+      </c>
+      <c r="S13" s="60" t="s">
+        <v>847</v>
+      </c>
+      <c r="T13" s="60">
+        <v>1371817007</v>
+      </c>
+      <c r="U13" s="60">
+        <v>42.687773999999997</v>
+      </c>
+      <c r="V13" s="60">
+        <v>-108.67005399999999</v>
+      </c>
+      <c r="W13" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="63">
+        <v>12</v>
+      </c>
+      <c r="B14" s="59">
+        <v>44003.512048611112</v>
+      </c>
+      <c r="C14" s="60">
+        <v>6593250708747800</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>848</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>849</v>
+      </c>
+      <c r="F14" s="60">
+        <v>2.91</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>850</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>851</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J14" s="60" t="s">
+        <v>852</v>
+      </c>
+      <c r="K14" s="60" t="s">
+        <v>853</v>
+      </c>
+      <c r="L14" s="60" t="s">
+        <v>779</v>
+      </c>
+      <c r="M14" s="60">
+        <v>33470</v>
+      </c>
+      <c r="N14" s="60">
+        <v>26.738299999999999</v>
+      </c>
+      <c r="O14" s="60">
+        <v>-80.275999999999996</v>
+      </c>
+      <c r="P14" s="60">
+        <v>26551</v>
+      </c>
+      <c r="Q14" s="60" t="s">
+        <v>854</v>
+      </c>
+      <c r="R14" s="61">
+        <v>28129</v>
+      </c>
+      <c r="S14" s="60" t="s">
+        <v>855</v>
+      </c>
+      <c r="T14" s="60">
+        <v>1371817041</v>
+      </c>
+      <c r="U14" s="60">
+        <v>26.07846</v>
+      </c>
+      <c r="V14" s="60">
+        <v>-80.569931999999994</v>
+      </c>
+      <c r="W14" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="63">
+        <v>13</v>
+      </c>
+      <c r="B15" s="59">
+        <v>44003.512812499997</v>
+      </c>
+      <c r="C15" s="60">
+        <v>4988304376504</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>856</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>825</v>
+      </c>
+      <c r="F15" s="60">
+        <v>7.93</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>857</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>858</v>
+      </c>
+      <c r="I15" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J15" s="60" t="s">
+        <v>859</v>
+      </c>
+      <c r="K15" s="60" t="s">
+        <v>860</v>
+      </c>
+      <c r="L15" s="60" t="s">
+        <v>771</v>
+      </c>
+      <c r="M15" s="60">
+        <v>12575</v>
+      </c>
+      <c r="N15" s="60">
+        <v>41.457500000000003</v>
+      </c>
+      <c r="O15" s="60">
+        <v>-74.165899999999993</v>
+      </c>
+      <c r="P15" s="60">
+        <v>2258</v>
+      </c>
+      <c r="Q15" s="60" t="s">
+        <v>861</v>
+      </c>
+      <c r="R15" s="61">
+        <v>13591</v>
+      </c>
+      <c r="S15" s="60" t="s">
+        <v>862</v>
+      </c>
+      <c r="T15" s="60">
+        <v>1371817107</v>
+      </c>
+      <c r="U15" s="60">
+        <v>40.711680000000001</v>
+      </c>
+      <c r="V15" s="60">
+        <v>-73.668384000000003</v>
+      </c>
+      <c r="W15" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="63">
+        <v>14</v>
+      </c>
+      <c r="B16" s="59">
+        <v>44003.512928240743</v>
+      </c>
+      <c r="C16" s="60">
+        <v>6011504998544480</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>863</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>792</v>
+      </c>
+      <c r="F16" s="60">
+        <v>2.91</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>767</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>864</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>865</v>
+      </c>
+      <c r="K16" s="60" t="s">
+        <v>866</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>867</v>
+      </c>
+      <c r="M16" s="60">
+        <v>36749</v>
+      </c>
+      <c r="N16" s="60">
+        <v>32.510399999999997</v>
+      </c>
+      <c r="O16" s="60">
+        <v>-86.813800000000001</v>
+      </c>
+      <c r="P16" s="60">
+        <v>1089</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>868</v>
+      </c>
+      <c r="R16" s="61">
+        <v>26239</v>
+      </c>
+      <c r="S16" s="60" t="s">
+        <v>869</v>
+      </c>
+      <c r="T16" s="60">
+        <v>1371817117</v>
+      </c>
+      <c r="U16" s="60">
+        <v>32.721131</v>
+      </c>
+      <c r="V16" s="60">
+        <v>-87.253845999999996</v>
+      </c>
+      <c r="W16" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="63">
+        <v>15</v>
+      </c>
+      <c r="B17" s="59">
+        <v>44003.512974537036</v>
+      </c>
+      <c r="C17" s="60">
+        <v>4570636521433180</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>870</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>871</v>
+      </c>
+      <c r="F17" s="60">
+        <v>24.73</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>872</v>
+      </c>
+      <c r="H17" s="60" t="s">
+        <v>873</v>
+      </c>
+      <c r="I17" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>874</v>
+      </c>
+      <c r="K17" s="60" t="s">
+        <v>875</v>
+      </c>
+      <c r="L17" s="60" t="s">
+        <v>779</v>
+      </c>
+      <c r="M17" s="60">
+        <v>32725</v>
+      </c>
+      <c r="N17" s="60">
+        <v>28.898900000000001</v>
+      </c>
+      <c r="O17" s="60">
+        <v>-81.247299999999996</v>
+      </c>
+      <c r="P17" s="60">
+        <v>88735</v>
+      </c>
+      <c r="Q17" s="60" t="s">
+        <v>876</v>
+      </c>
+      <c r="R17" s="61">
+        <v>32242</v>
+      </c>
+      <c r="S17" s="60" t="s">
+        <v>877</v>
+      </c>
+      <c r="T17" s="60">
+        <v>1371817121</v>
+      </c>
+      <c r="U17" s="60">
+        <v>29.83155</v>
+      </c>
+      <c r="V17" s="60">
+        <v>-80.926828999999998</v>
+      </c>
+      <c r="W17" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="63">
+        <v>16</v>
+      </c>
+      <c r="B18" s="59">
+        <v>44003.513124999998</v>
+      </c>
+      <c r="C18" s="60">
+        <v>4.9066286558409103E+18</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>878</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="F18" s="60">
+        <v>2.33</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>879</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J18" s="60" t="s">
+        <v>881</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>882</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>779</v>
+      </c>
+      <c r="M18" s="60">
+        <v>33040</v>
+      </c>
+      <c r="N18" s="60">
+        <v>24.6557</v>
+      </c>
+      <c r="O18" s="60">
+        <v>-81.382400000000004</v>
+      </c>
+      <c r="P18" s="60">
+        <v>32891</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>883</v>
+      </c>
+      <c r="R18" s="61">
+        <v>31821</v>
+      </c>
+      <c r="S18" s="60" t="s">
+        <v>884</v>
+      </c>
+      <c r="T18" s="60">
+        <v>1371817134</v>
+      </c>
+      <c r="U18" s="60">
+        <v>24.306325000000001</v>
+      </c>
+      <c r="V18" s="60">
+        <v>-81.065168999999997</v>
+      </c>
+      <c r="W18" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="63">
+        <v>17</v>
+      </c>
+      <c r="B19" s="59">
+        <v>44003.513773148145</v>
+      </c>
+      <c r="C19" s="60">
+        <v>4908846471916290</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>885</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>792</v>
+      </c>
+      <c r="F19" s="60">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>886</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>887</v>
+      </c>
+      <c r="I19" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J19" s="60" t="s">
+        <v>888</v>
+      </c>
+      <c r="K19" s="60" t="s">
+        <v>889</v>
+      </c>
+      <c r="L19" s="60" t="s">
+        <v>829</v>
+      </c>
+      <c r="M19" s="60">
+        <v>76050</v>
+      </c>
+      <c r="N19" s="60">
+        <v>32.277900000000002</v>
+      </c>
+      <c r="O19" s="60">
+        <v>-97.235100000000003</v>
+      </c>
+      <c r="P19" s="60">
+        <v>5875</v>
+      </c>
+      <c r="Q19" s="60" t="s">
+        <v>890</v>
+      </c>
+      <c r="R19" s="61">
+        <v>33809</v>
+      </c>
+      <c r="S19" s="62" t="s">
+        <v>891</v>
+      </c>
+      <c r="T19" s="60">
+        <v>1371817190</v>
+      </c>
+      <c r="U19" s="60">
+        <v>33.182349000000002</v>
+      </c>
+      <c r="V19" s="60">
+        <v>-97.919284000000005</v>
+      </c>
+      <c r="W19" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="63">
+        <v>18</v>
+      </c>
+      <c r="B20" s="59">
+        <v>44003.513842592591</v>
+      </c>
+      <c r="C20" s="60">
+        <v>4.8613101306525604E+18</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>892</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>871</v>
+      </c>
+      <c r="F20" s="60">
+        <v>80.11</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>767</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>893</v>
+      </c>
+      <c r="I20" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J20" s="60" t="s">
+        <v>894</v>
+      </c>
+      <c r="K20" s="60" t="s">
+        <v>895</v>
+      </c>
+      <c r="L20" s="60" t="s">
+        <v>896</v>
+      </c>
+      <c r="M20" s="60">
+        <v>70774</v>
+      </c>
+      <c r="N20" s="60">
+        <v>30.238499999999998</v>
+      </c>
+      <c r="O20" s="60">
+        <v>-90.843500000000006</v>
+      </c>
+      <c r="P20" s="60">
+        <v>10076</v>
+      </c>
+      <c r="Q20" s="60" t="s">
+        <v>897</v>
+      </c>
+      <c r="R20" s="61">
+        <v>28475</v>
+      </c>
+      <c r="S20" s="60" t="s">
+        <v>898</v>
+      </c>
+      <c r="T20" s="60">
+        <v>1371817196</v>
+      </c>
+      <c r="U20" s="60">
+        <v>30.44999</v>
+      </c>
+      <c r="V20" s="60">
+        <v>-89.930995999999993</v>
+      </c>
+      <c r="W20" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="63">
+        <v>19</v>
+      </c>
+      <c r="B21" s="59">
+        <v>44003.514039351852</v>
+      </c>
+      <c r="C21" s="60">
+        <v>6538441737335430</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>899</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>747</v>
+      </c>
+      <c r="F21" s="60">
+        <v>5.71</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>900</v>
+      </c>
+      <c r="H21" s="60" t="s">
+        <v>901</v>
+      </c>
+      <c r="I21" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J21" s="60" t="s">
+        <v>902</v>
+      </c>
+      <c r="K21" s="60" t="s">
+        <v>903</v>
+      </c>
+      <c r="L21" s="60" t="s">
+        <v>821</v>
+      </c>
+      <c r="M21" s="60">
+        <v>16114</v>
+      </c>
+      <c r="N21" s="60">
+        <v>41.385100000000001</v>
+      </c>
+      <c r="O21" s="60">
+        <v>-80.175200000000004</v>
+      </c>
+      <c r="P21" s="60">
+        <v>606</v>
+      </c>
+      <c r="Q21" s="60" t="s">
+        <v>904</v>
+      </c>
+      <c r="R21" s="61">
+        <v>35695</v>
+      </c>
+      <c r="S21" s="60" t="s">
+        <v>905</v>
+      </c>
+      <c r="T21" s="60">
+        <v>1371817213</v>
+      </c>
+      <c r="U21" s="60">
+        <v>40.508063999999997</v>
+      </c>
+      <c r="V21" s="60">
+        <v>-79.615157999999994</v>
+      </c>
+      <c r="W21" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="63">
+        <v>20</v>
+      </c>
+      <c r="B22" s="59">
+        <v>44003.514282407406</v>
+      </c>
+      <c r="C22" s="60">
+        <v>2283743876903620</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>906</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>783</v>
+      </c>
+      <c r="F22" s="60">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>907</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>758</v>
+      </c>
+      <c r="I22" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J22" s="60" t="s">
+        <v>908</v>
+      </c>
+      <c r="K22" s="60" t="s">
+        <v>909</v>
+      </c>
+      <c r="L22" s="60" t="s">
+        <v>910</v>
+      </c>
+      <c r="M22" s="60">
+        <v>30009</v>
+      </c>
+      <c r="N22" s="60">
+        <v>34.076999999999998</v>
+      </c>
+      <c r="O22" s="60">
+        <v>-84.303299999999993</v>
+      </c>
+      <c r="P22" s="60">
+        <v>165556</v>
+      </c>
+      <c r="Q22" s="60" t="s">
+        <v>911</v>
+      </c>
+      <c r="R22" s="61">
+        <v>35791</v>
+      </c>
+      <c r="S22" s="60" t="s">
+        <v>912</v>
+      </c>
+      <c r="T22" s="60">
+        <v>1371817234</v>
+      </c>
+      <c r="U22" s="60">
+        <v>33.195225000000001</v>
+      </c>
+      <c r="V22" s="60">
+        <v>-84.119083000000003</v>
+      </c>
+      <c r="W22" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="63">
+        <v>21</v>
+      </c>
+      <c r="B23" s="59">
+        <v>44003.514374999999</v>
+      </c>
+      <c r="C23" s="60">
+        <v>4.5600041499838602E+18</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>840</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>792</v>
+      </c>
+      <c r="F23" s="60">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>913</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>914</v>
+      </c>
+      <c r="I23" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J23" s="60" t="s">
+        <v>915</v>
+      </c>
+      <c r="K23" s="60" t="s">
+        <v>916</v>
+      </c>
+      <c r="L23" s="60" t="s">
+        <v>917</v>
+      </c>
+      <c r="M23" s="60">
+        <v>80951</v>
+      </c>
+      <c r="N23" s="60">
+        <v>38.888100000000001</v>
+      </c>
+      <c r="O23" s="60">
+        <v>-104.65560000000001</v>
+      </c>
+      <c r="P23" s="60">
+        <v>525713</v>
+      </c>
+      <c r="Q23" s="60" t="s">
+        <v>918</v>
+      </c>
+      <c r="R23" s="61">
+        <v>33733</v>
+      </c>
+      <c r="S23" s="60" t="s">
+        <v>919</v>
+      </c>
+      <c r="T23" s="60">
+        <v>1371817242</v>
+      </c>
+      <c r="U23" s="60">
+        <v>39.844710999999997</v>
+      </c>
+      <c r="V23" s="60">
+        <v>-103.975632</v>
+      </c>
+      <c r="W23" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="63">
+        <v>22</v>
+      </c>
+      <c r="B24" s="59">
+        <v>44003.514548611114</v>
+      </c>
+      <c r="C24" s="60">
+        <v>4562827002127</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>920</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>783</v>
+      </c>
+      <c r="F24" s="60">
+        <v>1.74</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>921</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>922</v>
+      </c>
+      <c r="I24" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J24" s="60" t="s">
+        <v>923</v>
+      </c>
+      <c r="K24" s="60" t="s">
+        <v>924</v>
+      </c>
+      <c r="L24" s="60" t="s">
+        <v>925</v>
+      </c>
+      <c r="M24" s="60">
+        <v>45331</v>
+      </c>
+      <c r="N24" s="60">
+        <v>40.098700000000001</v>
+      </c>
+      <c r="O24" s="60">
+        <v>-84.634200000000007</v>
+      </c>
+      <c r="P24" s="60">
+        <v>22930</v>
+      </c>
+      <c r="Q24" s="60" t="s">
+        <v>926</v>
+      </c>
+      <c r="R24" s="61">
+        <v>26263</v>
+      </c>
+      <c r="S24" s="60" t="s">
+        <v>927</v>
+      </c>
+      <c r="T24" s="60">
+        <v>1371817257</v>
+      </c>
+      <c r="U24" s="60">
+        <v>40.117116000000003</v>
+      </c>
+      <c r="V24" s="60">
+        <v>-84.175021000000001</v>
+      </c>
+      <c r="W24" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="63">
+        <v>23</v>
+      </c>
+      <c r="B25" s="59">
+        <v>44003.515115740738</v>
+      </c>
+      <c r="C25" s="60">
+        <v>213153151785052</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>928</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>783</v>
+      </c>
+      <c r="F25" s="60">
+        <v>6.02</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>929</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>930</v>
+      </c>
+      <c r="I25" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J25" s="60" t="s">
+        <v>931</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>932</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>933</v>
+      </c>
+      <c r="M25" s="60">
+        <v>54487</v>
+      </c>
+      <c r="N25" s="60">
+        <v>45.496299999999998</v>
+      </c>
+      <c r="O25" s="60">
+        <v>-89.7273</v>
+      </c>
+      <c r="P25" s="60">
+        <v>9594</v>
+      </c>
+      <c r="Q25" s="60" t="s">
+        <v>934</v>
+      </c>
+      <c r="R25" s="61">
+        <v>35757</v>
+      </c>
+      <c r="S25" s="60" t="s">
+        <v>935</v>
+      </c>
+      <c r="T25" s="60">
+        <v>1371817306</v>
+      </c>
+      <c r="U25" s="60">
+        <v>45.474440000000001</v>
+      </c>
+      <c r="V25" s="60">
+        <v>-89.539773999999994</v>
+      </c>
+      <c r="W25" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="63">
+        <v>24</v>
+      </c>
+      <c r="B26" s="59">
+        <v>44003.515127314815</v>
+      </c>
+      <c r="C26" s="60">
+        <v>372509258176510</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>936</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="F26" s="60">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>937</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>938</v>
+      </c>
+      <c r="I26" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J26" s="60" t="s">
+        <v>939</v>
+      </c>
+      <c r="K26" s="60" t="s">
+        <v>940</v>
+      </c>
+      <c r="L26" s="60" t="s">
+        <v>788</v>
+      </c>
+      <c r="M26" s="60">
+        <v>48438</v>
+      </c>
+      <c r="N26" s="60">
+        <v>42.914700000000003</v>
+      </c>
+      <c r="O26" s="60">
+        <v>-83.484499999999997</v>
+      </c>
+      <c r="P26" s="60">
+        <v>6951</v>
+      </c>
+      <c r="Q26" s="60" t="s">
+        <v>941</v>
+      </c>
+      <c r="R26" s="61">
+        <v>31216</v>
+      </c>
+      <c r="S26" s="60" t="s">
+        <v>942</v>
+      </c>
+      <c r="T26" s="60">
+        <v>1371817307</v>
+      </c>
+      <c r="U26" s="60">
+        <v>43.702832999999998</v>
+      </c>
+      <c r="V26" s="60">
+        <v>-83.750247999999999</v>
+      </c>
+      <c r="W26" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="63">
+        <v>25</v>
+      </c>
+      <c r="B27" s="59">
+        <v>44003.516064814816</v>
+      </c>
+      <c r="C27" s="60">
+        <v>6011148190095200</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>943</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>825</v>
+      </c>
+      <c r="F27" s="60">
+        <v>47.06</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>944</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>945</v>
+      </c>
+      <c r="I27" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J27" s="60" t="s">
+        <v>946</v>
+      </c>
+      <c r="K27" s="60" t="s">
+        <v>947</v>
+      </c>
+      <c r="L27" s="60" t="s">
+        <v>804</v>
+      </c>
+      <c r="M27" s="60">
+        <v>94015</v>
+      </c>
+      <c r="N27" s="60">
+        <v>37.678699999999999</v>
+      </c>
+      <c r="O27" s="60">
+        <v>-122.47799999999999</v>
+      </c>
+      <c r="P27" s="60">
+        <v>107941</v>
+      </c>
+      <c r="Q27" s="60" t="s">
+        <v>948</v>
+      </c>
+      <c r="R27" s="61">
+        <v>33515</v>
+      </c>
+      <c r="S27" s="60" t="s">
+        <v>949</v>
+      </c>
+      <c r="T27" s="60">
+        <v>1371817388</v>
+      </c>
+      <c r="U27" s="60">
+        <v>38.048242000000002</v>
+      </c>
+      <c r="V27" s="60">
+        <v>-123.12568</v>
+      </c>
+      <c r="W27" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="63">
+        <v>26</v>
+      </c>
+      <c r="B28" s="59">
+        <v>44003.516076388885</v>
+      </c>
+      <c r="C28" s="60">
+        <v>6011917798331150</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>950</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>766</v>
+      </c>
+      <c r="F28" s="60">
+        <v>1.7</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>857</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>922</v>
+      </c>
+      <c r="I28" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>951</v>
+      </c>
+      <c r="K28" s="60" t="s">
+        <v>952</v>
+      </c>
+      <c r="L28" s="60" t="s">
+        <v>953</v>
+      </c>
+      <c r="M28" s="60">
+        <v>5155</v>
+      </c>
+      <c r="N28" s="60">
+        <v>43.169899999999998</v>
+      </c>
+      <c r="O28" s="60">
+        <v>-72.851500000000001</v>
+      </c>
+      <c r="P28" s="60">
+        <v>828</v>
+      </c>
+      <c r="Q28" s="60" t="s">
+        <v>954</v>
+      </c>
+      <c r="R28" s="61">
+        <v>21062</v>
+      </c>
+      <c r="S28" s="60" t="s">
+        <v>955</v>
+      </c>
+      <c r="T28" s="60">
+        <v>1371817389</v>
+      </c>
+      <c r="U28" s="60">
+        <v>42.390565000000002</v>
+      </c>
+      <c r="V28" s="60">
+        <v>-71.932417999999998</v>
+      </c>
+      <c r="W28" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="63">
+        <v>27</v>
+      </c>
+      <c r="B29" s="59">
+        <v>44003.516585648147</v>
+      </c>
+      <c r="C29" s="60">
+        <v>3577663406369440</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>956</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>747</v>
+      </c>
+      <c r="F29" s="60">
+        <v>2.17</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>957</v>
+      </c>
+      <c r="H29" s="60" t="s">
+        <v>958</v>
+      </c>
+      <c r="I29" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J29" s="60" t="s">
+        <v>959</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>960</v>
+      </c>
+      <c r="L29" s="60" t="s">
+        <v>961</v>
+      </c>
+      <c r="M29" s="60">
+        <v>72354</v>
+      </c>
+      <c r="N29" s="60">
+        <v>35.606900000000003</v>
+      </c>
+      <c r="O29" s="60">
+        <v>-90.335899999999995</v>
+      </c>
+      <c r="P29" s="60">
+        <v>2470</v>
+      </c>
+      <c r="Q29" s="60" t="s">
+        <v>962</v>
+      </c>
+      <c r="R29" s="61">
+        <v>25117</v>
+      </c>
+      <c r="S29" s="60" t="s">
+        <v>963</v>
+      </c>
+      <c r="T29" s="60">
+        <v>1371817433</v>
+      </c>
+      <c r="U29" s="60">
+        <v>36.581541000000001</v>
+      </c>
+      <c r="V29" s="60">
+        <v>-89.680516999999995</v>
+      </c>
+      <c r="W29" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="63">
+        <v>28</v>
+      </c>
+      <c r="B30" s="59">
+        <v>44003.516793981478</v>
+      </c>
+      <c r="C30" s="60">
+        <v>3502377050801560</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>964</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>783</v>
+      </c>
+      <c r="F30" s="60">
+        <v>6.21</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>965</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>966</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J30" s="60" t="s">
+        <v>967</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>968</v>
+      </c>
+      <c r="L30" s="60" t="s">
+        <v>829</v>
+      </c>
+      <c r="M30" s="60">
+        <v>77358</v>
+      </c>
+      <c r="N30" s="60">
+        <v>30.535399999999999</v>
+      </c>
+      <c r="O30" s="60">
+        <v>-95.453199999999995</v>
+      </c>
+      <c r="P30" s="60">
+        <v>4993</v>
+      </c>
+      <c r="Q30" s="60" t="s">
+        <v>969</v>
+      </c>
+      <c r="R30" s="61">
+        <v>17867</v>
+      </c>
+      <c r="S30" s="60" t="s">
+        <v>970</v>
+      </c>
+      <c r="T30" s="60">
+        <v>1371817451</v>
+      </c>
+      <c r="U30" s="60">
+        <v>31.432355000000001</v>
+      </c>
+      <c r="V30" s="60">
+        <v>-95.537858999999997</v>
+      </c>
+      <c r="W30" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="63">
+        <v>29</v>
+      </c>
+      <c r="B31" s="59">
+        <v>44003.516851851855</v>
+      </c>
+      <c r="C31" s="60">
+        <v>180040027502291</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>971</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>747</v>
+      </c>
+      <c r="F31" s="60">
+        <v>24.44</v>
+      </c>
+      <c r="G31" s="60" t="s">
+        <v>972</v>
+      </c>
+      <c r="H31" s="60" t="s">
+        <v>973</v>
+      </c>
+      <c r="I31" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J31" s="60" t="s">
+        <v>974</v>
+      </c>
+      <c r="K31" s="60" t="s">
+        <v>975</v>
+      </c>
+      <c r="L31" s="60" t="s">
+        <v>771</v>
+      </c>
+      <c r="M31" s="60">
+        <v>10162</v>
+      </c>
+      <c r="N31" s="60">
+        <v>40.7699</v>
+      </c>
+      <c r="O31" s="60">
+        <v>-73.951099999999997</v>
+      </c>
+      <c r="P31" s="60">
+        <v>1577385</v>
+      </c>
+      <c r="Q31" s="60" t="s">
+        <v>976</v>
+      </c>
+      <c r="R31" s="61">
+        <v>21183</v>
+      </c>
+      <c r="S31" s="60" t="s">
+        <v>977</v>
+      </c>
+      <c r="T31" s="60">
+        <v>1371817456</v>
+      </c>
+      <c r="U31" s="60">
+        <v>40.951475000000002</v>
+      </c>
+      <c r="V31" s="60">
+        <v>-74.065225999999996</v>
+      </c>
+      <c r="W31" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="63">
+        <v>30</v>
+      </c>
+      <c r="B32" s="59">
+        <v>44003.517465277779</v>
+      </c>
+      <c r="C32" s="60">
+        <v>379897244598068</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>978</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>747</v>
+      </c>
+      <c r="F32" s="60">
+        <v>176.23</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>979</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>980</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J32" s="60" t="s">
+        <v>981</v>
+      </c>
+      <c r="K32" s="60" t="s">
+        <v>982</v>
+      </c>
+      <c r="L32" s="60" t="s">
+        <v>837</v>
+      </c>
+      <c r="M32" s="60">
+        <v>40056</v>
+      </c>
+      <c r="N32" s="60">
+        <v>38.303899999999999</v>
+      </c>
+      <c r="O32" s="60">
+        <v>-85.483400000000003</v>
+      </c>
+      <c r="P32" s="60">
+        <v>3263</v>
+      </c>
+      <c r="Q32" s="60" t="s">
+        <v>983</v>
+      </c>
+      <c r="R32" s="61">
+        <v>11017</v>
+      </c>
+      <c r="S32" s="60" t="s">
+        <v>984</v>
+      </c>
+      <c r="T32" s="60">
+        <v>1371817509</v>
+      </c>
+      <c r="U32" s="60">
+        <v>38.585315999999999</v>
+      </c>
+      <c r="V32" s="60">
+        <v>-86.108185000000006</v>
+      </c>
+      <c r="W32" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="63">
+        <v>31</v>
+      </c>
+      <c r="B33" s="59">
+        <v>44003.518171296295</v>
+      </c>
+      <c r="C33" s="60">
+        <v>180048185037117</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>985</v>
+      </c>
+      <c r="E33" s="60" t="s">
+        <v>849</v>
+      </c>
+      <c r="F33" s="60">
+        <v>134.38999999999999</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>972</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>986</v>
+      </c>
+      <c r="I33" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J33" s="60" t="s">
+        <v>987</v>
+      </c>
+      <c r="K33" s="60" t="s">
+        <v>988</v>
+      </c>
+      <c r="L33" s="60" t="s">
+        <v>989</v>
+      </c>
+      <c r="M33" s="60">
+        <v>7060</v>
+      </c>
+      <c r="N33" s="60">
+        <v>40.615200000000002</v>
+      </c>
+      <c r="O33" s="60">
+        <v>-74.415000000000006</v>
+      </c>
+      <c r="P33" s="60">
+        <v>71485</v>
+      </c>
+      <c r="Q33" s="60" t="s">
+        <v>990</v>
+      </c>
+      <c r="R33" s="61">
+        <v>27229</v>
+      </c>
+      <c r="S33" s="60" t="s">
+        <v>991</v>
+      </c>
+      <c r="T33" s="60">
+        <v>1371817570</v>
+      </c>
+      <c r="U33" s="60">
+        <v>40.196876000000003</v>
+      </c>
+      <c r="V33" s="60">
+        <v>-74.407685999999998</v>
+      </c>
+      <c r="W33" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="63">
+        <v>32</v>
+      </c>
+      <c r="B34" s="59">
+        <v>44003.518206018518</v>
+      </c>
+      <c r="C34" s="60">
+        <v>4302475216404890</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>992</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>747</v>
+      </c>
+      <c r="F34" s="60">
+        <v>19.03</v>
+      </c>
+      <c r="G34" s="60" t="s">
+        <v>993</v>
+      </c>
+      <c r="H34" s="60" t="s">
+        <v>994</v>
+      </c>
+      <c r="I34" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J34" s="60" t="s">
+        <v>995</v>
+      </c>
+      <c r="K34" s="60" t="s">
+        <v>996</v>
+      </c>
+      <c r="L34" s="60" t="s">
+        <v>997</v>
+      </c>
+      <c r="M34" s="60">
+        <v>50421</v>
+      </c>
+      <c r="N34" s="60">
+        <v>42.851100000000002</v>
+      </c>
+      <c r="O34" s="60">
+        <v>-93.62</v>
+      </c>
+      <c r="P34" s="60">
+        <v>3032</v>
+      </c>
+      <c r="Q34" s="60" t="s">
+        <v>998</v>
+      </c>
+      <c r="R34" s="61">
+        <v>23597</v>
+      </c>
+      <c r="S34" s="60" t="s">
+        <v>999</v>
+      </c>
+      <c r="T34" s="60">
+        <v>1371817573</v>
+      </c>
+      <c r="U34" s="60">
+        <v>42.322808999999999</v>
+      </c>
+      <c r="V34" s="60">
+        <v>-94.363654999999994</v>
+      </c>
+      <c r="W34" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="63">
+        <v>33</v>
+      </c>
+      <c r="B35" s="59">
+        <v>44003.518321759257</v>
+      </c>
+      <c r="C35" s="60">
+        <v>180036456789979</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>871</v>
+      </c>
+      <c r="F35" s="60">
+        <v>210.36</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I35" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J35" s="60" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K35" s="60" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L35" s="60" t="s">
+        <v>933</v>
+      </c>
+      <c r="M35" s="60">
+        <v>53801</v>
+      </c>
+      <c r="N35" s="60">
+        <v>42.920699999999997</v>
+      </c>
+      <c r="O35" s="60">
+        <v>-91.0685</v>
+      </c>
+      <c r="P35" s="60">
+        <v>878</v>
+      </c>
+      <c r="Q35" s="60" t="s">
+        <v>1005</v>
+      </c>
+      <c r="R35" s="61">
+        <v>27353</v>
+      </c>
+      <c r="S35" s="60" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T35" s="60">
+        <v>1371817583</v>
+      </c>
+      <c r="U35" s="60">
+        <v>42.736666</v>
+      </c>
+      <c r="V35" s="60">
+        <v>-90.099710000000002</v>
+      </c>
+      <c r="W35" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="63">
+        <v>34</v>
+      </c>
+      <c r="B36" s="59">
+        <v>44003.51834490741</v>
+      </c>
+      <c r="C36" s="60">
+        <v>180065479077096</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>849</v>
+      </c>
+      <c r="F36" s="60">
+        <v>52.81</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H36" s="60" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J36" s="60" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K36" s="60" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L36" s="60" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M36" s="60">
+        <v>21102</v>
+      </c>
+      <c r="N36" s="60">
+        <v>39.674700000000001</v>
+      </c>
+      <c r="O36" s="60">
+        <v>-76.894099999999995</v>
+      </c>
+      <c r="P36" s="60">
+        <v>11751</v>
+      </c>
+      <c r="Q36" s="60" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R36" s="61">
+        <v>23422</v>
+      </c>
+      <c r="S36" s="60" t="s">
+        <v>1014</v>
+      </c>
+      <c r="T36" s="60">
+        <v>1371817585</v>
+      </c>
+      <c r="U36" s="60">
+        <v>39.289186000000001</v>
+      </c>
+      <c r="V36" s="60">
+        <v>-77.113658999999998</v>
+      </c>
+      <c r="W36" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="63">
+        <v>35</v>
+      </c>
+      <c r="B37" s="59">
+        <v>44003.51835648148</v>
+      </c>
+      <c r="C37" s="60">
+        <v>6517217825320610</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>832</v>
+      </c>
+      <c r="E37" s="60" t="s">
+        <v>825</v>
+      </c>
+      <c r="F37" s="60">
+        <v>82.32</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I37" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K37" s="60" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L37" s="60" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M37" s="60">
+        <v>39665</v>
+      </c>
+      <c r="N37" s="60">
+        <v>31.645299999999999</v>
+      </c>
+      <c r="O37" s="60">
+        <v>-90.180099999999996</v>
+      </c>
+      <c r="P37" s="60">
+        <v>1196</v>
+      </c>
+      <c r="Q37" s="60" t="s">
+        <v>1020</v>
+      </c>
+      <c r="R37" s="61">
+        <v>21347</v>
+      </c>
+      <c r="S37" s="60" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T37" s="60">
+        <v>1371817586</v>
+      </c>
+      <c r="U37" s="60">
+        <v>31.422908</v>
+      </c>
+      <c r="V37" s="60">
+        <v>-90.012124</v>
+      </c>
+      <c r="W37" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="63">
+        <v>36</v>
+      </c>
+      <c r="B38" s="59">
+        <v>44003.518842592595</v>
+      </c>
+      <c r="C38" s="60">
+        <v>4683520018489350</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>747</v>
+      </c>
+      <c r="F38" s="60">
+        <v>26.31</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>879</v>
+      </c>
+      <c r="H38" s="60" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I38" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J38" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K38" s="60" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L38" s="60" t="s">
+        <v>804</v>
+      </c>
+      <c r="M38" s="60">
+        <v>90250</v>
+      </c>
+      <c r="N38" s="60">
+        <v>33.914299999999997</v>
+      </c>
+      <c r="O38" s="60">
+        <v>-118.3493</v>
+      </c>
+      <c r="P38" s="60">
+        <v>93193</v>
+      </c>
+      <c r="Q38" s="60" t="s">
+        <v>1026</v>
+      </c>
+      <c r="R38" s="61">
+        <v>34808</v>
+      </c>
+      <c r="S38" s="60" t="s">
+        <v>1027</v>
+      </c>
+      <c r="T38" s="60">
+        <v>1371817628</v>
+      </c>
+      <c r="U38" s="60">
+        <v>33.949418000000001</v>
+      </c>
+      <c r="V38" s="60">
+        <v>-117.610248</v>
+      </c>
+      <c r="W38" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="63">
+        <v>37</v>
+      </c>
+      <c r="B39" s="59">
+        <v>44003.519004629627</v>
+      </c>
+      <c r="C39" s="60">
+        <v>501899453424</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E39" s="60" t="s">
+        <v>792</v>
+      </c>
+      <c r="F39" s="60">
+        <v>134.6</v>
+      </c>
+      <c r="G39" s="60" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H39" s="60" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I39" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J39" s="60" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K39" s="60" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L39" s="60" t="s">
+        <v>867</v>
+      </c>
+      <c r="M39" s="60">
+        <v>35903</v>
+      </c>
+      <c r="N39" s="60">
+        <v>33.984499999999997</v>
+      </c>
+      <c r="O39" s="60">
+        <v>-85.907700000000006</v>
+      </c>
+      <c r="P39" s="60">
+        <v>67082</v>
+      </c>
+      <c r="Q39" s="60" t="s">
+        <v>1033</v>
+      </c>
+      <c r="R39" s="61">
+        <v>25576</v>
+      </c>
+      <c r="S39" s="60" t="s">
+        <v>1034</v>
+      </c>
+      <c r="T39" s="60">
+        <v>1371817642</v>
+      </c>
+      <c r="U39" s="60">
+        <v>34.727266</v>
+      </c>
+      <c r="V39" s="60">
+        <v>-86.883793999999995</v>
+      </c>
+      <c r="W39" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="63">
+        <v>38</v>
+      </c>
+      <c r="B40" s="59">
+        <v>44003.519212962965</v>
+      </c>
+      <c r="C40" s="60">
+        <v>6011348830550190</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>792</v>
+      </c>
+      <c r="F40" s="60">
+        <v>36.72</v>
+      </c>
+      <c r="G40" s="60" t="s">
+        <v>833</v>
+      </c>
+      <c r="H40" s="60" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I40" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J40" s="60" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K40" s="60" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L40" s="60" t="s">
+        <v>867</v>
+      </c>
+      <c r="M40" s="60">
+        <v>35229</v>
+      </c>
+      <c r="N40" s="60">
+        <v>33.462899999999998</v>
+      </c>
+      <c r="O40" s="60">
+        <v>-86.790400000000005</v>
+      </c>
+      <c r="P40" s="60">
+        <v>493806</v>
+      </c>
+      <c r="Q40" s="60" t="s">
+        <v>1038</v>
+      </c>
+      <c r="R40" s="61">
+        <v>29414</v>
+      </c>
+      <c r="S40" s="60" t="s">
+        <v>1039</v>
+      </c>
+      <c r="T40" s="60">
+        <v>1371817660</v>
+      </c>
+      <c r="U40" s="60">
+        <v>32.761156</v>
+      </c>
+      <c r="V40" s="60">
+        <v>-85.903113000000005</v>
+      </c>
+      <c r="W40" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="63">
+        <v>39</v>
+      </c>
+      <c r="B41" s="59">
+        <v>44003.519375000003</v>
+      </c>
+      <c r="C41" s="60">
+        <v>213195754007681</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>871</v>
+      </c>
+      <c r="F41" s="60">
+        <v>105.78</v>
+      </c>
+      <c r="G41" s="60" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H41" s="60" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I41" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J41" s="60" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K41" s="60" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L41" s="60" t="s">
+        <v>997</v>
+      </c>
+      <c r="M41" s="60">
+        <v>52576</v>
+      </c>
+      <c r="N41" s="60">
+        <v>41.200099999999999</v>
+      </c>
+      <c r="O41" s="60">
+        <v>-92.135400000000004</v>
+      </c>
+      <c r="P41" s="60">
+        <v>568</v>
+      </c>
+      <c r="Q41" s="60" t="s">
+        <v>876</v>
+      </c>
+      <c r="R41" s="61">
+        <v>25408</v>
+      </c>
+      <c r="S41" s="60" t="s">
+        <v>1045</v>
+      </c>
+      <c r="T41" s="60">
+        <v>1371817674</v>
+      </c>
+      <c r="U41" s="60">
+        <v>41.214609000000003</v>
+      </c>
+      <c r="V41" s="60">
+        <v>-92.226243999999994</v>
+      </c>
+      <c r="W41" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="63">
+        <v>40</v>
+      </c>
+      <c r="B42" s="59">
+        <v>44003.519513888888</v>
+      </c>
+      <c r="C42" s="60">
+        <v>2712209726293380</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>849</v>
+      </c>
+      <c r="F42" s="60">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H42" s="60" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I42" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J42" s="60" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K42" s="60" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L42" s="60" t="s">
+        <v>896</v>
+      </c>
+      <c r="M42" s="60">
+        <v>70808</v>
+      </c>
+      <c r="N42" s="60">
+        <v>30.406600000000001</v>
+      </c>
+      <c r="O42" s="60">
+        <v>-91.146799999999999</v>
+      </c>
+      <c r="P42" s="60">
+        <v>378909</v>
+      </c>
+      <c r="Q42" s="60" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R42" s="61">
+        <v>28178</v>
+      </c>
+      <c r="S42" s="60" t="s">
+        <v>1052</v>
+      </c>
+      <c r="T42" s="60">
+        <v>1371817686</v>
+      </c>
+      <c r="U42" s="60">
+        <v>30.382414000000001</v>
+      </c>
+      <c r="V42" s="60">
+        <v>-90.923894000000004</v>
+      </c>
+      <c r="W42" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="63">
+        <v>41</v>
+      </c>
+      <c r="B43" s="59">
+        <v>44003.51971064815</v>
+      </c>
+      <c r="C43" s="60">
+        <v>503874407318</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>849</v>
+      </c>
+      <c r="F43" s="60">
+        <v>47.81</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H43" s="60" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I43" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J43" s="60" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K43" s="60" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L43" s="60" t="s">
+        <v>829</v>
+      </c>
+      <c r="M43" s="60">
+        <v>78248</v>
+      </c>
+      <c r="N43" s="60">
+        <v>29.589400000000001</v>
+      </c>
+      <c r="O43" s="60">
+        <v>-98.520099999999999</v>
+      </c>
+      <c r="P43" s="60">
+        <v>1595797</v>
+      </c>
+      <c r="Q43" s="60" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R43" s="61">
+        <v>27756</v>
+      </c>
+      <c r="S43" s="60" t="s">
+        <v>1059</v>
+      </c>
+      <c r="T43" s="60">
+        <v>1371817703</v>
+      </c>
+      <c r="U43" s="60">
+        <v>30.50995</v>
+      </c>
+      <c r="V43" s="60">
+        <v>-99.374200999999999</v>
+      </c>
+      <c r="W43" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="63">
+        <v>42</v>
+      </c>
+      <c r="B44" s="59">
+        <v>44003.519895833335</v>
+      </c>
+      <c r="C44" s="60">
+        <v>676369110710</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E44" s="60" t="s">
+        <v>792</v>
+      </c>
+      <c r="F44" s="60">
+        <v>18.96</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>817</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I44" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J44" s="60" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K44" s="60" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L44" s="60" t="s">
+        <v>788</v>
+      </c>
+      <c r="M44" s="60">
+        <v>48034</v>
+      </c>
+      <c r="N44" s="60">
+        <v>42.496899999999997</v>
+      </c>
+      <c r="O44" s="60">
+        <v>-83.2911</v>
+      </c>
+      <c r="P44" s="60">
+        <v>75830</v>
+      </c>
+      <c r="Q44" s="60" t="s">
+        <v>1064</v>
+      </c>
+      <c r="R44" s="61">
+        <v>27391</v>
+      </c>
+      <c r="S44" s="60" t="s">
+        <v>1065</v>
+      </c>
+      <c r="T44" s="60">
+        <v>1371817719</v>
+      </c>
+      <c r="U44" s="60">
+        <v>42.186472999999999</v>
+      </c>
+      <c r="V44" s="60">
+        <v>-84.041556999999997</v>
+      </c>
+      <c r="W44" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="63">
+        <v>43</v>
+      </c>
+      <c r="B45" s="59">
+        <v>44003.520428240743</v>
+      </c>
+      <c r="C45" s="60">
+        <v>4783226709001</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E45" s="60" t="s">
+        <v>871</v>
+      </c>
+      <c r="F45" s="60">
+        <v>46.67</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I45" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J45" s="60" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K45" s="60" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L45" s="60" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M45" s="60">
+        <v>67556</v>
+      </c>
+      <c r="N45" s="60">
+        <v>38.595700000000001</v>
+      </c>
+      <c r="O45" s="60">
+        <v>-99.554000000000002</v>
+      </c>
+      <c r="P45" s="60">
+        <v>320</v>
+      </c>
+      <c r="Q45" s="60" t="s">
+        <v>1071</v>
+      </c>
+      <c r="R45" s="61">
+        <v>22393</v>
+      </c>
+      <c r="S45" s="60" t="s">
+        <v>1072</v>
+      </c>
+      <c r="T45" s="60">
+        <v>1371817765</v>
+      </c>
+      <c r="U45" s="60">
+        <v>39.456657999999997</v>
+      </c>
+      <c r="V45" s="60">
+        <v>-99.569785999999993</v>
+      </c>
+      <c r="W45" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="63">
+        <v>44</v>
+      </c>
+      <c r="B46" s="59">
+        <v>44003.520451388889</v>
+      </c>
+      <c r="C46" s="60">
+        <v>375848982312810</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>792</v>
+      </c>
+      <c r="F46" s="60">
+        <v>30.59</v>
+      </c>
+      <c r="G46" s="60" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H46" s="60" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I46" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J46" s="60" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K46" s="60" t="s">
+        <v>1077</v>
+      </c>
+      <c r="L46" s="60" t="s">
+        <v>829</v>
+      </c>
+      <c r="M46" s="60">
+        <v>76566</v>
+      </c>
+      <c r="N46" s="60">
+        <v>31.484100000000002</v>
+      </c>
+      <c r="O46" s="60">
+        <v>-97.990300000000005</v>
+      </c>
+      <c r="P46" s="60">
+        <v>258</v>
+      </c>
+      <c r="Q46" s="60" t="s">
+        <v>1078</v>
+      </c>
+      <c r="R46" s="61">
+        <v>16055</v>
+      </c>
+      <c r="S46" s="60" t="s">
+        <v>1079</v>
+      </c>
+      <c r="T46" s="60">
+        <v>1371817767</v>
+      </c>
+      <c r="U46" s="60">
+        <v>32.053227999999997</v>
+      </c>
+      <c r="V46" s="60">
+        <v>-97.160999000000004</v>
+      </c>
+      <c r="W46" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="63">
+        <v>45</v>
+      </c>
+      <c r="B47" s="59">
+        <v>44003.520486111112</v>
+      </c>
+      <c r="C47" s="60">
+        <v>30270432095985</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>849</v>
+      </c>
+      <c r="F47" s="60">
+        <v>3.94</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I47" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J47" s="60" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K47" s="60" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L47" s="60" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M47" s="60">
+        <v>61454</v>
+      </c>
+      <c r="N47" s="60">
+        <v>40.676099999999998</v>
+      </c>
+      <c r="O47" s="60">
+        <v>-91.039100000000005</v>
+      </c>
+      <c r="P47" s="60">
+        <v>725</v>
+      </c>
+      <c r="Q47" s="60" t="s">
+        <v>1086</v>
+      </c>
+      <c r="R47" s="61">
+        <v>26631</v>
+      </c>
+      <c r="S47" s="60" t="s">
+        <v>1087</v>
+      </c>
+      <c r="T47" s="60">
+        <v>1371817770</v>
+      </c>
+      <c r="U47" s="60">
+        <v>40.922922999999997</v>
+      </c>
+      <c r="V47" s="60">
+        <v>-91.977219000000005</v>
+      </c>
+      <c r="W47" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="63">
+        <v>46</v>
+      </c>
+      <c r="B48" s="59">
+        <v>44003.520520833335</v>
+      </c>
+      <c r="C48" s="60">
+        <v>6011149206456990</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>849</v>
+      </c>
+      <c r="F48" s="60">
+        <v>84.11</v>
+      </c>
+      <c r="G48" s="60" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I48" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J48" s="60" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K48" s="60" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L48" s="60" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M48" s="60">
+        <v>21790</v>
+      </c>
+      <c r="N48" s="60">
+        <v>39.2667</v>
+      </c>
+      <c r="O48" s="60">
+        <v>-77.510099999999994</v>
+      </c>
+      <c r="P48" s="60">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="60" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R48" s="61">
+        <v>29200</v>
+      </c>
+      <c r="S48" s="60" t="s">
+        <v>1094</v>
+      </c>
+      <c r="T48" s="60">
+        <v>1371817773</v>
+      </c>
+      <c r="U48" s="60">
+        <v>39.535381999999998</v>
+      </c>
+      <c r="V48" s="60">
+        <v>-77.064746999999997</v>
+      </c>
+      <c r="W48" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="63">
+        <v>47</v>
+      </c>
+      <c r="B49" s="59">
+        <v>44003.520555555559</v>
+      </c>
+      <c r="C49" s="60">
+        <v>4.11026655360017E+18</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>792</v>
+      </c>
+      <c r="F49" s="60">
+        <v>31.19</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H49" s="60" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I49" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J49" s="60" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K49" s="60" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L49" s="60" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M49" s="60">
+        <v>38778</v>
+      </c>
+      <c r="N49" s="60">
+        <v>33.556699999999999</v>
+      </c>
+      <c r="O49" s="60">
+        <v>-90.545100000000005</v>
+      </c>
+      <c r="P49" s="60">
+        <v>1686</v>
+      </c>
+      <c r="Q49" s="60" t="s">
+        <v>1100</v>
+      </c>
+      <c r="R49" s="61">
+        <v>31722</v>
+      </c>
+      <c r="S49" s="60" t="s">
+        <v>1101</v>
+      </c>
+      <c r="T49" s="60">
+        <v>1371817776</v>
+      </c>
+      <c r="U49" s="60">
+        <v>33.693106</v>
+      </c>
+      <c r="V49" s="60">
+        <v>-89.594744000000006</v>
+      </c>
+      <c r="W49" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" s="63">
+        <v>48</v>
+      </c>
+      <c r="B50" s="59">
+        <v>44003.520671296297</v>
+      </c>
+      <c r="C50" s="60">
+        <v>675990301623</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E50" s="60" t="s">
+        <v>825</v>
+      </c>
+      <c r="F50" s="60">
+        <v>4.91</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H50" s="60" t="s">
+        <v>811</v>
+      </c>
+      <c r="I50" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J50" s="60" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K50" s="60" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L50" s="60" t="s">
+        <v>989</v>
+      </c>
+      <c r="M50" s="60">
+        <v>7439</v>
+      </c>
+      <c r="N50" s="60">
+        <v>41.076700000000002</v>
+      </c>
+      <c r="O50" s="60">
+        <v>-74.598200000000006</v>
+      </c>
+      <c r="P50" s="60">
+        <v>2456</v>
+      </c>
+      <c r="Q50" s="60" t="s">
+        <v>1106</v>
+      </c>
+      <c r="R50" s="61">
+        <v>34406</v>
+      </c>
+      <c r="S50" s="60" t="s">
+        <v>1107</v>
+      </c>
+      <c r="T50" s="60">
+        <v>1371817786</v>
+      </c>
+      <c r="U50" s="60">
+        <v>41.061214</v>
+      </c>
+      <c r="V50" s="60">
+        <v>-73.997980999999996</v>
+      </c>
+      <c r="W50" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" s="63">
+        <v>49</v>
+      </c>
+      <c r="B51" s="59">
+        <v>44003.520787037036</v>
+      </c>
+      <c r="C51" s="60">
+        <v>377026671291680</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E51" s="60" t="s">
+        <v>766</v>
+      </c>
+      <c r="F51" s="60">
+        <v>5.36</v>
+      </c>
+      <c r="G51" s="60" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H51" s="60" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I51" s="60" t="s">
+        <v>759</v>
+      </c>
+      <c r="J51" s="60" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K51" s="60" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L51" s="60" t="s">
+        <v>1113</v>
+      </c>
+      <c r="M51" s="60">
+        <v>63665</v>
+      </c>
+      <c r="N51" s="60">
+        <v>37.327199999999998</v>
+      </c>
+      <c r="O51" s="60">
+        <v>-91.024299999999997</v>
+      </c>
+      <c r="P51" s="60">
+        <v>241</v>
+      </c>
+      <c r="Q51" s="60" t="s">
+        <v>1114</v>
+      </c>
+      <c r="R51" s="61">
+        <v>27329</v>
+      </c>
+      <c r="S51" s="60" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T51" s="60">
+        <v>1371817796</v>
+      </c>
+      <c r="U51" s="60">
+        <v>38.211238000000002</v>
+      </c>
+      <c r="V51" s="60">
+        <v>-90.421870999999996</v>
+      </c>
+      <c r="W51" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" s="63">
+        <v>50</v>
+      </c>
+      <c r="B52" s="59">
+        <v>44003.521053240744</v>
+      </c>
+      <c r="C52" s="60">
+        <v>6011934240159560</v>
+      </c>
+      <c r="D52" s="60" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>849</v>
+      </c>
+      <c r="F52" s="60">
+        <v>80.5</v>
+      </c>
+      <c r="G52" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H52" s="60" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I52" s="60" t="s">
+        <v>750</v>
+      </c>
+      <c r="J52" s="60" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K52" s="60" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L52" s="60" t="s">
+        <v>1121</v>
+      </c>
+      <c r="M52" s="60">
+        <v>4616</v>
+      </c>
+      <c r="N52" s="60">
+        <v>44.254100000000001</v>
+      </c>
+      <c r="O52" s="60">
+        <v>-68.5565</v>
+      </c>
+      <c r="P52" s="60">
+        <v>824</v>
+      </c>
+      <c r="Q52" s="60" t="s">
+        <v>1122</v>
+      </c>
+      <c r="R52" s="61">
+        <v>27335</v>
+      </c>
+      <c r="S52" s="60" t="s">
+        <v>1123</v>
+      </c>
+      <c r="T52" s="60">
+        <v>1371817819</v>
+      </c>
+      <c r="U52" s="60">
+        <v>44.959020000000002</v>
+      </c>
+      <c r="V52" s="60">
+        <v>-69.150254000000004</v>
+      </c>
+      <c r="W52" s="60">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581188DC-85A2-C343-BF65-34BF863645EF}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="49" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="27" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="27" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="27" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="27" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="27" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="27" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="27" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="49" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="27" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="27" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="67" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="49" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="27" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="27" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="27" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="49" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="66" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" s="27" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" s="27" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" s="27" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" s="67" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C49" s="67" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Beginner/Slides/Lec_3_4.xlsx
+++ b/Beginner/Slides/Lec_3_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE2453C-5947-F741-AF8A-E51CEDC1E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B7412E-8DE0-5F42-AB1C-45E7A53E447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="7" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="5" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -19,8 +19,6 @@
     <sheet name="Tables" sheetId="11" r:id="rId4"/>
     <sheet name="Project" sheetId="12" r:id="rId5"/>
     <sheet name="WHERE" sheetId="9" r:id="rId6"/>
-    <sheet name="fraudTrain" sheetId="14" r:id="rId7"/>
-    <sheet name="Data Types SQL SERVER" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="724">
   <si>
     <t>- 9年软件开发经验，擅长数据库、Python、AI</t>
   </si>
@@ -2589,1457 +2587,12 @@
   <si>
     <t>数据集</t>
   </si>
-  <si>
-    <t>trans_date_trans_time</t>
-  </si>
-  <si>
-    <t>cc_num</t>
-  </si>
-  <si>
-    <t>merchant</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>amt</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>city_pop</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>trans_num</t>
-  </si>
-  <si>
-    <t>unix_time</t>
-  </si>
-  <si>
-    <t>merch_lat</t>
-  </si>
-  <si>
-    <t>merch_long</t>
-  </si>
-  <si>
-    <t>is_fraud</t>
-  </si>
-  <si>
-    <t>fraud_Kirlin and Sons</t>
-  </si>
-  <si>
-    <t>personal_care</t>
-  </si>
-  <si>
-    <t>Jeff</t>
-  </si>
-  <si>
-    <t>Elliott</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>351 Darlene Green</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Mechanical engineer</t>
-  </si>
-  <si>
-    <t>2da90c7d74bd46a0caf3777415b3ebd3</t>
-  </si>
-  <si>
-    <t>fraud_Sporer-Keebler</t>
-  </si>
-  <si>
-    <t>Joanne</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>3638 Marsh Union</t>
-  </si>
-  <si>
-    <t>Altonah</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>Sales professional, IT</t>
-  </si>
-  <si>
-    <t>324cc204407e99f51b0d6ca0055005e7</t>
-  </si>
-  <si>
-    <t>fraud_Swaniawski, Nitzsche and Welch</t>
-  </si>
-  <si>
-    <t>health_fitness</t>
-  </si>
-  <si>
-    <t>Ashley</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>9333 Valentine Point</t>
-  </si>
-  <si>
-    <t>Bellmore</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>Librarian, public</t>
-  </si>
-  <si>
-    <t>c81755dbbbea9d5c77f094348a7579be</t>
-  </si>
-  <si>
-    <t>fraud_Haley Group</t>
-  </si>
-  <si>
-    <t>misc_pos</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>32941 Krystal Mill Apt. 552</t>
-  </si>
-  <si>
-    <t>Titusville</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Set designer</t>
-  </si>
-  <si>
-    <t>2159175b9efe66dc301f149d3d5abf8c</t>
-  </si>
-  <si>
-    <t>fraud_Johnston-Casper</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>Massey</t>
-  </si>
-  <si>
-    <t>5783 Evan Roads Apt. 465</t>
-  </si>
-  <si>
-    <t>Falmouth</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>Furniture designer</t>
-  </si>
-  <si>
-    <t>57ff021bd3f328f8738bb535c302a31b</t>
-  </si>
-  <si>
-    <t>fraud_Daugherty LLC</t>
-  </si>
-  <si>
-    <t>kids_pets</t>
-  </si>
-  <si>
-    <t>Danielle</t>
-  </si>
-  <si>
-    <t>Evans</t>
-  </si>
-  <si>
-    <t>76752 David Lodge Apt. 064</t>
-  </si>
-  <si>
-    <t>Breesport</t>
-  </si>
-  <si>
-    <t>Psychotherapist</t>
-  </si>
-  <si>
-    <t>798db04aaceb4febd084f1a7c404da93</t>
-  </si>
-  <si>
-    <t>fraud_Romaguera Ltd</t>
-  </si>
-  <si>
-    <t>Kayla</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>010 Weaver Land</t>
-  </si>
-  <si>
-    <t>Carlotta</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Therapist, occupational</t>
-  </si>
-  <si>
-    <t>17003d7ce534440eadb10c4750e020e5</t>
-  </si>
-  <si>
-    <t>fraud_Reichel LLC</t>
-  </si>
-  <si>
-    <t>Paula</t>
-  </si>
-  <si>
-    <t>Estrada</t>
-  </si>
-  <si>
-    <t>350 Stacy Glens</t>
-  </si>
-  <si>
-    <t>Spencer</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Development worker, international aid</t>
-  </si>
-  <si>
-    <t>8be473af4f05fc6146ea55ace73e7ca2</t>
-  </si>
-  <si>
-    <t>fraud_Goyette, Howell and Collier</t>
-  </si>
-  <si>
-    <t>shopping_pos</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Everett</t>
-  </si>
-  <si>
-    <t>4138 David Fall</t>
-  </si>
-  <si>
-    <t>Morrisdale</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Advice worker</t>
-  </si>
-  <si>
-    <t>71a1da150d1ce510193d7622e08e784e</t>
-  </si>
-  <si>
-    <t>fraud_Kilback Group</t>
-  </si>
-  <si>
-    <t>food_dining</t>
-  </si>
-  <si>
-    <t>Obrien</t>
-  </si>
-  <si>
-    <t>7921 Robert Port Suite 343</t>
-  </si>
-  <si>
-    <t>Prairie Hill</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>Barrister</t>
-  </si>
-  <si>
-    <t>a7915132c7c4240996ba03a47f81e3bd</t>
-  </si>
-  <si>
-    <t>fraud_Feil, Hilpert and Koss</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Jenkins</t>
-  </si>
-  <si>
-    <t>43235 Mckenzie Views Apt. 837</t>
-  </si>
-  <si>
-    <t>Westport</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Pensions consultant</t>
-  </si>
-  <si>
-    <t>3b8e4d02d9e1a3bf97cf449eb0317f2c</t>
-  </si>
-  <si>
-    <t>fraud_Gottlieb Group</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>Fisher</t>
-  </si>
-  <si>
-    <t>45654 Hess Rest</t>
-  </si>
-  <si>
-    <t>Fort Washakie</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-  <si>
-    <t>Freight forwarder</t>
-  </si>
-  <si>
-    <t>fa3071565d94fb286cb0ed398c6d61d3</t>
-  </si>
-  <si>
-    <t>fraud_Connelly-Carter</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>Melissa</t>
-  </si>
-  <si>
-    <t>Meza</t>
-  </si>
-  <si>
-    <t>244 Abbott Parkway</t>
-  </si>
-  <si>
-    <t>Loxahatchee</t>
-  </si>
-  <si>
-    <t>Paramedic</t>
-  </si>
-  <si>
-    <t>a21cb82e7d8fdbf4062f15c9422a4ca6</t>
-  </si>
-  <si>
-    <t>fraud_Bechtelar-Rippin</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Thompson</t>
-  </si>
-  <si>
-    <t>977 Rita Grove Apt. 000</t>
-  </si>
-  <si>
-    <t>Rock Tavern</t>
-  </si>
-  <si>
-    <t>Building surveyor</t>
-  </si>
-  <si>
-    <t>d0d2b5cca5ae19e0a07dc7ef5d51e59e</t>
-  </si>
-  <si>
-    <t>fraud_Lubowitz-Walter</t>
-  </si>
-  <si>
-    <t>Whitney</t>
-  </si>
-  <si>
-    <t>4038 Smith Avenue</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Materials engineer</t>
-  </si>
-  <si>
-    <t>61dca41a9728ea5fd6db99efd59768f8</t>
-  </si>
-  <si>
-    <t>fraud_Welch, Rath and Koepp</t>
-  </si>
-  <si>
-    <t>entertainment</t>
-  </si>
-  <si>
-    <t>Christine</t>
-  </si>
-  <si>
-    <t>Leblanc</t>
-  </si>
-  <si>
-    <t>5097 Jodi Vista Suite 811</t>
-  </si>
-  <si>
-    <t>Deltona</t>
-  </si>
-  <si>
-    <t>Commercial horticulturist</t>
-  </si>
-  <si>
-    <t>ea11379e8aa1b08d584149d65770faee</t>
-  </si>
-  <si>
-    <t>fraud_Hickle Group</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Moreno</t>
-  </si>
-  <si>
-    <t>838 Franklin Prairie Apt. 902</t>
-  </si>
-  <si>
-    <t>Key West</t>
-  </si>
-  <si>
-    <t>Town planner</t>
-  </si>
-  <si>
-    <t>00da72495351ce6bd9ecb75d51cca89b</t>
-  </si>
-  <si>
-    <t>fraud_Lang, Towne and Schuppe</t>
-  </si>
-  <si>
-    <t>Lauren</t>
-  </si>
-  <si>
-    <t>Torres</t>
-  </si>
-  <si>
-    <t>03030 White Lakes</t>
-  </si>
-  <si>
-    <t>Grandview</t>
-  </si>
-  <si>
-    <t>Radiographer, therapeutic</t>
-  </si>
-  <si>
-    <t>67288141e8206f6f49706c1cef5b75d3</t>
-  </si>
-  <si>
-    <t>fraud_Morissette LLC</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>65417 Walsh Radial Suite 691</t>
-  </si>
-  <si>
-    <t>Saint Amant</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>Surveyor, rural practice</t>
-  </si>
-  <si>
-    <t>71bb6ee81f9af4d2a38bf6af2b614708</t>
-  </si>
-  <si>
-    <t>fraud_Prosacco LLC</t>
-  </si>
-  <si>
-    <t>Gina</t>
-  </si>
-  <si>
-    <t>Grimes</t>
-  </si>
-  <si>
-    <t>444 Robert Mews</t>
-  </si>
-  <si>
-    <t>Clarks Mills</t>
-  </si>
-  <si>
-    <t>Energy manager</t>
-  </si>
-  <si>
-    <t>2d7640ea4f3bcd520a3c33200c393dd8</t>
-  </si>
-  <si>
-    <t>fraud_Corwin-Romaguera</t>
-  </si>
-  <si>
-    <t>Shannon</t>
-  </si>
-  <si>
-    <t>9345 Spencer Junctions Suite 183</t>
-  </si>
-  <si>
-    <t>Alpharetta</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>Prison officer</t>
-  </si>
-  <si>
-    <t>1650f4f052cc85af7bd417fa17d59ac5</t>
-  </si>
-  <si>
-    <t>Stacy</t>
-  </si>
-  <si>
-    <t>Villegas</t>
-  </si>
-  <si>
-    <t>20581 Pena Walks</t>
-  </si>
-  <si>
-    <t>Colorado Springs</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Museum/gallery exhibitions officer</t>
-  </si>
-  <si>
-    <t>b14cd1ccf78a409c664bf071872a4384</t>
-  </si>
-  <si>
-    <t>fraud_Tillman LLC</t>
-  </si>
-  <si>
-    <t>Christopher</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>28711 Kristine Junction Suite 309</t>
-  </si>
-  <si>
-    <t>Greenville</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>Media planner</t>
-  </si>
-  <si>
-    <t>d8edb8556aad03a15e2d5702948a47fb</t>
-  </si>
-  <si>
-    <t>fraud_Veum-Koelpin</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Conley</t>
-  </si>
-  <si>
-    <t>181 Moreno Light Apt. 215</t>
-  </si>
-  <si>
-    <t>Tomahawk</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>Seismic interpreter</t>
-  </si>
-  <si>
-    <t>79f931ffc97dfe9966cd7d09613fe308</t>
-  </si>
-  <si>
-    <t>fraud_Watsica, Haag and Considine</t>
-  </si>
-  <si>
-    <t>Kristen</t>
-  </si>
-  <si>
-    <t>Hanson</t>
-  </si>
-  <si>
-    <t>26544 Andrea Glen</t>
-  </si>
-  <si>
-    <t>Goodrich</t>
-  </si>
-  <si>
-    <t>Learning disability nurse</t>
-  </si>
-  <si>
-    <t>df862b772cfb9ca0d621c259df11a652</t>
-  </si>
-  <si>
-    <t>fraud_Leannon-Ward</t>
-  </si>
-  <si>
-    <t>Terri</t>
-  </si>
-  <si>
-    <t>Bailey</t>
-  </si>
-  <si>
-    <t>508 Erin Mount</t>
-  </si>
-  <si>
-    <t>Daly City</t>
-  </si>
-  <si>
-    <t>Buyer, industrial</t>
-  </si>
-  <si>
-    <t>3dfec697170c9155ba76464e03179724</t>
-  </si>
-  <si>
-    <t>fraud_Hintz, Bauch and Smith</t>
-  </si>
-  <si>
-    <t>50843 Vincent Mission</t>
-  </si>
-  <si>
-    <t>South Londonderry</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>Scientific laboratory technician</t>
-  </si>
-  <si>
-    <t>6c58a441ceeb7dc623316c6a68158d29</t>
-  </si>
-  <si>
-    <t>fraud_Labadie LLC</t>
-  </si>
-  <si>
-    <t>Cody</t>
-  </si>
-  <si>
-    <t>Hooper</t>
-  </si>
-  <si>
-    <t>7233 John Parks</t>
-  </si>
-  <si>
-    <t>Lepanto</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Counselling psychologist</t>
-  </si>
-  <si>
-    <t>340ad023c64e8b7d2164ca3e53620186</t>
-  </si>
-  <si>
-    <t>fraud_Eichmann, Hayes and Treutel</t>
-  </si>
-  <si>
-    <t>Kathleen</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>659 Nicole Cove Suite 560</t>
-  </si>
-  <si>
-    <t>New Waverly</t>
-  </si>
-  <si>
-    <t>Scientist, biomedical</t>
-  </si>
-  <si>
-    <t>9662b7fede7772f80331fd0abbc7909d</t>
-  </si>
-  <si>
-    <t>fraud_Leffler-Goldner</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Schmidt</t>
-  </si>
-  <si>
-    <t>022 Moore Island</t>
-  </si>
-  <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>Audiological scientist</t>
-  </si>
-  <si>
-    <t>efbea5fb8c846843c13f224379ba249e</t>
-  </si>
-  <si>
-    <t>fraud_Kautzer and Sons</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>5537 Jessica Plaza</t>
-  </si>
-  <si>
-    <t>Pewee Valley</t>
-  </si>
-  <si>
-    <t>Stage manager</t>
-  </si>
-  <si>
-    <t>3f5587dd43e45910ba221bc3a4dfdd3f</t>
-  </si>
-  <si>
-    <t>fraud_Ernser-Feest</t>
-  </si>
-  <si>
-    <t>Wall</t>
-  </si>
-  <si>
-    <t>2481 Mills Lock</t>
-  </si>
-  <si>
-    <t>Plainfield</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>Leisure centre manager</t>
-  </si>
-  <si>
-    <t>bc7699cb759a26aa5dd58d4124febf8d</t>
-  </si>
-  <si>
-    <t>fraud_Zemlak, Tillman and Cremin</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Cain</t>
-  </si>
-  <si>
-    <t>384 Newman Forks Apt. 370</t>
-  </si>
-  <si>
-    <t>Belmond</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>Community pharmacist</t>
-  </si>
-  <si>
-    <t>cd10a7d08e9262899109c06a8e180302</t>
-  </si>
-  <si>
-    <t>fraud_Nienow PLC</t>
-  </si>
-  <si>
-    <t>Mackenzie</t>
-  </si>
-  <si>
-    <t>Salazar</t>
-  </si>
-  <si>
-    <t>982 Melissa Lock</t>
-  </si>
-  <si>
-    <t>Bagley</t>
-  </si>
-  <si>
-    <t>Risk analyst</t>
-  </si>
-  <si>
-    <t>902facfd912019350d63a3539990638e</t>
-  </si>
-  <si>
-    <t>fraud_Lynch-Wisozk</t>
-  </si>
-  <si>
-    <t>Krystal</t>
-  </si>
-  <si>
-    <t>Gamble</t>
-  </si>
-  <si>
-    <t>47152 Clayton Burg</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Clinical research associate</t>
-  </si>
-  <si>
-    <t>0ad27a9cf7fcb1e0774a86709cb248f1</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Reese</t>
-  </si>
-  <si>
-    <t>26975 Richardson Mills Apt. 402</t>
-  </si>
-  <si>
-    <t>Sontag</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Librarian, academic</t>
-  </si>
-  <si>
-    <t>5a13c85ba5d478ee2bed550c6ab71c1e</t>
-  </si>
-  <si>
-    <t>fraud_Schiller Ltd</t>
-  </si>
-  <si>
-    <t>Carrillo</t>
-  </si>
-  <si>
-    <t>17547 Stephen Turnpike Apt. 846</t>
-  </si>
-  <si>
-    <t>Hawthorne</t>
-  </si>
-  <si>
-    <t>Editor, magazine features</t>
-  </si>
-  <si>
-    <t>e91e10ae4ad160e1aee1054ea96de9ba</t>
-  </si>
-  <si>
-    <t>fraud_Hoppe-Parisian</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Dominguez</t>
-  </si>
-  <si>
-    <t>06393 Nancy Parkways Suite 855</t>
-  </si>
-  <si>
-    <t>Gadsden</t>
-  </si>
-  <si>
-    <t>Ceramics designer</t>
-  </si>
-  <si>
-    <t>cc3733b9ecedc1a7b0053bd0647cdaaa</t>
-  </si>
-  <si>
-    <t>Johnston</t>
-  </si>
-  <si>
-    <t>16285 Jessica Lights</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Musician</t>
-  </si>
-  <si>
-    <t>60a92b482a0058d2769c1ab10c55cb25</t>
-  </si>
-  <si>
-    <t>fraud_Brown-Greenholt</t>
-  </si>
-  <si>
-    <t>Zachary</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>69252 Oconnor Alley Apt. 153</t>
-  </si>
-  <si>
-    <t>Ollie</t>
-  </si>
-  <si>
-    <t>fc72537e1af1f675c8713aa1a36f3c53</t>
-  </si>
-  <si>
-    <t>fraud_Reilly LLC</t>
-  </si>
-  <si>
-    <t>Jenna</t>
-  </si>
-  <si>
-    <t>Brooks</t>
-  </si>
-  <si>
-    <t>50872 Alex Plain Suite 088</t>
-  </si>
-  <si>
-    <t>Baton Rouge</t>
-  </si>
-  <si>
-    <t>Designer, furniture</t>
-  </si>
-  <si>
-    <t>fb32dada5c853d60e84278eaae707ee2</t>
-  </si>
-  <si>
-    <t>fraud_Moore, Williamson and Emmerich</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Mcgee</t>
-  </si>
-  <si>
-    <t>4130 Tiffany Glen Apt. 562</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
-    <t>Exhibition designer</t>
-  </si>
-  <si>
-    <t>4ffb7174155b877c4d18d1d86e71e813</t>
-  </si>
-  <si>
-    <t>fraud_Rau-Robel</t>
-  </si>
-  <si>
-    <t>Wolfe</t>
-  </si>
-  <si>
-    <t>81261 Garcia Underpass Suite 741</t>
-  </si>
-  <si>
-    <t>Southfield</t>
-  </si>
-  <si>
-    <t>Engineer, automotive</t>
-  </si>
-  <si>
-    <t>14dd61cec0b9be2d29aff70f605964ab</t>
-  </si>
-  <si>
-    <t>fraud_Fadel, Mertz and Rippin</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>13108 Jennifer Passage</t>
-  </si>
-  <si>
-    <t>Mc Cracken</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>Film/video editor</t>
-  </si>
-  <si>
-    <t>822cd909aeb6a351637b5f9ba9866f19</t>
-  </si>
-  <si>
-    <t>fraud_Crona and Sons</t>
-  </si>
-  <si>
-    <t>Dale</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>25036 Contreras Turnpike Suite 270</t>
-  </si>
-  <si>
-    <t>Purmela</t>
-  </si>
-  <si>
-    <t>Web designer</t>
-  </si>
-  <si>
-    <t>5f947d9974aca9e08265898e26db1583</t>
-  </si>
-  <si>
-    <t>fraud_Bahringer, Bergnaum and Quitzon</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Lin</t>
-  </si>
-  <si>
-    <t>908 Brooks Brook</t>
-  </si>
-  <si>
-    <t>Lomax</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>Environmental consultant</t>
-  </si>
-  <si>
-    <t>4326b0d0ee56d328d40269e79a68ea30</t>
-  </si>
-  <si>
-    <t>fraud_Koss, Hansen and Lueilwitz</t>
-  </si>
-  <si>
-    <t>Jeffrey</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>8617 Holmes Terrace Suite 651</t>
-  </si>
-  <si>
-    <t>Tuscarora</t>
-  </si>
-  <si>
-    <t>Production assistant, television</t>
-  </si>
-  <si>
-    <t>ce73a1c97d13e160112f3142781300ac</t>
-  </si>
-  <si>
-    <t>fraud_Yost, Schamberger and Windler</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>Schwartz</t>
-  </si>
-  <si>
-    <t>3789 Mark Walks</t>
-  </si>
-  <si>
-    <t>Sunflower</t>
-  </si>
-  <si>
-    <t>Education officer, community</t>
-  </si>
-  <si>
-    <t>e7b73a4e22392a7800afdca8c230878f</t>
-  </si>
-  <si>
-    <t>fraud_Armstrong, Walter and Gottlieb</t>
-  </si>
-  <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>6682 Green Forks</t>
-  </si>
-  <si>
-    <t>Ogdensburg</t>
-  </si>
-  <si>
-    <t>Senior tax professional/tax inspector</t>
-  </si>
-  <si>
-    <t>def4f0ac7d3e4f02f33462a25632ef6c</t>
-  </si>
-  <si>
-    <t>fraud_Friesen Ltd</t>
-  </si>
-  <si>
-    <t>Jackie</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>1898 Parker Fork Apt. 057</t>
-  </si>
-  <si>
-    <t>Redford</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>Investment analyst</t>
-  </si>
-  <si>
-    <t>0920f8e36028f404b48385209a995113</t>
-  </si>
-  <si>
-    <t>fraud_Champlin and Sons</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Cohen</t>
-  </si>
-  <si>
-    <t>426 Mark Ports</t>
-  </si>
-  <si>
-    <t>Brooklin</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Loss adjuster, chartered</t>
-  </si>
-  <si>
-    <t>c64caafcb8aaa4608fdba9f1ab53cbcc</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>英文释义</t>
-  </si>
-  <si>
-    <t>中文释义</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>Integer from -2,147,483,648 to 2,147,483,647</t>
-  </si>
-  <si>
-    <t>整数类型，范围较大，常用于主键或计数器</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>Larger integer values (8 bytes)</t>
-  </si>
-  <si>
-    <t>超大整数，适合大数据场景</t>
-  </si>
-  <si>
-    <t>SMALLINT</t>
-  </si>
-  <si>
-    <t>Small integer (-32,768 to 32,767)</t>
-  </si>
-  <si>
-    <t>较小整数，节省空间</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
-    <t>Very small integer (0 to 255)</t>
-  </si>
-  <si>
-    <t>最小整数类型，适合年龄、等级等小数值</t>
-  </si>
-  <si>
-    <t>DECIMAL(p,s) / NUMERIC(p,s)</t>
-  </si>
-  <si>
-    <t>Fixed precision and scale</t>
-  </si>
-  <si>
-    <t>精确小数，常用于财务数据</t>
-  </si>
-  <si>
-    <t>FLOAT</t>
-  </si>
-  <si>
-    <t>Approximate numeric (floating point)</t>
-  </si>
-  <si>
-    <t>双精度浮点数，精度可能有误差</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>Approximate numeric (single precision)</t>
-  </si>
-  <si>
-    <t>单精度浮点数，占空间更小</t>
-  </si>
-  <si>
-    <t>CHAR(n)</t>
-  </si>
-  <si>
-    <t>Fixed-length non-Unicode string</t>
-  </si>
-  <si>
-    <t>固定长度字符串，占用固定空间</t>
-  </si>
-  <si>
-    <t>VARCHAR(n)</t>
-  </si>
-  <si>
-    <t>Variable-length non-Unicode string</t>
-  </si>
-  <si>
-    <t>可变长度字符串，节省空间</t>
-  </si>
-  <si>
-    <t>Large non-Unicode text (deprecated)</t>
-  </si>
-  <si>
-    <t>大文本字段（已废弃）</t>
-  </si>
-  <si>
-    <t>NCHAR(n)</t>
-  </si>
-  <si>
-    <t>Fixed-length Unicode string</t>
-  </si>
-  <si>
-    <t>固定长度 Unicode 字符串（支持多语言）</t>
-  </si>
-  <si>
-    <t>NVARCHAR(n)</t>
-  </si>
-  <si>
-    <t>Variable-length Unicode string</t>
-  </si>
-  <si>
-    <t>NTEXT</t>
-  </si>
-  <si>
-    <t>Large Unicode text (deprecated)</t>
-  </si>
-  <si>
-    <t>大 Unicode 文本（已废弃）</t>
-  </si>
-  <si>
-    <t>Date only (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>仅日期</t>
-  </si>
-  <si>
-    <t>Time only (HH:MM:SS)</t>
-  </si>
-  <si>
-    <t>仅时间</t>
-  </si>
-  <si>
-    <t>Date and time (accurate to 3 ms)</t>
-  </si>
-  <si>
-    <t>日期时间，精度至毫秒</t>
-  </si>
-  <si>
-    <t>SMALLDATETIME</t>
-  </si>
-  <si>
-    <t>Date and time (accurate to minute)</t>
-  </si>
-  <si>
-    <t>精度较低的日期时间</t>
-  </si>
-  <si>
-    <t>DATETIME2</t>
-  </si>
-  <si>
-    <t>Extended DATETIME, higher precision</t>
-  </si>
-  <si>
-    <t>DATETIMEOFFSET</t>
-  </si>
-  <si>
-    <t>Date with time zone info</t>
-  </si>
-  <si>
-    <t>带时区偏移的日期时间</t>
-  </si>
-  <si>
-    <t>BIT</t>
-  </si>
-  <si>
-    <t>Boolean (0 = False, 1 = True)</t>
-  </si>
-  <si>
-    <t>布尔值，0 表示假，1 表示真</t>
-  </si>
-  <si>
-    <t>UNIQUEIDENTIFIER</t>
-  </si>
-  <si>
-    <t>Globally unique identifier (GUID)</t>
-  </si>
-  <si>
-    <t>全球唯一标识符，常用于主键</t>
-  </si>
-  <si>
-    <t>BINARY(n)</t>
-  </si>
-  <si>
-    <t>Fixed-length binary data</t>
-  </si>
-  <si>
-    <t>固定长度二进制数据</t>
-  </si>
-  <si>
-    <t>VARBINARY(n)</t>
-  </si>
-  <si>
-    <t>Variable-length binary data</t>
-  </si>
-  <si>
-    <t>可变长度二进制数据</t>
-  </si>
-  <si>
-    <t>IMAGE</t>
-  </si>
-  <si>
-    <t>Binary for images/files (deprecated)</t>
-  </si>
-  <si>
-    <t>图像或文件二进制数据（已废弃）</t>
-  </si>
-  <si>
-    <t>数值类型（Numeric Data Types）</t>
-  </si>
-  <si>
-    <t>字符串类型（String / Character Types）</t>
-  </si>
-  <si>
-    <t>日期时间类型（Date and Time Types）</t>
-  </si>
-  <si>
-    <t>布尔值和其他类型（Boolean and Miscellaneous Types）</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">可变长度 Unicode 字符串 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>推荐用于中文等多语言文本</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">高精度日期时间  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>推荐使用</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="48">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4296,40 +2849,8 @@
       <color theme="10"/>
       <name val="Kai Regular"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Kai Regular"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4369,12 +2890,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4453,7 +2968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4532,23 +3047,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4875,1695 +3373,6 @@
         </xdr:pic>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D074B21-FA39-D222-8C5F-08FE144284A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="88900" y="3327400"/>
-          <a:ext cx="6070600" cy="7404100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Training set for Credit Card Transactions</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>index</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - Unique Identifier for each row</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>trans_date_trans_time </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- Transaction DateTime</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>cc_num </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- Credit Card Number of Customer</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>merchant</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - Merchant Name</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>category</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - Category of Merchant</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>amt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - Amount of Transaction</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>first</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - First Name of Credit Card Holder</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>last</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - Last Name of Credit Card Holder</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>gender</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - Gender of Credit Card Holder</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>street</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - Street Address of Credit Card Holder</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>city</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - City of Credit Card Holder</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>state</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - State of Credit Card Holder</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>zip</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - Zip of Credit Card Holder</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>lat</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - Latitude Location of Credit Card Holder</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>long</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - Longitude Location of Credit Card Holder</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>city_pop </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- Credit Card Holder's City Population</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>job</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - Job of Credit Card Holder</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>dob</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> - Date of Birth of Credit Card Holder</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>trans_num </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- Transaction Number</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>unix_time </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- UNIX Time of transaction</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>merch_lat </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- Latitude Location of Merchant</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>merch_long </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- Longitude Location of Merchant</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- is_fraud </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- Fraud Flag &lt;--- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Target Class</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3140F49-8BBB-CC40-B730-1BC3F0AAED8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13855700" y="254000"/>
-          <a:ext cx="6832600" cy="8458200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>CREATE TABLE Students (</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>    student_id INT PRIMARY KEY,          -- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>学号（整数主键）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>name NVARCHAR(50),                   -- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>姓名（支持中英文）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>age TINYINT CHECK (age &gt;= 0),        -- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>年龄（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>0 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>到 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>255</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>gender NVARCHAR(10),                 -- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>性别</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>birth_date DATE,                     -- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>出生日期</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>is_active BIT                        -- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>是否在读（布尔值）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>-- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>创建一个学生表</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Create a student table）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>CREATE TABLE </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Students </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>    student_id </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>INT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> PRIMARY KEY,  </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>    name </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>NVARCHAR(50) </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>NOT NULL,     </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>    age </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>INT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>CHECK (age &gt;= 0),         </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>    gender </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>NVARCHAR(10)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>            </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>    department_id </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>INT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>           </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>-- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>插入一条学生数据（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Insert one student record）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>INSERT INTO </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Students</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>student_id, name, age, gender, department_id)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>VALUES</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>(1, N'Alice', 22, N'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>女</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>', 101);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>-- </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>插入多条学生数据（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Insert multiple student records）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>INSERT INTO Students (student_id, name, age, gender, department_id)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>VALUES </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>(2, N'Bob', 24, N'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>男</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>', 102),</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>(3, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>N'Cathy', 20, N'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>女</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>', </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>NULL),</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>(4, N'David', 25, N'</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>男</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>', 101);</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:ea typeface="Kai" pitchFamily="2" charset="-122"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7156,7 +3965,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="58" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7170,7 +3979,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="69"/>
+      <c r="D29" s="58"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -7182,7 +3991,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -7194,7 +4003,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="69"/>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -7206,7 +4015,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="69"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -7218,7 +4027,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="69"/>
+      <c r="D33" s="58"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -7230,7 +4039,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="69"/>
+      <c r="D34" s="58"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -7242,7 +4051,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="69"/>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -7254,7 +4063,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="69"/>
+      <c r="D36" s="58"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -7266,7 +4075,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="69"/>
+      <c r="D37" s="58"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -7278,7 +4087,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="69"/>
+      <c r="D38" s="58"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -7290,7 +4099,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="69"/>
+      <c r="D39" s="58"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -7302,7 +4111,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="69"/>
+      <c r="D40" s="58"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -7314,7 +4123,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="69"/>
+      <c r="D41" s="58"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -7326,7 +4135,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="69"/>
+      <c r="D42" s="58"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -7338,7 +4147,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="69"/>
+      <c r="D43" s="58"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -7350,7 +4159,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="69"/>
+      <c r="D44" s="58"/>
     </row>
     <row r="52" spans="1:4" ht="27">
       <c r="A52" s="3" t="s">
@@ -7703,10 +4512,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="D46" s="70"/>
+      <c r="D46" s="59"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="23" t="s">
@@ -7923,7 +4732,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="63" t="s">
         <v>205</v>
       </c>
       <c r="C16" s="50" t="s">
@@ -7937,7 +4746,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="75"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="51" t="s">
         <v>491</v>
       </c>
@@ -7949,7 +4758,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="63" t="s">
         <v>210</v>
       </c>
       <c r="C18" s="50" t="s">
@@ -7963,7 +4772,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="75"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="50" t="s">
         <v>214</v>
       </c>
@@ -7975,7 +4784,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="63" t="s">
         <v>217</v>
       </c>
       <c r="C20" s="50" t="s">
@@ -7989,7 +4798,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="75"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="50" t="s">
         <v>221</v>
       </c>
@@ -8029,7 +4838,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="63" t="s">
         <v>232</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -8043,7 +4852,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="76"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="27" t="s">
         <v>234</v>
       </c>
@@ -8055,7 +4864,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="75"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="27" t="s">
         <v>237</v>
       </c>
@@ -8095,7 +4904,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="60" t="s">
         <v>245</v>
       </c>
       <c r="C35" s="50" t="s">
@@ -8109,7 +4918,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="72"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="50" t="s">
         <v>248</v>
       </c>
@@ -8121,7 +4930,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="72"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="50" t="s">
         <v>610</v>
       </c>
@@ -8133,7 +4942,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="72"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="50" t="s">
         <v>253</v>
       </c>
@@ -8145,7 +4954,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="72"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="50" t="s">
         <v>255</v>
       </c>
@@ -8157,7 +4966,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="73"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="50" t="s">
         <v>257</v>
       </c>
@@ -8169,7 +4978,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="60" t="s">
         <v>260</v>
       </c>
       <c r="C41" s="50" t="s">
@@ -8183,7 +4992,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="72"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="50" t="s">
         <v>264</v>
       </c>
@@ -8195,7 +5004,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="72"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="52" t="s">
         <v>612</v>
       </c>
@@ -8210,7 +5019,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="72"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="50" t="s">
         <v>611</v>
       </c>
@@ -8222,7 +5031,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="72"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="50" t="s">
         <v>269</v>
       </c>
@@ -8237,7 +5046,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="73"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="50" t="s">
         <v>271</v>
       </c>
@@ -8250,7 +5059,7 @@
       <c r="L46" s="48"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="60" t="s">
         <v>273</v>
       </c>
       <c r="C47" s="53" t="s">
@@ -8267,7 +5076,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="72"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="53" t="s">
         <v>277</v>
       </c>
@@ -8280,7 +5089,7 @@
       <c r="L48" s="48"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="72"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="53" t="s">
         <v>280</v>
       </c>
@@ -8295,7 +5104,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="72"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="53" t="s">
         <v>283</v>
       </c>
@@ -8308,7 +5117,7 @@
       <c r="L50" s="48"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="72"/>
+      <c r="B51" s="61"/>
       <c r="C51" s="53" t="s">
         <v>286</v>
       </c>
@@ -8323,7 +5132,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="73"/>
+      <c r="B52" s="62"/>
       <c r="C52" s="53" t="s">
         <v>289</v>
       </c>
@@ -8335,7 +5144,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="60" t="s">
         <v>292</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -8349,7 +5158,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="72"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="27" t="s">
         <v>296</v>
       </c>
@@ -8361,7 +5170,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="72"/>
+      <c r="B55" s="61"/>
       <c r="C55" s="27" t="s">
         <v>299</v>
       </c>
@@ -8373,7 +5182,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="72"/>
+      <c r="B56" s="61"/>
       <c r="C56" s="27" t="s">
         <v>302</v>
       </c>
@@ -8385,7 +5194,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="73"/>
+      <c r="B57" s="62"/>
       <c r="C57" s="27" t="s">
         <v>305</v>
       </c>
@@ -8397,7 +5206,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="60" t="s">
         <v>308</v>
       </c>
       <c r="C58" s="27" t="s">
@@ -8411,7 +5220,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="72"/>
+      <c r="B59" s="61"/>
       <c r="C59" s="27" t="s">
         <v>312</v>
       </c>
@@ -8423,7 +5232,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="72"/>
+      <c r="B60" s="61"/>
       <c r="C60" s="27" t="s">
         <v>315</v>
       </c>
@@ -8435,7 +5244,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="73"/>
+      <c r="B61" s="62"/>
       <c r="C61" s="27" t="s">
         <v>318</v>
       </c>
@@ -9372,7 +6181,7 @@
   </sheetPr>
   <dimension ref="A1:AH176"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -11016,4076 +7825,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8CB2F9-EDA2-5341-8FFE-EC6B38FDF7FF}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:W52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="19"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="58"/>
-    <col min="4" max="4" width="40" style="58" customWidth="1"/>
-    <col min="5" max="16384" width="25.1640625" style="58"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" s="65" customFormat="1" ht="38" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>724</v>
-      </c>
-      <c r="C1" s="64" t="s">
-        <v>725</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>726</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>727</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>728</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>729</v>
-      </c>
-      <c r="H1" s="64" t="s">
-        <v>730</v>
-      </c>
-      <c r="I1" s="64" t="s">
-        <v>731</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>732</v>
-      </c>
-      <c r="K1" s="64" t="s">
-        <v>733</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>734</v>
-      </c>
-      <c r="M1" s="64" t="s">
-        <v>735</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>736</v>
-      </c>
-      <c r="O1" s="64" t="s">
-        <v>737</v>
-      </c>
-      <c r="P1" s="64" t="s">
-        <v>738</v>
-      </c>
-      <c r="Q1" s="64" t="s">
-        <v>739</v>
-      </c>
-      <c r="R1" s="64" t="s">
-        <v>740</v>
-      </c>
-      <c r="S1" s="64" t="s">
-        <v>741</v>
-      </c>
-      <c r="T1" s="64" t="s">
-        <v>742</v>
-      </c>
-      <c r="U1" s="64" t="s">
-        <v>743</v>
-      </c>
-      <c r="V1" s="64" t="s">
-        <v>744</v>
-      </c>
-      <c r="W1" s="68" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="63">
-        <v>0</v>
-      </c>
-      <c r="B2" s="59">
-        <v>44003.510011574072</v>
-      </c>
-      <c r="C2" s="60">
-        <v>2291163933867240</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>746</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>747</v>
-      </c>
-      <c r="F2" s="60">
-        <v>2.86</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>748</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>749</v>
-      </c>
-      <c r="I2" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J2" s="60" t="s">
-        <v>751</v>
-      </c>
-      <c r="K2" s="60" t="s">
-        <v>752</v>
-      </c>
-      <c r="L2" s="60" t="s">
-        <v>753</v>
-      </c>
-      <c r="M2" s="60">
-        <v>29209</v>
-      </c>
-      <c r="N2" s="60">
-        <v>33.965899999999998</v>
-      </c>
-      <c r="O2" s="60">
-        <v>-80.935500000000005</v>
-      </c>
-      <c r="P2" s="60">
-        <v>333497</v>
-      </c>
-      <c r="Q2" s="60" t="s">
-        <v>754</v>
-      </c>
-      <c r="R2" s="61">
-        <v>24916</v>
-      </c>
-      <c r="S2" s="60" t="s">
-        <v>755</v>
-      </c>
-      <c r="T2" s="60">
-        <v>1371816865</v>
-      </c>
-      <c r="U2" s="60">
-        <v>33.986390999999998</v>
-      </c>
-      <c r="V2" s="60">
-        <v>-81.200714000000005</v>
-      </c>
-      <c r="W2" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="63">
-        <v>1</v>
-      </c>
-      <c r="B3" s="59">
-        <v>44003.510104166664</v>
-      </c>
-      <c r="C3" s="60">
-        <v>3573030041201290</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>756</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>747</v>
-      </c>
-      <c r="F3" s="60">
-        <v>29.84</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>757</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>758</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>760</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>761</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>762</v>
-      </c>
-      <c r="M3" s="60">
-        <v>84002</v>
-      </c>
-      <c r="N3" s="60">
-        <v>40.320700000000002</v>
-      </c>
-      <c r="O3" s="60">
-        <v>-110.43600000000001</v>
-      </c>
-      <c r="P3" s="60">
-        <v>302</v>
-      </c>
-      <c r="Q3" s="60" t="s">
-        <v>763</v>
-      </c>
-      <c r="R3" s="61">
-        <v>32890</v>
-      </c>
-      <c r="S3" s="60" t="s">
-        <v>764</v>
-      </c>
-      <c r="T3" s="60">
-        <v>1371816873</v>
-      </c>
-      <c r="U3" s="60">
-        <v>39.450498000000003</v>
-      </c>
-      <c r="V3" s="60">
-        <v>-109.960431</v>
-      </c>
-      <c r="W3" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="63">
-        <v>2</v>
-      </c>
-      <c r="B4" s="59">
-        <v>44003.510335648149</v>
-      </c>
-      <c r="C4" s="60">
-        <v>3598215285024750</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>765</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="F4" s="60">
-        <v>41.28</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>767</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>768</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>769</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>770</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>771</v>
-      </c>
-      <c r="M4" s="60">
-        <v>11710</v>
-      </c>
-      <c r="N4" s="60">
-        <v>40.672899999999998</v>
-      </c>
-      <c r="O4" s="60">
-        <v>-73.536500000000004</v>
-      </c>
-      <c r="P4" s="60">
-        <v>34496</v>
-      </c>
-      <c r="Q4" s="60" t="s">
-        <v>772</v>
-      </c>
-      <c r="R4" s="61">
-        <v>25862</v>
-      </c>
-      <c r="S4" s="60" t="s">
-        <v>773</v>
-      </c>
-      <c r="T4" s="60">
-        <v>1371816893</v>
-      </c>
-      <c r="U4" s="60">
-        <v>40.495809999999999</v>
-      </c>
-      <c r="V4" s="60">
-        <v>-74.196111000000002</v>
-      </c>
-      <c r="W4" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="63">
-        <v>3</v>
-      </c>
-      <c r="B5" s="59">
-        <v>44003.51059027778</v>
-      </c>
-      <c r="C5" s="60">
-        <v>3591919803438420</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>774</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>775</v>
-      </c>
-      <c r="F5" s="60">
-        <v>60.05</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>776</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>758</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J5" s="60" t="s">
-        <v>777</v>
-      </c>
-      <c r="K5" s="60" t="s">
-        <v>778</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>779</v>
-      </c>
-      <c r="M5" s="60">
-        <v>32780</v>
-      </c>
-      <c r="N5" s="60">
-        <v>28.569700000000001</v>
-      </c>
-      <c r="O5" s="60">
-        <v>-80.819100000000006</v>
-      </c>
-      <c r="P5" s="60">
-        <v>54767</v>
-      </c>
-      <c r="Q5" s="60" t="s">
-        <v>780</v>
-      </c>
-      <c r="R5" s="61">
-        <v>31983</v>
-      </c>
-      <c r="S5" s="60" t="s">
-        <v>781</v>
-      </c>
-      <c r="T5" s="60">
-        <v>1371816915</v>
-      </c>
-      <c r="U5" s="60">
-        <v>28.812398000000002</v>
-      </c>
-      <c r="V5" s="60">
-        <v>-80.883060999999998</v>
-      </c>
-      <c r="W5" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="63">
-        <v>4</v>
-      </c>
-      <c r="B6" s="59">
-        <v>44003.510613425926</v>
-      </c>
-      <c r="C6" s="60">
-        <v>3526826139003040</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>782</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>783</v>
-      </c>
-      <c r="F6" s="60">
-        <v>3.19</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>784</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>785</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J6" s="60" t="s">
-        <v>786</v>
-      </c>
-      <c r="K6" s="60" t="s">
-        <v>787</v>
-      </c>
-      <c r="L6" s="60" t="s">
-        <v>788</v>
-      </c>
-      <c r="M6" s="60">
-        <v>49632</v>
-      </c>
-      <c r="N6" s="60">
-        <v>44.252899999999997</v>
-      </c>
-      <c r="O6" s="60">
-        <v>-85.016999999999996</v>
-      </c>
-      <c r="P6" s="60">
-        <v>1126</v>
-      </c>
-      <c r="Q6" s="60" t="s">
-        <v>789</v>
-      </c>
-      <c r="R6" s="61">
-        <v>20276</v>
-      </c>
-      <c r="S6" s="60" t="s">
-        <v>790</v>
-      </c>
-      <c r="T6" s="60">
-        <v>1371816917</v>
-      </c>
-      <c r="U6" s="60">
-        <v>44.959147999999999</v>
-      </c>
-      <c r="V6" s="60">
-        <v>-85.884733999999995</v>
-      </c>
-      <c r="W6" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="63">
-        <v>5</v>
-      </c>
-      <c r="B7" s="59">
-        <v>44003.510844907411</v>
-      </c>
-      <c r="C7" s="60">
-        <v>30407675418785</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>791</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>792</v>
-      </c>
-      <c r="F7" s="60">
-        <v>19.55</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>793</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>794</v>
-      </c>
-      <c r="I7" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J7" s="60" t="s">
-        <v>795</v>
-      </c>
-      <c r="K7" s="60" t="s">
-        <v>796</v>
-      </c>
-      <c r="L7" s="60" t="s">
-        <v>771</v>
-      </c>
-      <c r="M7" s="60">
-        <v>14816</v>
-      </c>
-      <c r="N7" s="60">
-        <v>42.193899999999999</v>
-      </c>
-      <c r="O7" s="60">
-        <v>-76.736099999999993</v>
-      </c>
-      <c r="P7" s="60">
-        <v>520</v>
-      </c>
-      <c r="Q7" s="60" t="s">
-        <v>797</v>
-      </c>
-      <c r="R7" s="61">
-        <v>33524</v>
-      </c>
-      <c r="S7" s="60" t="s">
-        <v>798</v>
-      </c>
-      <c r="T7" s="60">
-        <v>1371816937</v>
-      </c>
-      <c r="U7" s="60">
-        <v>41.747157000000001</v>
-      </c>
-      <c r="V7" s="60">
-        <v>-77.584197000000003</v>
-      </c>
-      <c r="W7" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="63">
-        <v>6</v>
-      </c>
-      <c r="B8" s="59">
-        <v>44003.510925925926</v>
-      </c>
-      <c r="C8" s="60">
-        <v>213180742685905</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>799</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="F8" s="60">
-        <v>133.93</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>800</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>801</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>802</v>
-      </c>
-      <c r="K8" s="60" t="s">
-        <v>803</v>
-      </c>
-      <c r="L8" s="60" t="s">
-        <v>804</v>
-      </c>
-      <c r="M8" s="60">
-        <v>95528</v>
-      </c>
-      <c r="N8" s="60">
-        <v>40.506999999999998</v>
-      </c>
-      <c r="O8" s="60">
-        <v>-123.9743</v>
-      </c>
-      <c r="P8" s="60">
-        <v>1139</v>
-      </c>
-      <c r="Q8" s="60" t="s">
-        <v>805</v>
-      </c>
-      <c r="R8" s="61">
-        <v>18643</v>
-      </c>
-      <c r="S8" s="60" t="s">
-        <v>806</v>
-      </c>
-      <c r="T8" s="60">
-        <v>1371816944</v>
-      </c>
-      <c r="U8" s="60">
-        <v>41.499457999999997</v>
-      </c>
-      <c r="V8" s="60">
-        <v>-124.888729</v>
-      </c>
-      <c r="W8" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="63">
-        <v>7</v>
-      </c>
-      <c r="B9" s="59">
-        <v>44003.510995370372</v>
-      </c>
-      <c r="C9" s="60">
-        <v>3589289942931260</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>807</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>747</v>
-      </c>
-      <c r="F9" s="60">
-        <v>10.37</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>808</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>809</v>
-      </c>
-      <c r="I9" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J9" s="60" t="s">
-        <v>810</v>
-      </c>
-      <c r="K9" s="60" t="s">
-        <v>811</v>
-      </c>
-      <c r="L9" s="60" t="s">
-        <v>812</v>
-      </c>
-      <c r="M9" s="60">
-        <v>57374</v>
-      </c>
-      <c r="N9" s="60">
-        <v>43.755699999999997</v>
-      </c>
-      <c r="O9" s="60">
-        <v>-97.593599999999995</v>
-      </c>
-      <c r="P9" s="60">
-        <v>343</v>
-      </c>
-      <c r="Q9" s="60" t="s">
-        <v>813</v>
-      </c>
-      <c r="R9" s="61">
-        <v>26363</v>
-      </c>
-      <c r="S9" s="60" t="s">
-        <v>814</v>
-      </c>
-      <c r="T9" s="60">
-        <v>1371816950</v>
-      </c>
-      <c r="U9" s="60">
-        <v>44.495497999999998</v>
-      </c>
-      <c r="V9" s="60">
-        <v>-97.728453000000002</v>
-      </c>
-      <c r="W9" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="63">
-        <v>8</v>
-      </c>
-      <c r="B10" s="59">
-        <v>44003.51122685185</v>
-      </c>
-      <c r="C10" s="60">
-        <v>3596357274378600</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>815</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>816</v>
-      </c>
-      <c r="F10" s="60">
-        <v>4.37</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>817</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>818</v>
-      </c>
-      <c r="I10" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J10" s="60" t="s">
-        <v>819</v>
-      </c>
-      <c r="K10" s="60" t="s">
-        <v>820</v>
-      </c>
-      <c r="L10" s="60" t="s">
-        <v>821</v>
-      </c>
-      <c r="M10" s="60">
-        <v>16858</v>
-      </c>
-      <c r="N10" s="60">
-        <v>41.000100000000003</v>
-      </c>
-      <c r="O10" s="60">
-        <v>-78.235699999999994</v>
-      </c>
-      <c r="P10" s="60">
-        <v>3688</v>
-      </c>
-      <c r="Q10" s="60" t="s">
-        <v>822</v>
-      </c>
-      <c r="R10" s="61">
-        <v>26811</v>
-      </c>
-      <c r="S10" s="60" t="s">
-        <v>823</v>
-      </c>
-      <c r="T10" s="60">
-        <v>1371816970</v>
-      </c>
-      <c r="U10" s="60">
-        <v>41.546067000000001</v>
-      </c>
-      <c r="V10" s="60">
-        <v>-78.120238000000001</v>
-      </c>
-      <c r="W10" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="63">
-        <v>9</v>
-      </c>
-      <c r="B11" s="59">
-        <v>44003.511238425926</v>
-      </c>
-      <c r="C11" s="60">
-        <v>3546897637165770</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>824</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>825</v>
-      </c>
-      <c r="F11" s="60">
-        <v>66.540000000000006</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>800</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>826</v>
-      </c>
-      <c r="I11" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J11" s="60" t="s">
-        <v>827</v>
-      </c>
-      <c r="K11" s="60" t="s">
-        <v>828</v>
-      </c>
-      <c r="L11" s="60" t="s">
-        <v>829</v>
-      </c>
-      <c r="M11" s="60">
-        <v>76678</v>
-      </c>
-      <c r="N11" s="60">
-        <v>31.659099999999999</v>
-      </c>
-      <c r="O11" s="60">
-        <v>-96.809399999999997</v>
-      </c>
-      <c r="P11" s="60">
-        <v>263</v>
-      </c>
-      <c r="Q11" s="60" t="s">
-        <v>830</v>
-      </c>
-      <c r="R11" s="61">
-        <v>20605</v>
-      </c>
-      <c r="S11" s="60" t="s">
-        <v>831</v>
-      </c>
-      <c r="T11" s="60">
-        <v>1371816971</v>
-      </c>
-      <c r="U11" s="60">
-        <v>31.782919</v>
-      </c>
-      <c r="V11" s="60">
-        <v>-96.366185000000002</v>
-      </c>
-      <c r="W11" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="63">
-        <v>10</v>
-      </c>
-      <c r="B12" s="59">
-        <v>44003.511342592596</v>
-      </c>
-      <c r="C12" s="60">
-        <v>2242542703101230</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>832</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>825</v>
-      </c>
-      <c r="F12" s="60">
-        <v>7.01</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>833</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>834</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>835</v>
-      </c>
-      <c r="K12" s="60" t="s">
-        <v>836</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>837</v>
-      </c>
-      <c r="M12" s="60">
-        <v>40077</v>
-      </c>
-      <c r="N12" s="60">
-        <v>38.492100000000001</v>
-      </c>
-      <c r="O12" s="60">
-        <v>-85.452399999999997</v>
-      </c>
-      <c r="P12" s="60">
-        <v>564</v>
-      </c>
-      <c r="Q12" s="60" t="s">
-        <v>838</v>
-      </c>
-      <c r="R12" s="61">
-        <v>35165</v>
-      </c>
-      <c r="S12" s="60" t="s">
-        <v>839</v>
-      </c>
-      <c r="T12" s="60">
-        <v>1371816980</v>
-      </c>
-      <c r="U12" s="60">
-        <v>38.977545999999997</v>
-      </c>
-      <c r="V12" s="60">
-        <v>-84.727993999999995</v>
-      </c>
-      <c r="W12" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="63">
-        <v>11</v>
-      </c>
-      <c r="B13" s="59">
-        <v>44003.511655092596</v>
-      </c>
-      <c r="C13" s="60">
-        <v>571465035400</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>840</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>792</v>
-      </c>
-      <c r="F13" s="60">
-        <v>42.4</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>841</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>842</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>843</v>
-      </c>
-      <c r="K13" s="60" t="s">
-        <v>844</v>
-      </c>
-      <c r="L13" s="60" t="s">
-        <v>845</v>
-      </c>
-      <c r="M13" s="60">
-        <v>82514</v>
-      </c>
-      <c r="N13" s="60">
-        <v>43.004800000000003</v>
-      </c>
-      <c r="O13" s="60">
-        <v>-108.8964</v>
-      </c>
-      <c r="P13" s="60">
-        <v>1645</v>
-      </c>
-      <c r="Q13" s="60" t="s">
-        <v>846</v>
-      </c>
-      <c r="R13" s="61">
-        <v>27816</v>
-      </c>
-      <c r="S13" s="60" t="s">
-        <v>847</v>
-      </c>
-      <c r="T13" s="60">
-        <v>1371817007</v>
-      </c>
-      <c r="U13" s="60">
-        <v>42.687773999999997</v>
-      </c>
-      <c r="V13" s="60">
-        <v>-108.67005399999999</v>
-      </c>
-      <c r="W13" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="63">
-        <v>12</v>
-      </c>
-      <c r="B14" s="59">
-        <v>44003.512048611112</v>
-      </c>
-      <c r="C14" s="60">
-        <v>6593250708747800</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>848</v>
-      </c>
-      <c r="E14" s="60" t="s">
-        <v>849</v>
-      </c>
-      <c r="F14" s="60">
-        <v>2.91</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>850</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>851</v>
-      </c>
-      <c r="I14" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J14" s="60" t="s">
-        <v>852</v>
-      </c>
-      <c r="K14" s="60" t="s">
-        <v>853</v>
-      </c>
-      <c r="L14" s="60" t="s">
-        <v>779</v>
-      </c>
-      <c r="M14" s="60">
-        <v>33470</v>
-      </c>
-      <c r="N14" s="60">
-        <v>26.738299999999999</v>
-      </c>
-      <c r="O14" s="60">
-        <v>-80.275999999999996</v>
-      </c>
-      <c r="P14" s="60">
-        <v>26551</v>
-      </c>
-      <c r="Q14" s="60" t="s">
-        <v>854</v>
-      </c>
-      <c r="R14" s="61">
-        <v>28129</v>
-      </c>
-      <c r="S14" s="60" t="s">
-        <v>855</v>
-      </c>
-      <c r="T14" s="60">
-        <v>1371817041</v>
-      </c>
-      <c r="U14" s="60">
-        <v>26.07846</v>
-      </c>
-      <c r="V14" s="60">
-        <v>-80.569931999999994</v>
-      </c>
-      <c r="W14" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="63">
-        <v>13</v>
-      </c>
-      <c r="B15" s="59">
-        <v>44003.512812499997</v>
-      </c>
-      <c r="C15" s="60">
-        <v>4988304376504</v>
-      </c>
-      <c r="D15" s="60" t="s">
-        <v>856</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>825</v>
-      </c>
-      <c r="F15" s="60">
-        <v>7.93</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>857</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>858</v>
-      </c>
-      <c r="I15" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J15" s="60" t="s">
-        <v>859</v>
-      </c>
-      <c r="K15" s="60" t="s">
-        <v>860</v>
-      </c>
-      <c r="L15" s="60" t="s">
-        <v>771</v>
-      </c>
-      <c r="M15" s="60">
-        <v>12575</v>
-      </c>
-      <c r="N15" s="60">
-        <v>41.457500000000003</v>
-      </c>
-      <c r="O15" s="60">
-        <v>-74.165899999999993</v>
-      </c>
-      <c r="P15" s="60">
-        <v>2258</v>
-      </c>
-      <c r="Q15" s="60" t="s">
-        <v>861</v>
-      </c>
-      <c r="R15" s="61">
-        <v>13591</v>
-      </c>
-      <c r="S15" s="60" t="s">
-        <v>862</v>
-      </c>
-      <c r="T15" s="60">
-        <v>1371817107</v>
-      </c>
-      <c r="U15" s="60">
-        <v>40.711680000000001</v>
-      </c>
-      <c r="V15" s="60">
-        <v>-73.668384000000003</v>
-      </c>
-      <c r="W15" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="63">
-        <v>14</v>
-      </c>
-      <c r="B16" s="59">
-        <v>44003.512928240743</v>
-      </c>
-      <c r="C16" s="60">
-        <v>6011504998544480</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>863</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>792</v>
-      </c>
-      <c r="F16" s="60">
-        <v>2.91</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>767</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>864</v>
-      </c>
-      <c r="I16" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>865</v>
-      </c>
-      <c r="K16" s="60" t="s">
-        <v>866</v>
-      </c>
-      <c r="L16" s="60" t="s">
-        <v>867</v>
-      </c>
-      <c r="M16" s="60">
-        <v>36749</v>
-      </c>
-      <c r="N16" s="60">
-        <v>32.510399999999997</v>
-      </c>
-      <c r="O16" s="60">
-        <v>-86.813800000000001</v>
-      </c>
-      <c r="P16" s="60">
-        <v>1089</v>
-      </c>
-      <c r="Q16" s="60" t="s">
-        <v>868</v>
-      </c>
-      <c r="R16" s="61">
-        <v>26239</v>
-      </c>
-      <c r="S16" s="60" t="s">
-        <v>869</v>
-      </c>
-      <c r="T16" s="60">
-        <v>1371817117</v>
-      </c>
-      <c r="U16" s="60">
-        <v>32.721131</v>
-      </c>
-      <c r="V16" s="60">
-        <v>-87.253845999999996</v>
-      </c>
-      <c r="W16" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="63">
-        <v>15</v>
-      </c>
-      <c r="B17" s="59">
-        <v>44003.512974537036</v>
-      </c>
-      <c r="C17" s="60">
-        <v>4570636521433180</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>870</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>871</v>
-      </c>
-      <c r="F17" s="60">
-        <v>24.73</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>872</v>
-      </c>
-      <c r="H17" s="60" t="s">
-        <v>873</v>
-      </c>
-      <c r="I17" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J17" s="60" t="s">
-        <v>874</v>
-      </c>
-      <c r="K17" s="60" t="s">
-        <v>875</v>
-      </c>
-      <c r="L17" s="60" t="s">
-        <v>779</v>
-      </c>
-      <c r="M17" s="60">
-        <v>32725</v>
-      </c>
-      <c r="N17" s="60">
-        <v>28.898900000000001</v>
-      </c>
-      <c r="O17" s="60">
-        <v>-81.247299999999996</v>
-      </c>
-      <c r="P17" s="60">
-        <v>88735</v>
-      </c>
-      <c r="Q17" s="60" t="s">
-        <v>876</v>
-      </c>
-      <c r="R17" s="61">
-        <v>32242</v>
-      </c>
-      <c r="S17" s="60" t="s">
-        <v>877</v>
-      </c>
-      <c r="T17" s="60">
-        <v>1371817121</v>
-      </c>
-      <c r="U17" s="60">
-        <v>29.83155</v>
-      </c>
-      <c r="V17" s="60">
-        <v>-80.926828999999998</v>
-      </c>
-      <c r="W17" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="63">
-        <v>16</v>
-      </c>
-      <c r="B18" s="59">
-        <v>44003.513124999998</v>
-      </c>
-      <c r="C18" s="60">
-        <v>4.9066286558409103E+18</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>878</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>816</v>
-      </c>
-      <c r="F18" s="60">
-        <v>2.33</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>879</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="I18" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J18" s="60" t="s">
-        <v>881</v>
-      </c>
-      <c r="K18" s="60" t="s">
-        <v>882</v>
-      </c>
-      <c r="L18" s="60" t="s">
-        <v>779</v>
-      </c>
-      <c r="M18" s="60">
-        <v>33040</v>
-      </c>
-      <c r="N18" s="60">
-        <v>24.6557</v>
-      </c>
-      <c r="O18" s="60">
-        <v>-81.382400000000004</v>
-      </c>
-      <c r="P18" s="60">
-        <v>32891</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>883</v>
-      </c>
-      <c r="R18" s="61">
-        <v>31821</v>
-      </c>
-      <c r="S18" s="60" t="s">
-        <v>884</v>
-      </c>
-      <c r="T18" s="60">
-        <v>1371817134</v>
-      </c>
-      <c r="U18" s="60">
-        <v>24.306325000000001</v>
-      </c>
-      <c r="V18" s="60">
-        <v>-81.065168999999997</v>
-      </c>
-      <c r="W18" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="63">
-        <v>17</v>
-      </c>
-      <c r="B19" s="59">
-        <v>44003.513773148145</v>
-      </c>
-      <c r="C19" s="60">
-        <v>4908846471916290</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>885</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>792</v>
-      </c>
-      <c r="F19" s="60">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>886</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>887</v>
-      </c>
-      <c r="I19" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J19" s="60" t="s">
-        <v>888</v>
-      </c>
-      <c r="K19" s="60" t="s">
-        <v>889</v>
-      </c>
-      <c r="L19" s="60" t="s">
-        <v>829</v>
-      </c>
-      <c r="M19" s="60">
-        <v>76050</v>
-      </c>
-      <c r="N19" s="60">
-        <v>32.277900000000002</v>
-      </c>
-      <c r="O19" s="60">
-        <v>-97.235100000000003</v>
-      </c>
-      <c r="P19" s="60">
-        <v>5875</v>
-      </c>
-      <c r="Q19" s="60" t="s">
-        <v>890</v>
-      </c>
-      <c r="R19" s="61">
-        <v>33809</v>
-      </c>
-      <c r="S19" s="62" t="s">
-        <v>891</v>
-      </c>
-      <c r="T19" s="60">
-        <v>1371817190</v>
-      </c>
-      <c r="U19" s="60">
-        <v>33.182349000000002</v>
-      </c>
-      <c r="V19" s="60">
-        <v>-97.919284000000005</v>
-      </c>
-      <c r="W19" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="63">
-        <v>18</v>
-      </c>
-      <c r="B20" s="59">
-        <v>44003.513842592591</v>
-      </c>
-      <c r="C20" s="60">
-        <v>4.8613101306525604E+18</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>892</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>871</v>
-      </c>
-      <c r="F20" s="60">
-        <v>80.11</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>767</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>893</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J20" s="60" t="s">
-        <v>894</v>
-      </c>
-      <c r="K20" s="60" t="s">
-        <v>895</v>
-      </c>
-      <c r="L20" s="60" t="s">
-        <v>896</v>
-      </c>
-      <c r="M20" s="60">
-        <v>70774</v>
-      </c>
-      <c r="N20" s="60">
-        <v>30.238499999999998</v>
-      </c>
-      <c r="O20" s="60">
-        <v>-90.843500000000006</v>
-      </c>
-      <c r="P20" s="60">
-        <v>10076</v>
-      </c>
-      <c r="Q20" s="60" t="s">
-        <v>897</v>
-      </c>
-      <c r="R20" s="61">
-        <v>28475</v>
-      </c>
-      <c r="S20" s="60" t="s">
-        <v>898</v>
-      </c>
-      <c r="T20" s="60">
-        <v>1371817196</v>
-      </c>
-      <c r="U20" s="60">
-        <v>30.44999</v>
-      </c>
-      <c r="V20" s="60">
-        <v>-89.930995999999993</v>
-      </c>
-      <c r="W20" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="63">
-        <v>19</v>
-      </c>
-      <c r="B21" s="59">
-        <v>44003.514039351852</v>
-      </c>
-      <c r="C21" s="60">
-        <v>6538441737335430</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>899</v>
-      </c>
-      <c r="E21" s="60" t="s">
-        <v>747</v>
-      </c>
-      <c r="F21" s="60">
-        <v>5.71</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>900</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>901</v>
-      </c>
-      <c r="I21" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J21" s="60" t="s">
-        <v>902</v>
-      </c>
-      <c r="K21" s="60" t="s">
-        <v>903</v>
-      </c>
-      <c r="L21" s="60" t="s">
-        <v>821</v>
-      </c>
-      <c r="M21" s="60">
-        <v>16114</v>
-      </c>
-      <c r="N21" s="60">
-        <v>41.385100000000001</v>
-      </c>
-      <c r="O21" s="60">
-        <v>-80.175200000000004</v>
-      </c>
-      <c r="P21" s="60">
-        <v>606</v>
-      </c>
-      <c r="Q21" s="60" t="s">
-        <v>904</v>
-      </c>
-      <c r="R21" s="61">
-        <v>35695</v>
-      </c>
-      <c r="S21" s="60" t="s">
-        <v>905</v>
-      </c>
-      <c r="T21" s="60">
-        <v>1371817213</v>
-      </c>
-      <c r="U21" s="60">
-        <v>40.508063999999997</v>
-      </c>
-      <c r="V21" s="60">
-        <v>-79.615157999999994</v>
-      </c>
-      <c r="W21" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="63">
-        <v>20</v>
-      </c>
-      <c r="B22" s="59">
-        <v>44003.514282407406</v>
-      </c>
-      <c r="C22" s="60">
-        <v>2283743876903620</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>906</v>
-      </c>
-      <c r="E22" s="60" t="s">
-        <v>783</v>
-      </c>
-      <c r="F22" s="60">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>907</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>758</v>
-      </c>
-      <c r="I22" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J22" s="60" t="s">
-        <v>908</v>
-      </c>
-      <c r="K22" s="60" t="s">
-        <v>909</v>
-      </c>
-      <c r="L22" s="60" t="s">
-        <v>910</v>
-      </c>
-      <c r="M22" s="60">
-        <v>30009</v>
-      </c>
-      <c r="N22" s="60">
-        <v>34.076999999999998</v>
-      </c>
-      <c r="O22" s="60">
-        <v>-84.303299999999993</v>
-      </c>
-      <c r="P22" s="60">
-        <v>165556</v>
-      </c>
-      <c r="Q22" s="60" t="s">
-        <v>911</v>
-      </c>
-      <c r="R22" s="61">
-        <v>35791</v>
-      </c>
-      <c r="S22" s="60" t="s">
-        <v>912</v>
-      </c>
-      <c r="T22" s="60">
-        <v>1371817234</v>
-      </c>
-      <c r="U22" s="60">
-        <v>33.195225000000001</v>
-      </c>
-      <c r="V22" s="60">
-        <v>-84.119083000000003</v>
-      </c>
-      <c r="W22" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="63">
-        <v>21</v>
-      </c>
-      <c r="B23" s="59">
-        <v>44003.514374999999</v>
-      </c>
-      <c r="C23" s="60">
-        <v>4.5600041499838602E+18</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>840</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>792</v>
-      </c>
-      <c r="F23" s="60">
-        <v>37.950000000000003</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>913</v>
-      </c>
-      <c r="H23" s="60" t="s">
-        <v>914</v>
-      </c>
-      <c r="I23" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J23" s="60" t="s">
-        <v>915</v>
-      </c>
-      <c r="K23" s="60" t="s">
-        <v>916</v>
-      </c>
-      <c r="L23" s="60" t="s">
-        <v>917</v>
-      </c>
-      <c r="M23" s="60">
-        <v>80951</v>
-      </c>
-      <c r="N23" s="60">
-        <v>38.888100000000001</v>
-      </c>
-      <c r="O23" s="60">
-        <v>-104.65560000000001</v>
-      </c>
-      <c r="P23" s="60">
-        <v>525713</v>
-      </c>
-      <c r="Q23" s="60" t="s">
-        <v>918</v>
-      </c>
-      <c r="R23" s="61">
-        <v>33733</v>
-      </c>
-      <c r="S23" s="60" t="s">
-        <v>919</v>
-      </c>
-      <c r="T23" s="60">
-        <v>1371817242</v>
-      </c>
-      <c r="U23" s="60">
-        <v>39.844710999999997</v>
-      </c>
-      <c r="V23" s="60">
-        <v>-103.975632</v>
-      </c>
-      <c r="W23" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="63">
-        <v>22</v>
-      </c>
-      <c r="B24" s="59">
-        <v>44003.514548611114</v>
-      </c>
-      <c r="C24" s="60">
-        <v>4562827002127</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>920</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>783</v>
-      </c>
-      <c r="F24" s="60">
-        <v>1.74</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>921</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>922</v>
-      </c>
-      <c r="I24" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J24" s="60" t="s">
-        <v>923</v>
-      </c>
-      <c r="K24" s="60" t="s">
-        <v>924</v>
-      </c>
-      <c r="L24" s="60" t="s">
-        <v>925</v>
-      </c>
-      <c r="M24" s="60">
-        <v>45331</v>
-      </c>
-      <c r="N24" s="60">
-        <v>40.098700000000001</v>
-      </c>
-      <c r="O24" s="60">
-        <v>-84.634200000000007</v>
-      </c>
-      <c r="P24" s="60">
-        <v>22930</v>
-      </c>
-      <c r="Q24" s="60" t="s">
-        <v>926</v>
-      </c>
-      <c r="R24" s="61">
-        <v>26263</v>
-      </c>
-      <c r="S24" s="60" t="s">
-        <v>927</v>
-      </c>
-      <c r="T24" s="60">
-        <v>1371817257</v>
-      </c>
-      <c r="U24" s="60">
-        <v>40.117116000000003</v>
-      </c>
-      <c r="V24" s="60">
-        <v>-84.175021000000001</v>
-      </c>
-      <c r="W24" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" s="63">
-        <v>23</v>
-      </c>
-      <c r="B25" s="59">
-        <v>44003.515115740738</v>
-      </c>
-      <c r="C25" s="60">
-        <v>213153151785052</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>928</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>783</v>
-      </c>
-      <c r="F25" s="60">
-        <v>6.02</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>929</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>930</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J25" s="60" t="s">
-        <v>931</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>932</v>
-      </c>
-      <c r="L25" s="60" t="s">
-        <v>933</v>
-      </c>
-      <c r="M25" s="60">
-        <v>54487</v>
-      </c>
-      <c r="N25" s="60">
-        <v>45.496299999999998</v>
-      </c>
-      <c r="O25" s="60">
-        <v>-89.7273</v>
-      </c>
-      <c r="P25" s="60">
-        <v>9594</v>
-      </c>
-      <c r="Q25" s="60" t="s">
-        <v>934</v>
-      </c>
-      <c r="R25" s="61">
-        <v>35757</v>
-      </c>
-      <c r="S25" s="60" t="s">
-        <v>935</v>
-      </c>
-      <c r="T25" s="60">
-        <v>1371817306</v>
-      </c>
-      <c r="U25" s="60">
-        <v>45.474440000000001</v>
-      </c>
-      <c r="V25" s="60">
-        <v>-89.539773999999994</v>
-      </c>
-      <c r="W25" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="63">
-        <v>24</v>
-      </c>
-      <c r="B26" s="59">
-        <v>44003.515127314815</v>
-      </c>
-      <c r="C26" s="60">
-        <v>372509258176510</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>936</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>816</v>
-      </c>
-      <c r="F26" s="60">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="G26" s="60" t="s">
-        <v>937</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>938</v>
-      </c>
-      <c r="I26" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J26" s="60" t="s">
-        <v>939</v>
-      </c>
-      <c r="K26" s="60" t="s">
-        <v>940</v>
-      </c>
-      <c r="L26" s="60" t="s">
-        <v>788</v>
-      </c>
-      <c r="M26" s="60">
-        <v>48438</v>
-      </c>
-      <c r="N26" s="60">
-        <v>42.914700000000003</v>
-      </c>
-      <c r="O26" s="60">
-        <v>-83.484499999999997</v>
-      </c>
-      <c r="P26" s="60">
-        <v>6951</v>
-      </c>
-      <c r="Q26" s="60" t="s">
-        <v>941</v>
-      </c>
-      <c r="R26" s="61">
-        <v>31216</v>
-      </c>
-      <c r="S26" s="60" t="s">
-        <v>942</v>
-      </c>
-      <c r="T26" s="60">
-        <v>1371817307</v>
-      </c>
-      <c r="U26" s="60">
-        <v>43.702832999999998</v>
-      </c>
-      <c r="V26" s="60">
-        <v>-83.750247999999999</v>
-      </c>
-      <c r="W26" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="63">
-        <v>25</v>
-      </c>
-      <c r="B27" s="59">
-        <v>44003.516064814816</v>
-      </c>
-      <c r="C27" s="60">
-        <v>6011148190095200</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>943</v>
-      </c>
-      <c r="E27" s="60" t="s">
-        <v>825</v>
-      </c>
-      <c r="F27" s="60">
-        <v>47.06</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>944</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>945</v>
-      </c>
-      <c r="I27" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J27" s="60" t="s">
-        <v>946</v>
-      </c>
-      <c r="K27" s="60" t="s">
-        <v>947</v>
-      </c>
-      <c r="L27" s="60" t="s">
-        <v>804</v>
-      </c>
-      <c r="M27" s="60">
-        <v>94015</v>
-      </c>
-      <c r="N27" s="60">
-        <v>37.678699999999999</v>
-      </c>
-      <c r="O27" s="60">
-        <v>-122.47799999999999</v>
-      </c>
-      <c r="P27" s="60">
-        <v>107941</v>
-      </c>
-      <c r="Q27" s="60" t="s">
-        <v>948</v>
-      </c>
-      <c r="R27" s="61">
-        <v>33515</v>
-      </c>
-      <c r="S27" s="60" t="s">
-        <v>949</v>
-      </c>
-      <c r="T27" s="60">
-        <v>1371817388</v>
-      </c>
-      <c r="U27" s="60">
-        <v>38.048242000000002</v>
-      </c>
-      <c r="V27" s="60">
-        <v>-123.12568</v>
-      </c>
-      <c r="W27" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="63">
-        <v>26</v>
-      </c>
-      <c r="B28" s="59">
-        <v>44003.516076388885</v>
-      </c>
-      <c r="C28" s="60">
-        <v>6011917798331150</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>950</v>
-      </c>
-      <c r="E28" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="F28" s="60">
-        <v>1.7</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>857</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>922</v>
-      </c>
-      <c r="I28" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J28" s="60" t="s">
-        <v>951</v>
-      </c>
-      <c r="K28" s="60" t="s">
-        <v>952</v>
-      </c>
-      <c r="L28" s="60" t="s">
-        <v>953</v>
-      </c>
-      <c r="M28" s="60">
-        <v>5155</v>
-      </c>
-      <c r="N28" s="60">
-        <v>43.169899999999998</v>
-      </c>
-      <c r="O28" s="60">
-        <v>-72.851500000000001</v>
-      </c>
-      <c r="P28" s="60">
-        <v>828</v>
-      </c>
-      <c r="Q28" s="60" t="s">
-        <v>954</v>
-      </c>
-      <c r="R28" s="61">
-        <v>21062</v>
-      </c>
-      <c r="S28" s="60" t="s">
-        <v>955</v>
-      </c>
-      <c r="T28" s="60">
-        <v>1371817389</v>
-      </c>
-      <c r="U28" s="60">
-        <v>42.390565000000002</v>
-      </c>
-      <c r="V28" s="60">
-        <v>-71.932417999999998</v>
-      </c>
-      <c r="W28" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="63">
-        <v>27</v>
-      </c>
-      <c r="B29" s="59">
-        <v>44003.516585648147</v>
-      </c>
-      <c r="C29" s="60">
-        <v>3577663406369440</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>956</v>
-      </c>
-      <c r="E29" s="60" t="s">
-        <v>747</v>
-      </c>
-      <c r="F29" s="60">
-        <v>2.17</v>
-      </c>
-      <c r="G29" s="60" t="s">
-        <v>957</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>958</v>
-      </c>
-      <c r="I29" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J29" s="60" t="s">
-        <v>959</v>
-      </c>
-      <c r="K29" s="60" t="s">
-        <v>960</v>
-      </c>
-      <c r="L29" s="60" t="s">
-        <v>961</v>
-      </c>
-      <c r="M29" s="60">
-        <v>72354</v>
-      </c>
-      <c r="N29" s="60">
-        <v>35.606900000000003</v>
-      </c>
-      <c r="O29" s="60">
-        <v>-90.335899999999995</v>
-      </c>
-      <c r="P29" s="60">
-        <v>2470</v>
-      </c>
-      <c r="Q29" s="60" t="s">
-        <v>962</v>
-      </c>
-      <c r="R29" s="61">
-        <v>25117</v>
-      </c>
-      <c r="S29" s="60" t="s">
-        <v>963</v>
-      </c>
-      <c r="T29" s="60">
-        <v>1371817433</v>
-      </c>
-      <c r="U29" s="60">
-        <v>36.581541000000001</v>
-      </c>
-      <c r="V29" s="60">
-        <v>-89.680516999999995</v>
-      </c>
-      <c r="W29" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="63">
-        <v>28</v>
-      </c>
-      <c r="B30" s="59">
-        <v>44003.516793981478</v>
-      </c>
-      <c r="C30" s="60">
-        <v>3502377050801560</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>964</v>
-      </c>
-      <c r="E30" s="60" t="s">
-        <v>783</v>
-      </c>
-      <c r="F30" s="60">
-        <v>6.21</v>
-      </c>
-      <c r="G30" s="60" t="s">
-        <v>965</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>966</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J30" s="60" t="s">
-        <v>967</v>
-      </c>
-      <c r="K30" s="60" t="s">
-        <v>968</v>
-      </c>
-      <c r="L30" s="60" t="s">
-        <v>829</v>
-      </c>
-      <c r="M30" s="60">
-        <v>77358</v>
-      </c>
-      <c r="N30" s="60">
-        <v>30.535399999999999</v>
-      </c>
-      <c r="O30" s="60">
-        <v>-95.453199999999995</v>
-      </c>
-      <c r="P30" s="60">
-        <v>4993</v>
-      </c>
-      <c r="Q30" s="60" t="s">
-        <v>969</v>
-      </c>
-      <c r="R30" s="61">
-        <v>17867</v>
-      </c>
-      <c r="S30" s="60" t="s">
-        <v>970</v>
-      </c>
-      <c r="T30" s="60">
-        <v>1371817451</v>
-      </c>
-      <c r="U30" s="60">
-        <v>31.432355000000001</v>
-      </c>
-      <c r="V30" s="60">
-        <v>-95.537858999999997</v>
-      </c>
-      <c r="W30" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31" s="63">
-        <v>29</v>
-      </c>
-      <c r="B31" s="59">
-        <v>44003.516851851855</v>
-      </c>
-      <c r="C31" s="60">
-        <v>180040027502291</v>
-      </c>
-      <c r="D31" s="60" t="s">
-        <v>971</v>
-      </c>
-      <c r="E31" s="60" t="s">
-        <v>747</v>
-      </c>
-      <c r="F31" s="60">
-        <v>24.44</v>
-      </c>
-      <c r="G31" s="60" t="s">
-        <v>972</v>
-      </c>
-      <c r="H31" s="60" t="s">
-        <v>973</v>
-      </c>
-      <c r="I31" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J31" s="60" t="s">
-        <v>974</v>
-      </c>
-      <c r="K31" s="60" t="s">
-        <v>975</v>
-      </c>
-      <c r="L31" s="60" t="s">
-        <v>771</v>
-      </c>
-      <c r="M31" s="60">
-        <v>10162</v>
-      </c>
-      <c r="N31" s="60">
-        <v>40.7699</v>
-      </c>
-      <c r="O31" s="60">
-        <v>-73.951099999999997</v>
-      </c>
-      <c r="P31" s="60">
-        <v>1577385</v>
-      </c>
-      <c r="Q31" s="60" t="s">
-        <v>976</v>
-      </c>
-      <c r="R31" s="61">
-        <v>21183</v>
-      </c>
-      <c r="S31" s="60" t="s">
-        <v>977</v>
-      </c>
-      <c r="T31" s="60">
-        <v>1371817456</v>
-      </c>
-      <c r="U31" s="60">
-        <v>40.951475000000002</v>
-      </c>
-      <c r="V31" s="60">
-        <v>-74.065225999999996</v>
-      </c>
-      <c r="W31" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="63">
-        <v>30</v>
-      </c>
-      <c r="B32" s="59">
-        <v>44003.517465277779</v>
-      </c>
-      <c r="C32" s="60">
-        <v>379897244598068</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>978</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>747</v>
-      </c>
-      <c r="F32" s="60">
-        <v>176.23</v>
-      </c>
-      <c r="G32" s="60" t="s">
-        <v>979</v>
-      </c>
-      <c r="H32" s="60" t="s">
-        <v>980</v>
-      </c>
-      <c r="I32" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J32" s="60" t="s">
-        <v>981</v>
-      </c>
-      <c r="K32" s="60" t="s">
-        <v>982</v>
-      </c>
-      <c r="L32" s="60" t="s">
-        <v>837</v>
-      </c>
-      <c r="M32" s="60">
-        <v>40056</v>
-      </c>
-      <c r="N32" s="60">
-        <v>38.303899999999999</v>
-      </c>
-      <c r="O32" s="60">
-        <v>-85.483400000000003</v>
-      </c>
-      <c r="P32" s="60">
-        <v>3263</v>
-      </c>
-      <c r="Q32" s="60" t="s">
-        <v>983</v>
-      </c>
-      <c r="R32" s="61">
-        <v>11017</v>
-      </c>
-      <c r="S32" s="60" t="s">
-        <v>984</v>
-      </c>
-      <c r="T32" s="60">
-        <v>1371817509</v>
-      </c>
-      <c r="U32" s="60">
-        <v>38.585315999999999</v>
-      </c>
-      <c r="V32" s="60">
-        <v>-86.108185000000006</v>
-      </c>
-      <c r="W32" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" s="63">
-        <v>31</v>
-      </c>
-      <c r="B33" s="59">
-        <v>44003.518171296295</v>
-      </c>
-      <c r="C33" s="60">
-        <v>180048185037117</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>985</v>
-      </c>
-      <c r="E33" s="60" t="s">
-        <v>849</v>
-      </c>
-      <c r="F33" s="60">
-        <v>134.38999999999999</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>972</v>
-      </c>
-      <c r="H33" s="60" t="s">
-        <v>986</v>
-      </c>
-      <c r="I33" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J33" s="60" t="s">
-        <v>987</v>
-      </c>
-      <c r="K33" s="60" t="s">
-        <v>988</v>
-      </c>
-      <c r="L33" s="60" t="s">
-        <v>989</v>
-      </c>
-      <c r="M33" s="60">
-        <v>7060</v>
-      </c>
-      <c r="N33" s="60">
-        <v>40.615200000000002</v>
-      </c>
-      <c r="O33" s="60">
-        <v>-74.415000000000006</v>
-      </c>
-      <c r="P33" s="60">
-        <v>71485</v>
-      </c>
-      <c r="Q33" s="60" t="s">
-        <v>990</v>
-      </c>
-      <c r="R33" s="61">
-        <v>27229</v>
-      </c>
-      <c r="S33" s="60" t="s">
-        <v>991</v>
-      </c>
-      <c r="T33" s="60">
-        <v>1371817570</v>
-      </c>
-      <c r="U33" s="60">
-        <v>40.196876000000003</v>
-      </c>
-      <c r="V33" s="60">
-        <v>-74.407685999999998</v>
-      </c>
-      <c r="W33" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
-      <c r="A34" s="63">
-        <v>32</v>
-      </c>
-      <c r="B34" s="59">
-        <v>44003.518206018518</v>
-      </c>
-      <c r="C34" s="60">
-        <v>4302475216404890</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>992</v>
-      </c>
-      <c r="E34" s="60" t="s">
-        <v>747</v>
-      </c>
-      <c r="F34" s="60">
-        <v>19.03</v>
-      </c>
-      <c r="G34" s="60" t="s">
-        <v>993</v>
-      </c>
-      <c r="H34" s="60" t="s">
-        <v>994</v>
-      </c>
-      <c r="I34" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J34" s="60" t="s">
-        <v>995</v>
-      </c>
-      <c r="K34" s="60" t="s">
-        <v>996</v>
-      </c>
-      <c r="L34" s="60" t="s">
-        <v>997</v>
-      </c>
-      <c r="M34" s="60">
-        <v>50421</v>
-      </c>
-      <c r="N34" s="60">
-        <v>42.851100000000002</v>
-      </c>
-      <c r="O34" s="60">
-        <v>-93.62</v>
-      </c>
-      <c r="P34" s="60">
-        <v>3032</v>
-      </c>
-      <c r="Q34" s="60" t="s">
-        <v>998</v>
-      </c>
-      <c r="R34" s="61">
-        <v>23597</v>
-      </c>
-      <c r="S34" s="60" t="s">
-        <v>999</v>
-      </c>
-      <c r="T34" s="60">
-        <v>1371817573</v>
-      </c>
-      <c r="U34" s="60">
-        <v>42.322808999999999</v>
-      </c>
-      <c r="V34" s="60">
-        <v>-94.363654999999994</v>
-      </c>
-      <c r="W34" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
-      <c r="A35" s="63">
-        <v>33</v>
-      </c>
-      <c r="B35" s="59">
-        <v>44003.518321759257</v>
-      </c>
-      <c r="C35" s="60">
-        <v>180036456789979</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E35" s="60" t="s">
-        <v>871</v>
-      </c>
-      <c r="F35" s="60">
-        <v>210.36</v>
-      </c>
-      <c r="G35" s="60" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H35" s="60" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I35" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J35" s="60" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K35" s="60" t="s">
-        <v>1004</v>
-      </c>
-      <c r="L35" s="60" t="s">
-        <v>933</v>
-      </c>
-      <c r="M35" s="60">
-        <v>53801</v>
-      </c>
-      <c r="N35" s="60">
-        <v>42.920699999999997</v>
-      </c>
-      <c r="O35" s="60">
-        <v>-91.0685</v>
-      </c>
-      <c r="P35" s="60">
-        <v>878</v>
-      </c>
-      <c r="Q35" s="60" t="s">
-        <v>1005</v>
-      </c>
-      <c r="R35" s="61">
-        <v>27353</v>
-      </c>
-      <c r="S35" s="60" t="s">
-        <v>1006</v>
-      </c>
-      <c r="T35" s="60">
-        <v>1371817583</v>
-      </c>
-      <c r="U35" s="60">
-        <v>42.736666</v>
-      </c>
-      <c r="V35" s="60">
-        <v>-90.099710000000002</v>
-      </c>
-      <c r="W35" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" s="63">
-        <v>34</v>
-      </c>
-      <c r="B36" s="59">
-        <v>44003.51834490741</v>
-      </c>
-      <c r="C36" s="60">
-        <v>180065479077096</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>849</v>
-      </c>
-      <c r="F36" s="60">
-        <v>52.81</v>
-      </c>
-      <c r="G36" s="60" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H36" s="60" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I36" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J36" s="60" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K36" s="60" t="s">
-        <v>1011</v>
-      </c>
-      <c r="L36" s="60" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M36" s="60">
-        <v>21102</v>
-      </c>
-      <c r="N36" s="60">
-        <v>39.674700000000001</v>
-      </c>
-      <c r="O36" s="60">
-        <v>-76.894099999999995</v>
-      </c>
-      <c r="P36" s="60">
-        <v>11751</v>
-      </c>
-      <c r="Q36" s="60" t="s">
-        <v>1013</v>
-      </c>
-      <c r="R36" s="61">
-        <v>23422</v>
-      </c>
-      <c r="S36" s="60" t="s">
-        <v>1014</v>
-      </c>
-      <c r="T36" s="60">
-        <v>1371817585</v>
-      </c>
-      <c r="U36" s="60">
-        <v>39.289186000000001</v>
-      </c>
-      <c r="V36" s="60">
-        <v>-77.113658999999998</v>
-      </c>
-      <c r="W36" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
-      <c r="A37" s="63">
-        <v>35</v>
-      </c>
-      <c r="B37" s="59">
-        <v>44003.51835648148</v>
-      </c>
-      <c r="C37" s="60">
-        <v>6517217825320610</v>
-      </c>
-      <c r="D37" s="60" t="s">
-        <v>832</v>
-      </c>
-      <c r="E37" s="60" t="s">
-        <v>825</v>
-      </c>
-      <c r="F37" s="60">
-        <v>82.32</v>
-      </c>
-      <c r="G37" s="60" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H37" s="60" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I37" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J37" s="60" t="s">
-        <v>1017</v>
-      </c>
-      <c r="K37" s="60" t="s">
-        <v>1018</v>
-      </c>
-      <c r="L37" s="60" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M37" s="60">
-        <v>39665</v>
-      </c>
-      <c r="N37" s="60">
-        <v>31.645299999999999</v>
-      </c>
-      <c r="O37" s="60">
-        <v>-90.180099999999996</v>
-      </c>
-      <c r="P37" s="60">
-        <v>1196</v>
-      </c>
-      <c r="Q37" s="60" t="s">
-        <v>1020</v>
-      </c>
-      <c r="R37" s="61">
-        <v>21347</v>
-      </c>
-      <c r="S37" s="60" t="s">
-        <v>1021</v>
-      </c>
-      <c r="T37" s="60">
-        <v>1371817586</v>
-      </c>
-      <c r="U37" s="60">
-        <v>31.422908</v>
-      </c>
-      <c r="V37" s="60">
-        <v>-90.012124</v>
-      </c>
-      <c r="W37" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="A38" s="63">
-        <v>36</v>
-      </c>
-      <c r="B38" s="59">
-        <v>44003.518842592595</v>
-      </c>
-      <c r="C38" s="60">
-        <v>4683520018489350</v>
-      </c>
-      <c r="D38" s="60" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E38" s="60" t="s">
-        <v>747</v>
-      </c>
-      <c r="F38" s="60">
-        <v>26.31</v>
-      </c>
-      <c r="G38" s="60" t="s">
-        <v>879</v>
-      </c>
-      <c r="H38" s="60" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I38" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J38" s="60" t="s">
-        <v>1024</v>
-      </c>
-      <c r="K38" s="60" t="s">
-        <v>1025</v>
-      </c>
-      <c r="L38" s="60" t="s">
-        <v>804</v>
-      </c>
-      <c r="M38" s="60">
-        <v>90250</v>
-      </c>
-      <c r="N38" s="60">
-        <v>33.914299999999997</v>
-      </c>
-      <c r="O38" s="60">
-        <v>-118.3493</v>
-      </c>
-      <c r="P38" s="60">
-        <v>93193</v>
-      </c>
-      <c r="Q38" s="60" t="s">
-        <v>1026</v>
-      </c>
-      <c r="R38" s="61">
-        <v>34808</v>
-      </c>
-      <c r="S38" s="60" t="s">
-        <v>1027</v>
-      </c>
-      <c r="T38" s="60">
-        <v>1371817628</v>
-      </c>
-      <c r="U38" s="60">
-        <v>33.949418000000001</v>
-      </c>
-      <c r="V38" s="60">
-        <v>-117.610248</v>
-      </c>
-      <c r="W38" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
-      <c r="A39" s="63">
-        <v>37</v>
-      </c>
-      <c r="B39" s="59">
-        <v>44003.519004629627</v>
-      </c>
-      <c r="C39" s="60">
-        <v>501899453424</v>
-      </c>
-      <c r="D39" s="60" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E39" s="60" t="s">
-        <v>792</v>
-      </c>
-      <c r="F39" s="60">
-        <v>134.6</v>
-      </c>
-      <c r="G39" s="60" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H39" s="60" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I39" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J39" s="60" t="s">
-        <v>1031</v>
-      </c>
-      <c r="K39" s="60" t="s">
-        <v>1032</v>
-      </c>
-      <c r="L39" s="60" t="s">
-        <v>867</v>
-      </c>
-      <c r="M39" s="60">
-        <v>35903</v>
-      </c>
-      <c r="N39" s="60">
-        <v>33.984499999999997</v>
-      </c>
-      <c r="O39" s="60">
-        <v>-85.907700000000006</v>
-      </c>
-      <c r="P39" s="60">
-        <v>67082</v>
-      </c>
-      <c r="Q39" s="60" t="s">
-        <v>1033</v>
-      </c>
-      <c r="R39" s="61">
-        <v>25576</v>
-      </c>
-      <c r="S39" s="60" t="s">
-        <v>1034</v>
-      </c>
-      <c r="T39" s="60">
-        <v>1371817642</v>
-      </c>
-      <c r="U39" s="60">
-        <v>34.727266</v>
-      </c>
-      <c r="V39" s="60">
-        <v>-86.883793999999995</v>
-      </c>
-      <c r="W39" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="A40" s="63">
-        <v>38</v>
-      </c>
-      <c r="B40" s="59">
-        <v>44003.519212962965</v>
-      </c>
-      <c r="C40" s="60">
-        <v>6011348830550190</v>
-      </c>
-      <c r="D40" s="60" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>792</v>
-      </c>
-      <c r="F40" s="60">
-        <v>36.72</v>
-      </c>
-      <c r="G40" s="60" t="s">
-        <v>833</v>
-      </c>
-      <c r="H40" s="60" t="s">
-        <v>1035</v>
-      </c>
-      <c r="I40" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J40" s="60" t="s">
-        <v>1036</v>
-      </c>
-      <c r="K40" s="60" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L40" s="60" t="s">
-        <v>867</v>
-      </c>
-      <c r="M40" s="60">
-        <v>35229</v>
-      </c>
-      <c r="N40" s="60">
-        <v>33.462899999999998</v>
-      </c>
-      <c r="O40" s="60">
-        <v>-86.790400000000005</v>
-      </c>
-      <c r="P40" s="60">
-        <v>493806</v>
-      </c>
-      <c r="Q40" s="60" t="s">
-        <v>1038</v>
-      </c>
-      <c r="R40" s="61">
-        <v>29414</v>
-      </c>
-      <c r="S40" s="60" t="s">
-        <v>1039</v>
-      </c>
-      <c r="T40" s="60">
-        <v>1371817660</v>
-      </c>
-      <c r="U40" s="60">
-        <v>32.761156</v>
-      </c>
-      <c r="V40" s="60">
-        <v>-85.903113000000005</v>
-      </c>
-      <c r="W40" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="A41" s="63">
-        <v>39</v>
-      </c>
-      <c r="B41" s="59">
-        <v>44003.519375000003</v>
-      </c>
-      <c r="C41" s="60">
-        <v>213195754007681</v>
-      </c>
-      <c r="D41" s="60" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>871</v>
-      </c>
-      <c r="F41" s="60">
-        <v>105.78</v>
-      </c>
-      <c r="G41" s="60" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H41" s="60" t="s">
-        <v>1042</v>
-      </c>
-      <c r="I41" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J41" s="60" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K41" s="60" t="s">
-        <v>1044</v>
-      </c>
-      <c r="L41" s="60" t="s">
-        <v>997</v>
-      </c>
-      <c r="M41" s="60">
-        <v>52576</v>
-      </c>
-      <c r="N41" s="60">
-        <v>41.200099999999999</v>
-      </c>
-      <c r="O41" s="60">
-        <v>-92.135400000000004</v>
-      </c>
-      <c r="P41" s="60">
-        <v>568</v>
-      </c>
-      <c r="Q41" s="60" t="s">
-        <v>876</v>
-      </c>
-      <c r="R41" s="61">
-        <v>25408</v>
-      </c>
-      <c r="S41" s="60" t="s">
-        <v>1045</v>
-      </c>
-      <c r="T41" s="60">
-        <v>1371817674</v>
-      </c>
-      <c r="U41" s="60">
-        <v>41.214609000000003</v>
-      </c>
-      <c r="V41" s="60">
-        <v>-92.226243999999994</v>
-      </c>
-      <c r="W41" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="A42" s="63">
-        <v>40</v>
-      </c>
-      <c r="B42" s="59">
-        <v>44003.519513888888</v>
-      </c>
-      <c r="C42" s="60">
-        <v>2712209726293380</v>
-      </c>
-      <c r="D42" s="60" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E42" s="60" t="s">
-        <v>849</v>
-      </c>
-      <c r="F42" s="60">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G42" s="60" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H42" s="60" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I42" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J42" s="60" t="s">
-        <v>1049</v>
-      </c>
-      <c r="K42" s="60" t="s">
-        <v>1050</v>
-      </c>
-      <c r="L42" s="60" t="s">
-        <v>896</v>
-      </c>
-      <c r="M42" s="60">
-        <v>70808</v>
-      </c>
-      <c r="N42" s="60">
-        <v>30.406600000000001</v>
-      </c>
-      <c r="O42" s="60">
-        <v>-91.146799999999999</v>
-      </c>
-      <c r="P42" s="60">
-        <v>378909</v>
-      </c>
-      <c r="Q42" s="60" t="s">
-        <v>1051</v>
-      </c>
-      <c r="R42" s="61">
-        <v>28178</v>
-      </c>
-      <c r="S42" s="60" t="s">
-        <v>1052</v>
-      </c>
-      <c r="T42" s="60">
-        <v>1371817686</v>
-      </c>
-      <c r="U42" s="60">
-        <v>30.382414000000001</v>
-      </c>
-      <c r="V42" s="60">
-        <v>-90.923894000000004</v>
-      </c>
-      <c r="W42" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="A43" s="63">
-        <v>41</v>
-      </c>
-      <c r="B43" s="59">
-        <v>44003.51971064815</v>
-      </c>
-      <c r="C43" s="60">
-        <v>503874407318</v>
-      </c>
-      <c r="D43" s="60" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E43" s="60" t="s">
-        <v>849</v>
-      </c>
-      <c r="F43" s="60">
-        <v>47.81</v>
-      </c>
-      <c r="G43" s="60" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H43" s="60" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I43" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J43" s="60" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K43" s="60" t="s">
-        <v>1057</v>
-      </c>
-      <c r="L43" s="60" t="s">
-        <v>829</v>
-      </c>
-      <c r="M43" s="60">
-        <v>78248</v>
-      </c>
-      <c r="N43" s="60">
-        <v>29.589400000000001</v>
-      </c>
-      <c r="O43" s="60">
-        <v>-98.520099999999999</v>
-      </c>
-      <c r="P43" s="60">
-        <v>1595797</v>
-      </c>
-      <c r="Q43" s="60" t="s">
-        <v>1058</v>
-      </c>
-      <c r="R43" s="61">
-        <v>27756</v>
-      </c>
-      <c r="S43" s="60" t="s">
-        <v>1059</v>
-      </c>
-      <c r="T43" s="60">
-        <v>1371817703</v>
-      </c>
-      <c r="U43" s="60">
-        <v>30.50995</v>
-      </c>
-      <c r="V43" s="60">
-        <v>-99.374200999999999</v>
-      </c>
-      <c r="W43" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="A44" s="63">
-        <v>42</v>
-      </c>
-      <c r="B44" s="59">
-        <v>44003.519895833335</v>
-      </c>
-      <c r="C44" s="60">
-        <v>676369110710</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>792</v>
-      </c>
-      <c r="F44" s="60">
-        <v>18.96</v>
-      </c>
-      <c r="G44" s="60" t="s">
-        <v>817</v>
-      </c>
-      <c r="H44" s="60" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I44" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J44" s="60" t="s">
-        <v>1062</v>
-      </c>
-      <c r="K44" s="60" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L44" s="60" t="s">
-        <v>788</v>
-      </c>
-      <c r="M44" s="60">
-        <v>48034</v>
-      </c>
-      <c r="N44" s="60">
-        <v>42.496899999999997</v>
-      </c>
-      <c r="O44" s="60">
-        <v>-83.2911</v>
-      </c>
-      <c r="P44" s="60">
-        <v>75830</v>
-      </c>
-      <c r="Q44" s="60" t="s">
-        <v>1064</v>
-      </c>
-      <c r="R44" s="61">
-        <v>27391</v>
-      </c>
-      <c r="S44" s="60" t="s">
-        <v>1065</v>
-      </c>
-      <c r="T44" s="60">
-        <v>1371817719</v>
-      </c>
-      <c r="U44" s="60">
-        <v>42.186472999999999</v>
-      </c>
-      <c r="V44" s="60">
-        <v>-84.041556999999997</v>
-      </c>
-      <c r="W44" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="A45" s="63">
-        <v>43</v>
-      </c>
-      <c r="B45" s="59">
-        <v>44003.520428240743</v>
-      </c>
-      <c r="C45" s="60">
-        <v>4783226709001</v>
-      </c>
-      <c r="D45" s="60" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E45" s="60" t="s">
-        <v>871</v>
-      </c>
-      <c r="F45" s="60">
-        <v>46.67</v>
-      </c>
-      <c r="G45" s="60" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H45" s="60" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I45" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J45" s="60" t="s">
-        <v>1068</v>
-      </c>
-      <c r="K45" s="60" t="s">
-        <v>1069</v>
-      </c>
-      <c r="L45" s="60" t="s">
-        <v>1070</v>
-      </c>
-      <c r="M45" s="60">
-        <v>67556</v>
-      </c>
-      <c r="N45" s="60">
-        <v>38.595700000000001</v>
-      </c>
-      <c r="O45" s="60">
-        <v>-99.554000000000002</v>
-      </c>
-      <c r="P45" s="60">
-        <v>320</v>
-      </c>
-      <c r="Q45" s="60" t="s">
-        <v>1071</v>
-      </c>
-      <c r="R45" s="61">
-        <v>22393</v>
-      </c>
-      <c r="S45" s="60" t="s">
-        <v>1072</v>
-      </c>
-      <c r="T45" s="60">
-        <v>1371817765</v>
-      </c>
-      <c r="U45" s="60">
-        <v>39.456657999999997</v>
-      </c>
-      <c r="V45" s="60">
-        <v>-99.569785999999993</v>
-      </c>
-      <c r="W45" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="A46" s="63">
-        <v>44</v>
-      </c>
-      <c r="B46" s="59">
-        <v>44003.520451388889</v>
-      </c>
-      <c r="C46" s="60">
-        <v>375848982312810</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E46" s="60" t="s">
-        <v>792</v>
-      </c>
-      <c r="F46" s="60">
-        <v>30.59</v>
-      </c>
-      <c r="G46" s="60" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H46" s="60" t="s">
-        <v>1075</v>
-      </c>
-      <c r="I46" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J46" s="60" t="s">
-        <v>1076</v>
-      </c>
-      <c r="K46" s="60" t="s">
-        <v>1077</v>
-      </c>
-      <c r="L46" s="60" t="s">
-        <v>829</v>
-      </c>
-      <c r="M46" s="60">
-        <v>76566</v>
-      </c>
-      <c r="N46" s="60">
-        <v>31.484100000000002</v>
-      </c>
-      <c r="O46" s="60">
-        <v>-97.990300000000005</v>
-      </c>
-      <c r="P46" s="60">
-        <v>258</v>
-      </c>
-      <c r="Q46" s="60" t="s">
-        <v>1078</v>
-      </c>
-      <c r="R46" s="61">
-        <v>16055</v>
-      </c>
-      <c r="S46" s="60" t="s">
-        <v>1079</v>
-      </c>
-      <c r="T46" s="60">
-        <v>1371817767</v>
-      </c>
-      <c r="U46" s="60">
-        <v>32.053227999999997</v>
-      </c>
-      <c r="V46" s="60">
-        <v>-97.160999000000004</v>
-      </c>
-      <c r="W46" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
-      <c r="A47" s="63">
-        <v>45</v>
-      </c>
-      <c r="B47" s="59">
-        <v>44003.520486111112</v>
-      </c>
-      <c r="C47" s="60">
-        <v>30270432095985</v>
-      </c>
-      <c r="D47" s="60" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E47" s="60" t="s">
-        <v>849</v>
-      </c>
-      <c r="F47" s="60">
-        <v>3.94</v>
-      </c>
-      <c r="G47" s="60" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H47" s="60" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I47" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J47" s="60" t="s">
-        <v>1083</v>
-      </c>
-      <c r="K47" s="60" t="s">
-        <v>1084</v>
-      </c>
-      <c r="L47" s="60" t="s">
-        <v>1085</v>
-      </c>
-      <c r="M47" s="60">
-        <v>61454</v>
-      </c>
-      <c r="N47" s="60">
-        <v>40.676099999999998</v>
-      </c>
-      <c r="O47" s="60">
-        <v>-91.039100000000005</v>
-      </c>
-      <c r="P47" s="60">
-        <v>725</v>
-      </c>
-      <c r="Q47" s="60" t="s">
-        <v>1086</v>
-      </c>
-      <c r="R47" s="61">
-        <v>26631</v>
-      </c>
-      <c r="S47" s="60" t="s">
-        <v>1087</v>
-      </c>
-      <c r="T47" s="60">
-        <v>1371817770</v>
-      </c>
-      <c r="U47" s="60">
-        <v>40.922922999999997</v>
-      </c>
-      <c r="V47" s="60">
-        <v>-91.977219000000005</v>
-      </c>
-      <c r="W47" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="A48" s="63">
-        <v>46</v>
-      </c>
-      <c r="B48" s="59">
-        <v>44003.520520833335</v>
-      </c>
-      <c r="C48" s="60">
-        <v>6011149206456990</v>
-      </c>
-      <c r="D48" s="60" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>849</v>
-      </c>
-      <c r="F48" s="60">
-        <v>84.11</v>
-      </c>
-      <c r="G48" s="60" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H48" s="60" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I48" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J48" s="60" t="s">
-        <v>1091</v>
-      </c>
-      <c r="K48" s="60" t="s">
-        <v>1092</v>
-      </c>
-      <c r="L48" s="60" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M48" s="60">
-        <v>21790</v>
-      </c>
-      <c r="N48" s="60">
-        <v>39.2667</v>
-      </c>
-      <c r="O48" s="60">
-        <v>-77.510099999999994</v>
-      </c>
-      <c r="P48" s="60">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="60" t="s">
-        <v>1093</v>
-      </c>
-      <c r="R48" s="61">
-        <v>29200</v>
-      </c>
-      <c r="S48" s="60" t="s">
-        <v>1094</v>
-      </c>
-      <c r="T48" s="60">
-        <v>1371817773</v>
-      </c>
-      <c r="U48" s="60">
-        <v>39.535381999999998</v>
-      </c>
-      <c r="V48" s="60">
-        <v>-77.064746999999997</v>
-      </c>
-      <c r="W48" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
-      <c r="A49" s="63">
-        <v>47</v>
-      </c>
-      <c r="B49" s="59">
-        <v>44003.520555555559</v>
-      </c>
-      <c r="C49" s="60">
-        <v>4.11026655360017E+18</v>
-      </c>
-      <c r="D49" s="60" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E49" s="60" t="s">
-        <v>792</v>
-      </c>
-      <c r="F49" s="60">
-        <v>31.19</v>
-      </c>
-      <c r="G49" s="60" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H49" s="60" t="s">
-        <v>1097</v>
-      </c>
-      <c r="I49" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J49" s="60" t="s">
-        <v>1098</v>
-      </c>
-      <c r="K49" s="60" t="s">
-        <v>1099</v>
-      </c>
-      <c r="L49" s="60" t="s">
-        <v>1019</v>
-      </c>
-      <c r="M49" s="60">
-        <v>38778</v>
-      </c>
-      <c r="N49" s="60">
-        <v>33.556699999999999</v>
-      </c>
-      <c r="O49" s="60">
-        <v>-90.545100000000005</v>
-      </c>
-      <c r="P49" s="60">
-        <v>1686</v>
-      </c>
-      <c r="Q49" s="60" t="s">
-        <v>1100</v>
-      </c>
-      <c r="R49" s="61">
-        <v>31722</v>
-      </c>
-      <c r="S49" s="60" t="s">
-        <v>1101</v>
-      </c>
-      <c r="T49" s="60">
-        <v>1371817776</v>
-      </c>
-      <c r="U49" s="60">
-        <v>33.693106</v>
-      </c>
-      <c r="V49" s="60">
-        <v>-89.594744000000006</v>
-      </c>
-      <c r="W49" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
-      <c r="A50" s="63">
-        <v>48</v>
-      </c>
-      <c r="B50" s="59">
-        <v>44003.520671296297</v>
-      </c>
-      <c r="C50" s="60">
-        <v>675990301623</v>
-      </c>
-      <c r="D50" s="60" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E50" s="60" t="s">
-        <v>825</v>
-      </c>
-      <c r="F50" s="60">
-        <v>4.91</v>
-      </c>
-      <c r="G50" s="60" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H50" s="60" t="s">
-        <v>811</v>
-      </c>
-      <c r="I50" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J50" s="60" t="s">
-        <v>1104</v>
-      </c>
-      <c r="K50" s="60" t="s">
-        <v>1105</v>
-      </c>
-      <c r="L50" s="60" t="s">
-        <v>989</v>
-      </c>
-      <c r="M50" s="60">
-        <v>7439</v>
-      </c>
-      <c r="N50" s="60">
-        <v>41.076700000000002</v>
-      </c>
-      <c r="O50" s="60">
-        <v>-74.598200000000006</v>
-      </c>
-      <c r="P50" s="60">
-        <v>2456</v>
-      </c>
-      <c r="Q50" s="60" t="s">
-        <v>1106</v>
-      </c>
-      <c r="R50" s="61">
-        <v>34406</v>
-      </c>
-      <c r="S50" s="60" t="s">
-        <v>1107</v>
-      </c>
-      <c r="T50" s="60">
-        <v>1371817786</v>
-      </c>
-      <c r="U50" s="60">
-        <v>41.061214</v>
-      </c>
-      <c r="V50" s="60">
-        <v>-73.997980999999996</v>
-      </c>
-      <c r="W50" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
-      <c r="A51" s="63">
-        <v>49</v>
-      </c>
-      <c r="B51" s="59">
-        <v>44003.520787037036</v>
-      </c>
-      <c r="C51" s="60">
-        <v>377026671291680</v>
-      </c>
-      <c r="D51" s="60" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E51" s="60" t="s">
-        <v>766</v>
-      </c>
-      <c r="F51" s="60">
-        <v>5.36</v>
-      </c>
-      <c r="G51" s="60" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H51" s="60" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I51" s="60" t="s">
-        <v>759</v>
-      </c>
-      <c r="J51" s="60" t="s">
-        <v>1111</v>
-      </c>
-      <c r="K51" s="60" t="s">
-        <v>1112</v>
-      </c>
-      <c r="L51" s="60" t="s">
-        <v>1113</v>
-      </c>
-      <c r="M51" s="60">
-        <v>63665</v>
-      </c>
-      <c r="N51" s="60">
-        <v>37.327199999999998</v>
-      </c>
-      <c r="O51" s="60">
-        <v>-91.024299999999997</v>
-      </c>
-      <c r="P51" s="60">
-        <v>241</v>
-      </c>
-      <c r="Q51" s="60" t="s">
-        <v>1114</v>
-      </c>
-      <c r="R51" s="61">
-        <v>27329</v>
-      </c>
-      <c r="S51" s="60" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T51" s="60">
-        <v>1371817796</v>
-      </c>
-      <c r="U51" s="60">
-        <v>38.211238000000002</v>
-      </c>
-      <c r="V51" s="60">
-        <v>-90.421870999999996</v>
-      </c>
-      <c r="W51" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
-      <c r="A52" s="63">
-        <v>50</v>
-      </c>
-      <c r="B52" s="59">
-        <v>44003.521053240744</v>
-      </c>
-      <c r="C52" s="60">
-        <v>6011934240159560</v>
-      </c>
-      <c r="D52" s="60" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E52" s="60" t="s">
-        <v>849</v>
-      </c>
-      <c r="F52" s="60">
-        <v>80.5</v>
-      </c>
-      <c r="G52" s="60" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H52" s="60" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I52" s="60" t="s">
-        <v>750</v>
-      </c>
-      <c r="J52" s="60" t="s">
-        <v>1119</v>
-      </c>
-      <c r="K52" s="60" t="s">
-        <v>1120</v>
-      </c>
-      <c r="L52" s="60" t="s">
-        <v>1121</v>
-      </c>
-      <c r="M52" s="60">
-        <v>4616</v>
-      </c>
-      <c r="N52" s="60">
-        <v>44.254100000000001</v>
-      </c>
-      <c r="O52" s="60">
-        <v>-68.5565</v>
-      </c>
-      <c r="P52" s="60">
-        <v>824</v>
-      </c>
-      <c r="Q52" s="60" t="s">
-        <v>1122</v>
-      </c>
-      <c r="R52" s="61">
-        <v>27335</v>
-      </c>
-      <c r="S52" s="60" t="s">
-        <v>1123</v>
-      </c>
-      <c r="T52" s="60">
-        <v>1371817819</v>
-      </c>
-      <c r="U52" s="60">
-        <v>44.959020000000002</v>
-      </c>
-      <c r="V52" s="60">
-        <v>-69.150254000000004</v>
-      </c>
-      <c r="W52" s="60">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581188DC-85A2-C343-BF65-34BF863645EF}">
-  <dimension ref="A1:D53"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="13.5" style="48" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.83203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.5" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="48"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="49" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="27" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="27" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="27" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="27" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="27" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="27" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="27" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="49" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="27" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" s="27" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="27" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="27" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="67" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="49" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D32" s="66" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="B33" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="B34" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="B35" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="B36" s="27" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37" s="27" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38" s="27" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="49" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="B44" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D44" s="66" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="B45" s="27" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46" s="27" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="B47" s="27" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="B48" s="27" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="B49" s="67" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C49" s="67" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D49" s="67" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="49"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>